--- a/outcome/fig4.xlsx
+++ b/outcome/fig4.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="panel_a_g" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="panel_h" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="panel_g" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="panel_h_l" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">location_name</t>
   </si>
@@ -31,25 +30,25 @@
     <t xml:space="preserve">Q3</t>
   </si>
   <si>
-    <t xml:space="preserve">African Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Mediterranean Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Region</t>
+    <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
   </si>
   <si>
     <t xml:space="preserve">Global</t>
   </si>
   <si>
-    <t xml:space="preserve">Region of the Americas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South-East Asia Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Pacific Region</t>
+    <t xml:space="preserve">South-East Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Pacific</t>
   </si>
   <si>
     <t xml:space="preserve">Arab Republic of Egypt</t>
@@ -403,718 +402,7 @@
     <t xml:space="preserve">United Republic of Tanzania</t>
   </si>
   <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZA</t>
+    <t xml:space="preserve">United States of America</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +1306,10 @@
         <v>1.31666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.01666666666667</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35">
@@ -2032,13 +1320,13 @@
         <v>1991</v>
       </c>
       <c r="C35" t="n">
-        <v>1.30833333333333</v>
+        <v>1.34166666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.416666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E35" t="n">
-        <v>3.00833333333333</v>
+        <v>2.93333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -2049,13 +1337,13 @@
         <v>1992</v>
       </c>
       <c r="C36" t="n">
-        <v>1.30833333333333</v>
+        <v>1.35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.416666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>3.025</v>
+        <v>2.96666666666667</v>
       </c>
     </row>
     <row r="37">
@@ -2066,13 +1354,13 @@
         <v>1993</v>
       </c>
       <c r="C37" t="n">
-        <v>1.30833333333333</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.416666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>3.04166666666667</v>
+        <v>2.98333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -2083,13 +1371,13 @@
         <v>1994</v>
       </c>
       <c r="C38" t="n">
-        <v>1.31666666666667</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.416666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>3.05833333333333</v>
+        <v>2.98333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -2100,13 +1388,13 @@
         <v>1995</v>
       </c>
       <c r="C39" t="n">
-        <v>1.30833333333333</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.416666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>3.06666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2117,13 +1405,13 @@
         <v>1996</v>
       </c>
       <c r="C40" t="n">
-        <v>1.325</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.416666666666667</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>3.09166666666667</v>
+        <v>3.01666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -2134,13 +1422,13 @@
         <v>1997</v>
       </c>
       <c r="C41" t="n">
-        <v>1.33333333333333</v>
+        <v>1.375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.416666666666667</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>3.11666666666667</v>
+        <v>3.03333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -2151,13 +1439,13 @@
         <v>1998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.34166666666667</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>3.15</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="43">
@@ -2171,10 +1459,10 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>3.175</v>
+        <v>3.04166666666667</v>
       </c>
     </row>
     <row r="44">
@@ -2185,13 +1473,13 @@
         <v>2000</v>
       </c>
       <c r="C44" t="n">
-        <v>1.36666666666667</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D44" t="n">
-        <v>0.508333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>3.2</v>
+        <v>3.04166666666667</v>
       </c>
     </row>
     <row r="45">
@@ -2202,13 +1490,13 @@
         <v>2001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.375</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>0.508333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>3.20833333333333</v>
+        <v>3.05833333333333</v>
       </c>
     </row>
     <row r="46">
@@ -2219,13 +1507,13 @@
         <v>2002</v>
       </c>
       <c r="C46" t="n">
-        <v>1.375</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>0.516666666666667</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E46" t="n">
-        <v>3.21666666666667</v>
+        <v>3.05833333333333</v>
       </c>
     </row>
     <row r="47">
@@ -2236,13 +1524,13 @@
         <v>2003</v>
       </c>
       <c r="C47" t="n">
-        <v>1.39166666666667</v>
+        <v>1.35</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533333333333333</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E47" t="n">
-        <v>3.23333333333333</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="48">
@@ -2253,13 +1541,13 @@
         <v>2004</v>
       </c>
       <c r="C48" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="D48" t="n">
-        <v>0.541666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E48" t="n">
-        <v>3.24166666666667</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="49">
@@ -2270,13 +1558,13 @@
         <v>2005</v>
       </c>
       <c r="C49" t="n">
-        <v>1.4</v>
+        <v>1.34166666666667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.541666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E49" t="n">
-        <v>3.23333333333333</v>
+        <v>3.04166666666667</v>
       </c>
     </row>
     <row r="50">
@@ -2287,13 +1575,13 @@
         <v>2006</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D50" t="n">
         <v>0.541666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>3.225</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="51">
@@ -2304,13 +1592,13 @@
         <v>2007</v>
       </c>
       <c r="C51" t="n">
-        <v>1.39166666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.55</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>3.21666666666667</v>
+        <v>3.01666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -2321,13 +1609,13 @@
         <v>2008</v>
       </c>
       <c r="C52" t="n">
-        <v>1.4</v>
+        <v>1.31666666666667</v>
       </c>
       <c r="D52" t="n">
-        <v>0.558333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2338,13 +1626,13 @@
         <v>2009</v>
       </c>
       <c r="C53" t="n">
-        <v>1.39166666666667</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="D53" t="n">
-        <v>0.566666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="E53" t="n">
-        <v>3.15</v>
+        <v>2.975</v>
       </c>
     </row>
     <row r="54">
@@ -2355,13 +1643,13 @@
         <v>2010</v>
       </c>
       <c r="C54" t="n">
-        <v>1.36666666666667</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>0.558333333333333</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>3.09166666666667</v>
+        <v>2.95833333333333</v>
       </c>
     </row>
     <row r="55">
@@ -2372,13 +1660,13 @@
         <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>1.35833333333333</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D55" t="n">
-        <v>0.55</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="E55" t="n">
-        <v>3.075</v>
+        <v>2.96666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -2389,13 +1677,13 @@
         <v>2012</v>
       </c>
       <c r="C56" t="n">
-        <v>1.34166666666667</v>
+        <v>1.275</v>
       </c>
       <c r="D56" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="n">
-        <v>3.05</v>
+        <v>2.93333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2406,13 +1694,13 @@
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>1.36666666666667</v>
+        <v>1.28333333333333</v>
       </c>
       <c r="D57" t="n">
-        <v>0.558333333333333</v>
+        <v>0.508333333333333</v>
       </c>
       <c r="E57" t="n">
-        <v>3.09166666666667</v>
+        <v>2.93333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -2423,13 +1711,13 @@
         <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>1.375</v>
+        <v>1.29166666666667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.558333333333333</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>3.10833333333333</v>
+        <v>2.94166666666667</v>
       </c>
     </row>
     <row r="59">
@@ -2440,13 +1728,13 @@
         <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>1.36666666666667</v>
+        <v>1.31666666666667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.558333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>3.09166666666667</v>
+        <v>2.975</v>
       </c>
     </row>
     <row r="60">
@@ -2457,13 +1745,13 @@
         <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>1.36666666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>3.08333333333333</v>
+        <v>3.00833333333333</v>
       </c>
     </row>
     <row r="61">
@@ -2474,13 +1762,13 @@
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>1.35833333333333</v>
+        <v>1.35</v>
       </c>
       <c r="D61" t="n">
         <v>0.55</v>
       </c>
       <c r="E61" t="n">
-        <v>3.08333333333333</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="62">
@@ -2491,13 +1779,13 @@
         <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>1.34166666666667</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.55</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>3.075</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="63">
@@ -2508,13 +1796,13 @@
         <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>1.35</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.55</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E63" t="n">
-        <v>3.09166666666667</v>
+        <v>3.06666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -2525,13 +1813,13 @@
         <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>1.475</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.591666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="E64" t="n">
-        <v>3.21666666666667</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="65">
@@ -2542,13 +1830,13 @@
         <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>1.44166666666667</v>
+        <v>1.3</v>
       </c>
       <c r="D65" t="n">
-        <v>0.55</v>
+        <v>0.408333333333333</v>
       </c>
       <c r="E65" t="n">
-        <v>3.175</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="66">
@@ -2559,13 +1847,13 @@
         <v>1990</v>
       </c>
       <c r="C66" t="n">
-        <v>1.33333333333333</v>
+        <v>1.31666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>0.558333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="n">
-        <v>3.15</v>
+        <v>3.01666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -2576,13 +1864,13 @@
         <v>1991</v>
       </c>
       <c r="C67" t="n">
-        <v>1.35</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="D67" t="n">
-        <v>0.558333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E67" t="n">
-        <v>3.16666666666667</v>
+        <v>3.00833333333333</v>
       </c>
     </row>
     <row r="68">
@@ -2593,13 +1881,13 @@
         <v>1992</v>
       </c>
       <c r="C68" t="n">
-        <v>1.36666666666667</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.566666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>3.2</v>
+        <v>3.025</v>
       </c>
     </row>
     <row r="69">
@@ -2610,13 +1898,13 @@
         <v>1993</v>
       </c>
       <c r="C69" t="n">
-        <v>1.38333333333333</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="D69" t="n">
-        <v>0.566666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>3.25</v>
+        <v>3.04166666666667</v>
       </c>
     </row>
     <row r="70">
@@ -2627,13 +1915,13 @@
         <v>1994</v>
       </c>
       <c r="C70" t="n">
-        <v>1.40833333333333</v>
+        <v>1.31666666666667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.575</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>3.29166666666667</v>
+        <v>3.05833333333333</v>
       </c>
     </row>
     <row r="71">
@@ -2644,13 +1932,13 @@
         <v>1995</v>
       </c>
       <c r="C71" t="n">
-        <v>1.41666666666667</v>
+        <v>1.30833333333333</v>
       </c>
       <c r="D71" t="n">
-        <v>0.566666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E71" t="n">
-        <v>3.33333333333333</v>
+        <v>3.06666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -2661,13 +1949,13 @@
         <v>1996</v>
       </c>
       <c r="C72" t="n">
-        <v>1.43333333333333</v>
+        <v>1.325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.566666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E72" t="n">
-        <v>3.35833333333333</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="73">
@@ -2678,13 +1966,13 @@
         <v>1997</v>
       </c>
       <c r="C73" t="n">
-        <v>1.43333333333333</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.566666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E73" t="n">
-        <v>3.35833333333333</v>
+        <v>3.11666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -2695,13 +1983,13 @@
         <v>1998</v>
       </c>
       <c r="C74" t="n">
-        <v>1.45</v>
+        <v>1.34166666666667</v>
       </c>
       <c r="D74" t="n">
-        <v>0.575</v>
+        <v>0.5</v>
       </c>
       <c r="E74" t="n">
-        <v>3.39166666666667</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="75">
@@ -2712,13 +2000,13 @@
         <v>1999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.475</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D75" t="n">
-        <v>0.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
-        <v>3.43333333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="76">
@@ -2729,13 +2017,13 @@
         <v>2000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.48333333333333</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>0.591666666666667</v>
+        <v>0.508333333333333</v>
       </c>
       <c r="E76" t="n">
-        <v>3.425</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="77">
@@ -2746,13 +2034,13 @@
         <v>2001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.49166666666667</v>
+        <v>1.375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>0.508333333333333</v>
       </c>
       <c r="E77" t="n">
-        <v>3.41666666666667</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="78">
@@ -2763,13 +2051,13 @@
         <v>2002</v>
       </c>
       <c r="C78" t="n">
-        <v>1.50833333333333</v>
+        <v>1.375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.608333333333333</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="E78" t="n">
-        <v>3.425</v>
+        <v>3.21666666666667</v>
       </c>
     </row>
     <row r="79">
@@ -2780,13 +2068,13 @@
         <v>2003</v>
       </c>
       <c r="C79" t="n">
-        <v>1.50833333333333</v>
+        <v>1.39166666666667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.608333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="E79" t="n">
-        <v>3.41666666666667</v>
+        <v>3.23333333333333</v>
       </c>
     </row>
     <row r="80">
@@ -2797,13 +2085,13 @@
         <v>2004</v>
       </c>
       <c r="C80" t="n">
-        <v>1.525</v>
+        <v>1.4</v>
       </c>
       <c r="D80" t="n">
-        <v>0.625</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E80" t="n">
-        <v>3.41666666666667</v>
+        <v>3.24166666666667</v>
       </c>
     </row>
     <row r="81">
@@ -2814,13 +2102,13 @@
         <v>2005</v>
       </c>
       <c r="C81" t="n">
-        <v>1.53333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="D81" t="n">
-        <v>0.633333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>3.41666666666667</v>
+        <v>3.23333333333333</v>
       </c>
     </row>
     <row r="82">
@@ -2831,13 +2119,13 @@
         <v>2006</v>
       </c>
       <c r="C82" t="n">
-        <v>1.525</v>
+        <v>1.4</v>
       </c>
       <c r="D82" t="n">
-        <v>0.633333333333333</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>3.4</v>
+        <v>3.225</v>
       </c>
     </row>
     <row r="83">
@@ -2848,13 +2136,13 @@
         <v>2007</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50833333333333</v>
+        <v>1.39166666666667</v>
       </c>
       <c r="D83" t="n">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="E83" t="n">
-        <v>3.375</v>
+        <v>3.21666666666667</v>
       </c>
     </row>
     <row r="84">
@@ -2865,13 +2153,13 @@
         <v>2008</v>
       </c>
       <c r="C84" t="n">
-        <v>1.48333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="D84" t="n">
-        <v>0.616666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E84" t="n">
-        <v>3.33333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="85">
@@ -2882,13 +2170,13 @@
         <v>2009</v>
       </c>
       <c r="C85" t="n">
-        <v>1.45833333333333</v>
+        <v>1.39166666666667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.608333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E85" t="n">
-        <v>3.29166666666667</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="86">
@@ -2899,13 +2187,13 @@
         <v>2010</v>
       </c>
       <c r="C86" t="n">
-        <v>1.43333333333333</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>3.25</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="87">
@@ -2916,13 +2204,13 @@
         <v>2011</v>
       </c>
       <c r="C87" t="n">
-        <v>1.4</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.583333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E87" t="n">
-        <v>3.20833333333333</v>
+        <v>3.075</v>
       </c>
     </row>
     <row r="88">
@@ -2933,13 +2221,13 @@
         <v>2012</v>
       </c>
       <c r="C88" t="n">
-        <v>1.38333333333333</v>
+        <v>1.34166666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.583333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E88" t="n">
-        <v>3.15833333333333</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="89">
@@ -2950,13 +2238,13 @@
         <v>2013</v>
       </c>
       <c r="C89" t="n">
-        <v>1.38333333333333</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>0.583333333333333</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E89" t="n">
-        <v>3.15</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="90">
@@ -2967,13 +2255,13 @@
         <v>2014</v>
       </c>
       <c r="C90" t="n">
-        <v>1.39166666666667</v>
+        <v>1.375</v>
       </c>
       <c r="D90" t="n">
-        <v>0.591666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>3.15833333333333</v>
+        <v>3.10833333333333</v>
       </c>
     </row>
     <row r="91">
@@ -2984,13 +2272,13 @@
         <v>2015</v>
       </c>
       <c r="C91" t="n">
-        <v>1.38333333333333</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.591666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E91" t="n">
-        <v>3.15</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="92">
@@ -3001,13 +2289,13 @@
         <v>2016</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40833333333333</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E92" t="n">
-        <v>3.20833333333333</v>
+        <v>3.08333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -3018,13 +2306,13 @@
         <v>2017</v>
       </c>
       <c r="C93" t="n">
-        <v>1.425</v>
+        <v>1.35833333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E93" t="n">
-        <v>3.24166666666667</v>
+        <v>3.08333333333333</v>
       </c>
     </row>
     <row r="94">
@@ -3035,13 +2323,13 @@
         <v>2018</v>
       </c>
       <c r="C94" t="n">
-        <v>1.44166666666667</v>
+        <v>1.34166666666667</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E94" t="n">
-        <v>3.275</v>
+        <v>3.075</v>
       </c>
     </row>
     <row r="95">
@@ -3052,13 +2340,13 @@
         <v>2019</v>
       </c>
       <c r="C95" t="n">
-        <v>1.45833333333333</v>
+        <v>1.35</v>
       </c>
       <c r="D95" t="n">
-        <v>0.608333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E95" t="n">
-        <v>3.325</v>
+        <v>3.09166666666667</v>
       </c>
     </row>
     <row r="96">
@@ -3069,13 +2357,13 @@
         <v>2020</v>
       </c>
       <c r="C96" t="n">
-        <v>1.45</v>
+        <v>1.475</v>
       </c>
       <c r="D96" t="n">
         <v>0.591666666666667</v>
       </c>
       <c r="E96" t="n">
-        <v>3.36666666666667</v>
+        <v>3.21666666666667</v>
       </c>
     </row>
     <row r="97">
@@ -3086,13 +2374,13 @@
         <v>2021</v>
       </c>
       <c r="C97" t="n">
-        <v>1.625</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="E97" t="n">
-        <v>5.325</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="98">
@@ -3103,13 +2391,13 @@
         <v>1990</v>
       </c>
       <c r="C98" t="n">
-        <v>1.44166666666667</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="D98" t="n">
-        <v>0.566666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E98" t="n">
-        <v>3.175</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="99">
@@ -3120,13 +2408,13 @@
         <v>1991</v>
       </c>
       <c r="C99" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="D99" t="n">
-        <v>0.566666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E99" t="n">
-        <v>3.175</v>
+        <v>3.16666666666667</v>
       </c>
     </row>
     <row r="100">
@@ -3137,13 +2425,13 @@
         <v>1992</v>
       </c>
       <c r="C100" t="n">
-        <v>1.45</v>
+        <v>1.36666666666667</v>
       </c>
       <c r="D100" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E100" t="n">
-        <v>3.19166666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="101">
@@ -3154,13 +2442,13 @@
         <v>1993</v>
       </c>
       <c r="C101" t="n">
-        <v>1.45</v>
+        <v>1.38333333333333</v>
       </c>
       <c r="D101" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E101" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="102">
@@ -3171,13 +2459,13 @@
         <v>1994</v>
       </c>
       <c r="C102" t="n">
-        <v>1.45</v>
+        <v>1.40833333333333</v>
       </c>
       <c r="D102" t="n">
-        <v>0.566666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E102" t="n">
-        <v>3.19166666666667</v>
+        <v>3.29166666666667</v>
       </c>
     </row>
     <row r="103">
@@ -3188,13 +2476,13 @@
         <v>1995</v>
       </c>
       <c r="C103" t="n">
-        <v>1.44166666666667</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="D103" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E103" t="n">
-        <v>3.19166666666667</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -3205,13 +2493,13 @@
         <v>1996</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44166666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D104" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E104" t="n">
-        <v>3.19166666666667</v>
+        <v>3.35833333333333</v>
       </c>
     </row>
     <row r="105">
@@ -3228,7 +2516,7 @@
         <v>0.566666666666667</v>
       </c>
       <c r="E105" t="n">
-        <v>3.19166666666667</v>
+        <v>3.35833333333333</v>
       </c>
     </row>
     <row r="106">
@@ -3239,13 +2527,13 @@
         <v>1998</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44166666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E106" t="n">
-        <v>3.2</v>
+        <v>3.39166666666667</v>
       </c>
     </row>
     <row r="107">
@@ -3256,13 +2544,13 @@
         <v>1999</v>
       </c>
       <c r="C107" t="n">
-        <v>1.43333333333333</v>
+        <v>1.475</v>
       </c>
       <c r="D107" t="n">
-        <v>0.558333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E107" t="n">
-        <v>3.19166666666667</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -3273,13 +2561,13 @@
         <v>2000</v>
       </c>
       <c r="C108" t="n">
-        <v>1.43333333333333</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D108" t="n">
-        <v>0.566666666666667</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E108" t="n">
-        <v>3.2</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="109">
@@ -3290,13 +2578,13 @@
         <v>2001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.43333333333333</v>
+        <v>1.49166666666667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.566666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E109" t="n">
-        <v>3.21666666666667</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="110">
@@ -3307,13 +2595,13 @@
         <v>2002</v>
       </c>
       <c r="C110" t="n">
-        <v>1.425</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D110" t="n">
-        <v>0.558333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E110" t="n">
-        <v>3.19166666666667</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="111">
@@ -3324,13 +2612,13 @@
         <v>2003</v>
       </c>
       <c r="C111" t="n">
-        <v>1.425</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D111" t="n">
-        <v>0.558333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E111" t="n">
-        <v>3.19166666666667</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -3341,13 +2629,13 @@
         <v>2004</v>
       </c>
       <c r="C112" t="n">
-        <v>1.425</v>
+        <v>1.525</v>
       </c>
       <c r="D112" t="n">
-        <v>0.566666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="E112" t="n">
-        <v>3.2</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -3358,13 +2646,13 @@
         <v>2005</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43333333333333</v>
+        <v>1.53333333333333</v>
       </c>
       <c r="D113" t="n">
-        <v>0.575</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="E113" t="n">
-        <v>3.20833333333333</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="114">
@@ -3375,13 +2663,13 @@
         <v>2006</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43333333333333</v>
+        <v>1.525</v>
       </c>
       <c r="D114" t="n">
-        <v>0.575</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="E114" t="n">
-        <v>3.20833333333333</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="115">
@@ -3392,13 +2680,13 @@
         <v>2007</v>
       </c>
       <c r="C115" t="n">
-        <v>1.43333333333333</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.583333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="E115" t="n">
-        <v>3.2</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="116">
@@ -3409,13 +2697,13 @@
         <v>2008</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43333333333333</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D116" t="n">
-        <v>0.583333333333333</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="E116" t="n">
-        <v>3.2</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -3426,13 +2714,13 @@
         <v>2009</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43333333333333</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="D117" t="n">
-        <v>0.583333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E117" t="n">
-        <v>3.18333333333333</v>
+        <v>3.29166666666667</v>
       </c>
     </row>
     <row r="118">
@@ -3443,13 +2731,13 @@
         <v>2010</v>
       </c>
       <c r="C118" t="n">
-        <v>1.425</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D118" t="n">
-        <v>0.583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E118" t="n">
-        <v>3.175</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="119">
@@ -3460,13 +2748,13 @@
         <v>2011</v>
       </c>
       <c r="C119" t="n">
-        <v>1.43333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="D119" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="E119" t="n">
-        <v>3.18333333333333</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="120">
@@ -3477,13 +2765,13 @@
         <v>2012</v>
       </c>
       <c r="C120" t="n">
-        <v>1.43333333333333</v>
+        <v>1.38333333333333</v>
       </c>
       <c r="D120" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="E120" t="n">
-        <v>3.18333333333333</v>
+        <v>3.15833333333333</v>
       </c>
     </row>
     <row r="121">
@@ -3494,13 +2782,13 @@
         <v>2013</v>
       </c>
       <c r="C121" t="n">
-        <v>1.43333333333333</v>
+        <v>1.38333333333333</v>
       </c>
       <c r="D121" t="n">
-        <v>0.591666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E121" t="n">
-        <v>3.18333333333333</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="122">
@@ -3511,13 +2799,13 @@
         <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>1.43333333333333</v>
+        <v>1.39166666666667</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E122" t="n">
-        <v>3.175</v>
+        <v>3.15833333333333</v>
       </c>
     </row>
     <row r="123">
@@ -3528,13 +2816,13 @@
         <v>2015</v>
       </c>
       <c r="C123" t="n">
-        <v>1.43333333333333</v>
+        <v>1.38333333333333</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E123" t="n">
-        <v>3.175</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="124">
@@ -3545,13 +2833,13 @@
         <v>2016</v>
       </c>
       <c r="C124" t="n">
-        <v>1.44166666666667</v>
+        <v>1.40833333333333</v>
       </c>
       <c r="D124" t="n">
         <v>0.6</v>
       </c>
       <c r="E124" t="n">
-        <v>3.175</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="125">
@@ -3562,13 +2850,13 @@
         <v>2017</v>
       </c>
       <c r="C125" t="n">
-        <v>1.44166666666667</v>
+        <v>1.425</v>
       </c>
       <c r="D125" t="n">
         <v>0.6</v>
       </c>
       <c r="E125" t="n">
-        <v>3.19166666666667</v>
+        <v>3.24166666666667</v>
       </c>
     </row>
     <row r="126">
@@ -3585,7 +2873,7 @@
         <v>0.6</v>
       </c>
       <c r="E126" t="n">
-        <v>3.19166666666667</v>
+        <v>3.275</v>
       </c>
     </row>
     <row r="127">
@@ -3596,13 +2884,13 @@
         <v>2019</v>
       </c>
       <c r="C127" t="n">
-        <v>1.44166666666667</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="D127" t="n">
         <v>0.608333333333333</v>
       </c>
       <c r="E127" t="n">
-        <v>3.19166666666667</v>
+        <v>3.325</v>
       </c>
     </row>
     <row r="128">
@@ -3613,13 +2901,13 @@
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>1.48333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D128" t="n">
-        <v>0.633333333333333</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E128" t="n">
-        <v>3.20833333333333</v>
+        <v>3.36666666666667</v>
       </c>
     </row>
     <row r="129">
@@ -3630,13 +2918,13 @@
         <v>2021</v>
       </c>
       <c r="C129" t="n">
-        <v>1.48333333333333</v>
+        <v>1.625</v>
       </c>
       <c r="D129" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="E129" t="n">
-        <v>3.18333333333333</v>
+        <v>5.325</v>
       </c>
     </row>
     <row r="130">
@@ -3647,13 +2935,13 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31666666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.541666666666667</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E130" t="n">
-        <v>2.9</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="131">
@@ -3664,13 +2952,13 @@
         <v>1991</v>
       </c>
       <c r="C131" t="n">
-        <v>1.34166666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D131" t="n">
-        <v>0.55</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E131" t="n">
-        <v>2.93333333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="132">
@@ -3681,13 +2969,13 @@
         <v>1992</v>
       </c>
       <c r="C132" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="D132" t="n">
-        <v>0.558333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E132" t="n">
-        <v>2.96666666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="133">
@@ -3698,13 +2986,13 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.35833333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D133" t="n">
-        <v>0.558333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E133" t="n">
-        <v>2.98333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
@@ -3715,13 +3003,13 @@
         <v>1994</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35833333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D134" t="n">
-        <v>0.558333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E134" t="n">
-        <v>2.98333333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="135">
@@ -3732,13 +3020,13 @@
         <v>1995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.35833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D135" t="n">
-        <v>0.558333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="136">
@@ -3749,13 +3037,13 @@
         <v>1996</v>
       </c>
       <c r="C136" t="n">
-        <v>1.36666666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D136" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E136" t="n">
-        <v>3.01666666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="137">
@@ -3766,13 +3054,13 @@
         <v>1997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.375</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D137" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E137" t="n">
-        <v>3.03333333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="138">
@@ -3783,13 +3071,13 @@
         <v>1998</v>
       </c>
       <c r="C138" t="n">
-        <v>1.35833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D138" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E138" t="n">
-        <v>3.025</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="139">
@@ -3800,13 +3088,13 @@
         <v>1999</v>
       </c>
       <c r="C139" t="n">
-        <v>1.35833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D139" t="n">
-        <v>0.566666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E139" t="n">
-        <v>3.04166666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="140">
@@ -3817,13 +3105,13 @@
         <v>2000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.35833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D140" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E140" t="n">
-        <v>3.04166666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="141">
@@ -3834,13 +3122,13 @@
         <v>2001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.35833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D141" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E141" t="n">
-        <v>3.05833333333333</v>
+        <v>3.21666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -3851,13 +3139,13 @@
         <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.35833333333333</v>
+        <v>1.425</v>
       </c>
       <c r="D142" t="n">
-        <v>0.566666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E142" t="n">
-        <v>3.05833333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="143">
@@ -3868,13 +3156,13 @@
         <v>2003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.35</v>
+        <v>1.425</v>
       </c>
       <c r="D143" t="n">
         <v>0.558333333333333</v>
       </c>
       <c r="E143" t="n">
-        <v>3.05</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="144">
@@ -3885,13 +3173,13 @@
         <v>2004</v>
       </c>
       <c r="C144" t="n">
-        <v>1.35</v>
+        <v>1.425</v>
       </c>
       <c r="D144" t="n">
-        <v>0.55</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E144" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="145">
@@ -3902,13 +3190,13 @@
         <v>2005</v>
       </c>
       <c r="C145" t="n">
-        <v>1.34166666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="E145" t="n">
-        <v>3.04166666666667</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="146">
@@ -3919,13 +3207,13 @@
         <v>2006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.33333333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D146" t="n">
-        <v>0.541666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E146" t="n">
-        <v>3.025</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="147">
@@ -3936,13 +3224,13 @@
         <v>2007</v>
       </c>
       <c r="C147" t="n">
-        <v>1.33333333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>0.541666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E147" t="n">
-        <v>3.01666666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="148">
@@ -3953,13 +3241,13 @@
         <v>2008</v>
       </c>
       <c r="C148" t="n">
-        <v>1.31666666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D148" t="n">
-        <v>0.533333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="149">
@@ -3970,13 +3258,13 @@
         <v>2009</v>
       </c>
       <c r="C149" t="n">
-        <v>1.30833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>0.525</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E149" t="n">
-        <v>2.975</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="150">
@@ -3987,13 +3275,13 @@
         <v>2010</v>
       </c>
       <c r="C150" t="n">
-        <v>1.29166666666667</v>
+        <v>1.425</v>
       </c>
       <c r="D150" t="n">
-        <v>0.516666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E150" t="n">
-        <v>2.95833333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="151">
@@ -4004,13 +3292,13 @@
         <v>2011</v>
       </c>
       <c r="C151" t="n">
-        <v>1.29166666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.516666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E151" t="n">
-        <v>2.96666666666667</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -4021,13 +3309,13 @@
         <v>2012</v>
       </c>
       <c r="C152" t="n">
-        <v>1.275</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E152" t="n">
-        <v>2.93333333333333</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -4038,13 +3326,13 @@
         <v>2013</v>
       </c>
       <c r="C153" t="n">
-        <v>1.28333333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>0.508333333333333</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E153" t="n">
-        <v>2.93333333333333</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="154">
@@ -4055,13 +3343,13 @@
         <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1.29166666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.516666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>2.94166666666667</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="155">
@@ -4072,13 +3360,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>1.31666666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D155" t="n">
-        <v>0.533333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E155" t="n">
-        <v>2.975</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="156">
@@ -4089,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>1.33333333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>0.541666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E156" t="n">
-        <v>3.00833333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="157">
@@ -4106,13 +3394,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>1.35</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E157" t="n">
-        <v>3.025</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="158">
@@ -4123,13 +3411,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>1.35833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>0.558333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E158" t="n">
-        <v>3.05</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="159">
@@ -4140,13 +3428,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>1.36666666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>0.558333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E159" t="n">
-        <v>3.06666666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="160">
@@ -4157,13 +3445,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>1.36666666666667</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>0.533333333333333</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="E160" t="n">
-        <v>3.1</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="161">
@@ -4174,13 +3462,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1.3</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D161" t="n">
-        <v>0.408333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="E161" t="n">
-        <v>3.09166666666667</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="162">
@@ -5312,194 +4600,194 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>1.70833333333333</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.416666666666667</v>
+        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1990</v>
       </c>
       <c r="C5" t="n">
-        <v>0.516666666666667</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1990</v>
       </c>
       <c r="C6" t="n">
-        <v>1.70833333333333</v>
+        <v>0.516666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C7" t="n">
-        <v>1.34166666666667</v>
+        <v>0.308333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2</v>
+        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21666666666667</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C10" t="n">
-        <v>1.425</v>
+        <v>1.34166666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C11" t="n">
-        <v>1.5</v>
+        <v>1.30833333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>1.50833333333333</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>1990</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38333333333333</v>
+        <v>1.21666666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C14" t="n">
-        <v>1.175</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>1.41666666666667</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>1990</v>
       </c>
       <c r="C16" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C17" t="n">
-        <v>1.35833333333333</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>1990</v>
       </c>
       <c r="C18" t="n">
-        <v>1.34166666666667</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C19" t="n">
-        <v>1.53333333333333</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C20" t="n">
         <v>1.38333333333333</v>
@@ -5507,494 +4795,494 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C21" t="n">
-        <v>1.325</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C22" t="n">
-        <v>1.49166666666667</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>1.55</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>1990</v>
       </c>
       <c r="C24" t="n">
-        <v>1.23333333333333</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
         <v>1990</v>
       </c>
       <c r="C26" t="n">
-        <v>1.40833333333333</v>
+        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.391666666666667</v>
+        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
         <v>1990</v>
       </c>
       <c r="C28" t="n">
-        <v>1.28333333333333</v>
+        <v>1.34166666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B29" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C29" t="n">
-        <v>1.59166666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B30" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C30" t="n">
-        <v>1.39166666666667</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C31" t="n">
-        <v>1.5</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C32" t="n">
-        <v>1.16666666666667</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B33" t="n">
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>0.716666666666667</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
         <v>1990</v>
       </c>
       <c r="C34" t="n">
-        <v>1.325</v>
+        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="n">
-        <v>1.375</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C36" t="n">
-        <v>1.18333333333333</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C37" t="n">
-        <v>1.15833333333333</v>
+        <v>1.23333333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B38" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="n">
-        <v>1.53333333333333</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
         <v>2021</v>
       </c>
       <c r="C39" t="n">
-        <v>1.84166666666667</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
         <v>1990</v>
       </c>
       <c r="C40" t="n">
-        <v>1.48333333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B41" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C41" t="n">
-        <v>1.45</v>
+        <v>0.391666666666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B42" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C42" t="n">
-        <v>1.23333333333333</v>
+        <v>0.408333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B43" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C43" t="n">
-        <v>1.69166666666667</v>
+        <v>1.28333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B44" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C44" t="n">
-        <v>1.43333333333333</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B45" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>1.425</v>
+        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
         <v>1990</v>
       </c>
       <c r="C46" t="n">
-        <v>1.63333333333333</v>
+        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>1.15</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B48" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C48" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B49" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15</v>
+        <v>1.16666666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B50" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C50" t="n">
-        <v>1.3</v>
+        <v>1.18333333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B51" t="n">
         <v>2021</v>
       </c>
       <c r="C51" t="n">
-        <v>1.55833333333333</v>
+        <v>0.716666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B52" t="n">
         <v>1990</v>
       </c>
       <c r="C52" t="n">
-        <v>1.41666666666667</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B53" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>1.675</v>
+        <v>1.36666666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B54" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C54" t="n">
-        <v>1.475</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B55" t="n">
         <v>1990</v>
       </c>
       <c r="C55" t="n">
-        <v>1.4</v>
+        <v>1.18333333333333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B56" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>1.05</v>
+        <v>1.28333333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B57" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>1.05</v>
+        <v>1.15833333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B58" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C58" t="n">
-        <v>0.766666666666667</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B59" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C59" t="n">
-        <v>1.30833333333333</v>
+        <v>1.64166666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B60" t="n">
         <v>2021</v>
       </c>
       <c r="C60" t="n">
-        <v>1.45833333333333</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B61" t="n">
         <v>1990</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45</v>
+        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B62" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C62" t="n">
-        <v>0.741666666666667</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B63" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C63" t="n">
-        <v>1.49166666666667</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B64" t="n">
         <v>1990</v>
       </c>
       <c r="C64" t="n">
-        <v>1.36666666666667</v>
+        <v>1.23333333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B65" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C65" t="n">
         <v>1.325</v>
@@ -6002,3689 +5290,2598 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B66" t="n">
         <v>2021</v>
       </c>
       <c r="C66" t="n">
-        <v>1.55833333333333</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B67" t="n">
         <v>1990</v>
       </c>
       <c r="C67" t="n">
-        <v>1.425</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B68" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C68" t="n">
-        <v>1.575</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B69" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C69" t="n">
-        <v>1.60833333333333</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B70" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>1.79166666666667</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C71" t="n">
-        <v>1.39166666666667</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B72" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C72" t="n">
-        <v>1.38333333333333</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B73" t="n">
         <v>1990</v>
       </c>
       <c r="C73" t="n">
-        <v>1.43333333333333</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B74" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C74" t="n">
-        <v>1.40833333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B75" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="n">
-        <v>1.39166666666667</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B76" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C76" t="n">
-        <v>1.08333333333333</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B77" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C77" t="n">
-        <v>1.375</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B78" t="n">
         <v>2021</v>
       </c>
       <c r="C78" t="n">
-        <v>1.35</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B79" t="n">
         <v>1990</v>
       </c>
       <c r="C79" t="n">
-        <v>1.68333333333333</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B80" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C80" t="n">
-        <v>1.25833333333333</v>
+        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B81" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="n">
-        <v>1.36666666666667</v>
+        <v>1.675</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B82" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C82" t="n">
-        <v>1.46666666666667</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C83" t="n">
-        <v>1.15833333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B84" t="n">
         <v>1990</v>
       </c>
       <c r="C84" t="n">
-        <v>1.40833333333333</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B85" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C85" t="n">
-        <v>1.4</v>
+        <v>1.30833333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B86" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C86" t="n">
-        <v>1.475</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B87" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C87" t="n">
-        <v>1.50833333333333</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B88" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C88" t="n">
-        <v>0.666666666666667</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B89" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C89" t="n">
-        <v>1.325</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B90" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C90" t="n">
-        <v>1.36666666666667</v>
+        <v>1.30833333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B91" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C91" t="n">
-        <v>1.3</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B92" t="n">
         <v>2021</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40833333333333</v>
+        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B93" t="n">
         <v>1990</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B94" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C94" t="n">
-        <v>1.34166666666667</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B95" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C95" t="n">
-        <v>1.36666666666667</v>
+        <v>0.741666666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B96" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C96" t="n">
-        <v>1.25</v>
+        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B97" t="n">
         <v>1990</v>
       </c>
       <c r="C97" t="n">
-        <v>1.525</v>
+        <v>1.36666666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B98" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>1.50833333333333</v>
+        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B99" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C99" t="n">
-        <v>1.54166666666667</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B100" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B101" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C101" t="n">
-        <v>1.38333333333333</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B102" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30833333333333</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B103" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>1.5</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B104" t="n">
         <v>2021</v>
       </c>
       <c r="C104" t="n">
-        <v>1.5</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B105" t="n">
         <v>1990</v>
       </c>
       <c r="C105" t="n">
-        <v>1.475</v>
+        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B106" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>0.708333333333333</v>
+        <v>1.675</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B107" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C107" t="n">
-        <v>1.46666666666667</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B108" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C108" t="n">
-        <v>1.725</v>
+        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B109" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>1.525</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B110" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C110" t="n">
-        <v>1.55833333333333</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B111" t="n">
         <v>1990</v>
       </c>
       <c r="C111" t="n">
-        <v>1.65</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B112" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>1.71666666666667</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B113" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C113" t="n">
-        <v>1.45833333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B114" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C114" t="n">
-        <v>1.44166666666667</v>
+        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B115" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C115" t="n">
-        <v>1.38333333333333</v>
+        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B116" t="n">
         <v>2021</v>
       </c>
       <c r="C116" t="n">
-        <v>1.39166666666667</v>
+        <v>1.08333333333333</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B117" t="n">
         <v>1990</v>
       </c>
       <c r="C117" t="n">
-        <v>1.33333333333333</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B118" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C118" t="n">
-        <v>1.525</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B119" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C119" t="n">
-        <v>1.69166666666667</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B120" t="n">
         <v>1990</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31666666666667</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B121" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C121" t="n">
-        <v>1.39166666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B122" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C122" t="n">
-        <v>1.26666666666667</v>
+        <v>1.25833333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B123" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C123" t="n">
-        <v>1.46666666666667</v>
+        <v>1.36666666666667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B124" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C124" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B125" t="n">
         <v>2021</v>
       </c>
       <c r="C125" t="n">
-        <v>1.45833333333333</v>
+        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B126" t="n">
         <v>1990</v>
       </c>
       <c r="C126" t="n">
-        <v>1.70833333333333</v>
+        <v>1.15833333333333</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B127" t="n">
         <v>1990</v>
       </c>
       <c r="C127" t="n">
-        <v>1.45833333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B128" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C128" t="n">
-        <v>1.325</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B129" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C129" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B130" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.4</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B131" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C131" t="n">
-        <v>1.55833333333333</v>
+        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B132" t="n">
         <v>2021</v>
       </c>
       <c r="C132" t="n">
-        <v>1.175</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B133" t="n">
         <v>1990</v>
       </c>
       <c r="C133" t="n">
-        <v>1.44166666666667</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B134" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C134" t="n">
-        <v>0.666666666666667</v>
+        <v>0.358333333333333</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B135" t="n">
         <v>1990</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50833333333333</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B136" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B137" t="n">
         <v>2021</v>
       </c>
       <c r="C137" t="n">
-        <v>1.49166666666667</v>
+        <v>1.36666666666667</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B138" t="n">
         <v>1990</v>
       </c>
       <c r="C138" t="n">
-        <v>1.475</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B139" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C139" t="n">
-        <v>1.51666666666667</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B140" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C140" t="n">
-        <v>1.55833333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B141" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C141" t="n">
-        <v>1.53333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B142" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C142" t="n">
-        <v>1.59166666666667</v>
+        <v>1.13333333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B143" t="n">
         <v>1990</v>
       </c>
       <c r="C143" t="n">
-        <v>1.275</v>
+        <v>1.34166666666667</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B144" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C144" t="n">
-        <v>1.275</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B145" t="n">
         <v>1990</v>
       </c>
       <c r="C145" t="n">
-        <v>1.59166666666667</v>
+        <v>1.36666666666667</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B146" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C146" t="n">
-        <v>2.94166666666667</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B147" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B148" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C148" t="n">
-        <v>1.475</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B149" t="n">
         <v>1990</v>
       </c>
       <c r="C149" t="n">
-        <v>1.45</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B150" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C150" t="n">
-        <v>1.36666666666667</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B151" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>1.38333333333333</v>
+        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B152" t="n">
         <v>1990</v>
       </c>
       <c r="C152" t="n">
-        <v>1.34166666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B153" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C153" t="n">
-        <v>1.44166666666667</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B154" t="n">
         <v>1990</v>
       </c>
       <c r="C154" t="n">
-        <v>1.45</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B155" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C155" t="n">
-        <v>1.31666666666667</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>1.89166666666667</v>
+        <v>1.30833333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B157" t="n">
         <v>1990</v>
       </c>
       <c r="C157" t="n">
-        <v>1.125</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B158" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C158" t="n">
-        <v>1.40833333333333</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B159" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>1.13333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B160" t="n">
         <v>1990</v>
       </c>
       <c r="C160" t="n">
-        <v>1.26666666666667</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B161" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C161" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B162" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>1.28333333333333</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B163" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C163" t="n">
-        <v>1.61666666666667</v>
+        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B164" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C164" t="n">
-        <v>1.15833333333333</v>
+        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B165" t="n">
         <v>2021</v>
       </c>
       <c r="C165" t="n">
-        <v>1.63333333333333</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B166" t="n">
         <v>1990</v>
       </c>
       <c r="C166" t="n">
-        <v>1.275</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C167" t="n">
-        <v>1.48333333333333</v>
+        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B168" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C168" t="n">
-        <v>1.6</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B169" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C169" t="n">
-        <v>1.69166666666667</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B170" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C170" t="n">
-        <v>1.44166666666667</v>
+        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B171" t="n">
         <v>2021</v>
       </c>
       <c r="C171" t="n">
-        <v>1.35</v>
+        <v>1.71666666666667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B172" t="n">
         <v>1990</v>
       </c>
       <c r="C172" t="n">
-        <v>1.525</v>
+        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B173" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C173" t="n">
-        <v>1.4</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B174" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C174" t="n">
-        <v>1.51666666666667</v>
+        <v>1.44166666666667</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B175" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C175" t="n">
-        <v>1.25</v>
+        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B176" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C176" t="n">
-        <v>0.65</v>
+        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B177" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C177" t="n">
-        <v>1.65833333333333</v>
+        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B178" t="n">
         <v>1990</v>
       </c>
       <c r="C178" t="n">
-        <v>1.18333333333333</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B179" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C179" t="n">
-        <v>1.81666666666667</v>
+        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B180" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C180" t="n">
-        <v>1.075</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B181" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C181" t="n">
-        <v>1.325</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B182" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C182" t="n">
-        <v>1.49166666666667</v>
+        <v>2.14166666666667</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B183" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C183" t="n">
-        <v>1.55833333333333</v>
+        <v>1.31666666666667</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B184" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C184" t="n">
-        <v>1.475</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B185" t="n">
         <v>2021</v>
       </c>
       <c r="C185" t="n">
-        <v>2.06666666666667</v>
+        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B186" t="n">
         <v>1990</v>
       </c>
       <c r="C186" t="n">
-        <v>1.18333333333333</v>
+        <v>1.26666666666667</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B187" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C187" t="n">
-        <v>1.28333333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B188" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C188" t="n">
-        <v>1.30833333333333</v>
+        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B189" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C189" t="n">
-        <v>3.06666666666667</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B190" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C190" t="n">
-        <v>1.53333333333333</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B191" t="n">
         <v>2021</v>
       </c>
       <c r="C191" t="n">
-        <v>1.55</v>
+        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="B192" t="n">
         <v>1990</v>
       </c>
       <c r="C192" t="n">
-        <v>1.18333333333333</v>
+        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B193" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C193" t="n">
-        <v>1.45</v>
+        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B194" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C194" t="n">
-        <v>1.43333333333333</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B195" t="n">
-        <v>1990</v>
+        <v>2021</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B196" t="n">
-        <v>2021</v>
+        <v>1990</v>
       </c>
       <c r="C196" t="n">
-        <v>0.291666666666667</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B197" t="n">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="C197" t="n">
-        <v>1.23333333333333</v>
+        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>88</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>89</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.55833333333333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>89</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.66666666666667</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>90</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.44166666666667</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>91</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>92</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.50833333333333</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>92</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.49166666666667</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>93</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>93</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>93</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.49166666666667</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>94</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>94</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.53333333333333</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>94</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.51666666666667</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>95</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.55833333333333</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>95</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.53333333333333</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>95</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.53333333333333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>96</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.59166666666667</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>96</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.71666666666667</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>97</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>97</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>97</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>98</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.59166666666667</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>98</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>98</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.94166666666667</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>99</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>99</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.45833333333333</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>99</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>100</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>100</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>100</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.36666666666667</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>101</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.38333333333333</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>101</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.43333333333333</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>102</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.34166666666667</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>102</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.29166666666667</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>102</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.44166666666667</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>103</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>104</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.31666666666667</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>104</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>104</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.89166666666667</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>105</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>105</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.40833333333333</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>105</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.40833333333333</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>106</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.13333333333333</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>106</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>107</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.26666666666667</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>107</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>108</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.28333333333333</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>108</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>108</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.61666666666667</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>109</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.15833333333333</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>109</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.45833333333333</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.63333333333333</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>110</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.275</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>110</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.48333333333333</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>110</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.48333333333333</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>111</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>111</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.69166666666667</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>111</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.69166666666667</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>112</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.44166666666667</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>112</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>112</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>113</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.525</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>113</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.56666666666667</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>113</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>114</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.51666666666667</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>114</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.40833333333333</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>114</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>115</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>116</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.65833333333333</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>117</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.18333333333333</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>117</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.81666666666667</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>118</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>118</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.34166666666667</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>118</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>119</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.49166666666667</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>119</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.54166666666667</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>119</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.55833333333333</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>120</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>120</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.78333333333333</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>120</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2.06666666666667</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>121</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.18333333333333</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>122</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.28333333333333</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>123</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.30833333333333</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>123</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.75833333333333</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>123</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.06666666666667</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>124</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.53333333333333</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>124</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>125</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.18333333333333</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>125</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.51666666666667</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>125</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>126</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.43333333333333</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>126</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.825</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>127</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>127</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>127</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
         <v>128</v>
       </c>
-      <c r="B198" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C198" t="n">
+      <c r="B298" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1.23333333333333</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>128</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1.39166666666667</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>128</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C300" t="n">
         <v>1.38333333333333</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="301">
+      <c r="A301" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.45833333333333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.70833333333333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.516666666666667</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.70833333333333</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.34166666666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.141666666666667</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.21666666666667</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.50833333333333</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.41666666666667</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.241666666666667</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.35833333333333</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.34166666666667</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.53333333333333</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.191666666666666</v>
-      </c>
-      <c r="E14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.0583333333333336</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.49166666666667</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0583333333333336</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.23333333333333</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.333333333333333</v>
-      </c>
-      <c r="E17" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.40833333333333</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.391666666666667</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.59166666666667</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.308333333333333</v>
-      </c>
-      <c r="E20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.39166666666667</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.716666666666667</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.18333333333333</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.15833333333333</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.0249999999999999</v>
-      </c>
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.53333333333333</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.84166666666667</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.308333333333334</v>
-      </c>
-      <c r="E25" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1.48333333333333</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.0333333333333334</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.23333333333333</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.69166666666667</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1.43333333333333</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1.63333333333333</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.483333333333333</v>
-      </c>
-      <c r="E30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.258333333333333</v>
-      </c>
-      <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1.41666666666667</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.675</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.258333333333333</v>
-      </c>
-      <c r="E33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.766666666666667</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.283333333333333</v>
-      </c>
-      <c r="E36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.30833333333333</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.45833333333333</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.741666666666667</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.708333333333333</v>
-      </c>
-      <c r="E38" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.49166666666667</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.36666666666667</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.233333333333333</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.575</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1.60833333333333</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.79166666666667</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.183333333333333</v>
-      </c>
-      <c r="E43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.39166666666667</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.43333333333333</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.40833333333333</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-0.0250000000000001</v>
-      </c>
-      <c r="E46" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.39166666666667</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.08333333333333</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-0.308333333333333</v>
-      </c>
-      <c r="E47" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-0.0250000000000001</v>
-      </c>
-      <c r="E48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.68333333333333</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.25833333333333</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-0.425</v>
-      </c>
-      <c r="E49" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1.36666666666667</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.46666666666667</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>230</v>
-      </c>
-      <c r="F50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1.15833333333333</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" t="s">
-        <v>232</v>
-      </c>
-      <c r="F51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1.40833333333333</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-0.00833333333333308</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.50833333333333</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0333333333333337</v>
-      </c>
-      <c r="E53" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.36666666666667</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.0416666666666665</v>
-      </c>
-      <c r="E55" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.40833333333333</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="E56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1.34166666666667</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58" t="s">
-        <v>246</v>
-      </c>
-      <c r="F58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1.36666666666667</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.116666666666666</v>
-      </c>
-      <c r="E59" t="s">
-        <v>248</v>
-      </c>
-      <c r="F59" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60" t="s">
-        <v>250</v>
-      </c>
-      <c r="F60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1.50833333333333</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.54166666666667</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.0333333333333332</v>
-      </c>
-      <c r="E61" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62" t="s">
-        <v>254</v>
-      </c>
-      <c r="F62" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1.30833333333333</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.0750000000000002</v>
-      </c>
-      <c r="E63" t="s">
-        <v>256</v>
-      </c>
-      <c r="F63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.766666666666666</v>
-      </c>
-      <c r="E65" t="s">
-        <v>260</v>
-      </c>
-      <c r="F65" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.46666666666667</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.725</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.258333333333334</v>
-      </c>
-      <c r="E66" t="s">
-        <v>262</v>
-      </c>
-      <c r="F66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.0333333333333332</v>
-      </c>
-      <c r="E67" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.71666666666667</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="E68" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1.45833333333333</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.44166666666667</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.0166666666666666</v>
-      </c>
-      <c r="E69" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1.39166666666667</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.00833333333333308</v>
-      </c>
-      <c r="E70" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.33333333333333</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.191666666666667</v>
-      </c>
-      <c r="E71" t="s">
-        <v>272</v>
-      </c>
-      <c r="F71" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1.69166666666667</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72" t="s">
-        <v>274</v>
-      </c>
-      <c r="F72" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.31666666666667</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.39166666666667</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E73" t="s">
-        <v>276</v>
-      </c>
-      <c r="F73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1.26666666666667</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.46666666666667</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>278</v>
-      </c>
-      <c r="F74" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.45833333333333</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E75" t="s">
-        <v>280</v>
-      </c>
-      <c r="F75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.70833333333333</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76" t="s">
-        <v>282</v>
-      </c>
-      <c r="F76" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.45833333333333</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.133333333333333</v>
-      </c>
-      <c r="E77" t="s">
-        <v>284</v>
-      </c>
-      <c r="F77" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.0500000000000003</v>
-      </c>
-      <c r="E78" t="s">
-        <v>286</v>
-      </c>
-      <c r="F78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.383333333333333</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.44166666666667</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81" t="s">
-        <v>291</v>
-      </c>
-      <c r="F81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.50833333333333</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.49166666666667</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.0416666666666665</v>
-      </c>
-      <c r="E83" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.51666666666667</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E84" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.53333333333333</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.0250000000000001</v>
-      </c>
-      <c r="E85" t="s">
-        <v>299</v>
-      </c>
-      <c r="F85" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.59166666666667</v>
-      </c>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86" t="s">
-        <v>301</v>
-      </c>
-      <c r="F86" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>303</v>
-      </c>
-      <c r="F87" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.59166666666667</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.94166666666667</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E88" t="s">
-        <v>305</v>
-      </c>
-      <c r="F88" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>99</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="E89" t="s">
-        <v>307</v>
-      </c>
-      <c r="F89" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.36666666666667</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-0.0833333333333335</v>
-      </c>
-      <c r="E90" t="s">
-        <v>309</v>
-      </c>
-      <c r="F90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91" t="s">
-        <v>311</v>
-      </c>
-      <c r="F91" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1.34166666666667</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.44166666666667</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.0999999999999999</v>
-      </c>
-      <c r="E92" t="s">
-        <v>313</v>
-      </c>
-      <c r="F92" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93" t="s">
-        <v>315</v>
-      </c>
-      <c r="F93" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.31666666666667</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.89166666666667</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="E94" t="s">
-        <v>317</v>
-      </c>
-      <c r="F94" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.40833333333333</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.283333333333333</v>
-      </c>
-      <c r="E95" t="s">
-        <v>319</v>
-      </c>
-      <c r="F95" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.13333333333333</v>
-      </c>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>321</v>
-      </c>
-      <c r="F96" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.26666666666667</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.0333333333333334</v>
-      </c>
-      <c r="E97" t="s">
-        <v>323</v>
-      </c>
-      <c r="F97" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.61666666666667</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E98" t="s">
-        <v>325</v>
-      </c>
-      <c r="F98" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.15833333333333</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.63333333333333</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="E99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.48333333333333</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E100" t="s">
-        <v>329</v>
-      </c>
-      <c r="F100" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.69166666666667</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.0916666666666668</v>
-      </c>
-      <c r="E101" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>112</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.44166666666667</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-0.0916666666666668</v>
-      </c>
-      <c r="E102" t="s">
-        <v>333</v>
-      </c>
-      <c r="F102" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="E103" t="s">
-        <v>335</v>
-      </c>
-      <c r="F103" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.51666666666667</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-0.266666666666667</v>
-      </c>
-      <c r="E104" t="s">
-        <v>337</v>
-      </c>
-      <c r="F104" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>115</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105" t="s">
-        <v>339</v>
-      </c>
-      <c r="F105" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.65833333333333</v>
-      </c>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" t="s">
-        <v>341</v>
-      </c>
-      <c r="F106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.18333333333333</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.81666666666667</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.633333333333333</v>
-      </c>
-      <c r="E107" t="s">
-        <v>343</v>
-      </c>
-      <c r="F107" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.075</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E108" t="s">
-        <v>345</v>
-      </c>
-      <c r="F108" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.49166666666667</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.55833333333333</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.0666666666666669</v>
-      </c>
-      <c r="E109" t="s">
-        <v>347</v>
-      </c>
-      <c r="F109" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>120</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2.06666666666667</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.591666666666667</v>
-      </c>
-      <c r="E110" t="s">
-        <v>349</v>
-      </c>
-      <c r="F110" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.18333333333333</v>
-      </c>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111" t="s">
-        <v>351</v>
-      </c>
-      <c r="F111" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.28333333333333</v>
-      </c>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112" t="s">
-        <v>353</v>
-      </c>
-      <c r="F112" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.30833333333333</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.06666666666667</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.75833333333333</v>
-      </c>
-      <c r="E113" t="s">
-        <v>355</v>
-      </c>
-      <c r="F113" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>124</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.53333333333333</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.0166666666666668</v>
-      </c>
-      <c r="E114" t="s">
-        <v>357</v>
-      </c>
-      <c r="F114" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>125</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.18333333333333</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.266666666666667</v>
-      </c>
-      <c r="E115" t="s">
-        <v>359</v>
-      </c>
-      <c r="F115" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>126</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.43333333333333</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116" t="s">
-        <v>361</v>
-      </c>
-      <c r="F116" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C117" t="n">
+      <c r="B301" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C301" t="n">
         <v>0.291666666666667</v>
-      </c>
-      <c r="D117" t="n">
-        <v>-0.408333333333333</v>
-      </c>
-      <c r="E117" t="s">
-        <v>363</v>
-      </c>
-      <c r="F117" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.23333333333333</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.38333333333333</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E118" t="s">
-        <v>365</v>
-      </c>
-      <c r="F118" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/fig4.xlsx
+++ b/outcome/fig4.xlsx
@@ -759,13 +759,13 @@
         <v>1990</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9</v>
+        <v>3.48333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -776,13 +776,13 @@
         <v>1991</v>
       </c>
       <c r="C3" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>2.90833333333333</v>
+        <v>3.49166666666667</v>
       </c>
     </row>
     <row r="4">
@@ -793,13 +793,13 @@
         <v>1992</v>
       </c>
       <c r="C4" t="n">
-        <v>1.38333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>2.91666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -810,13 +810,13 @@
         <v>1993</v>
       </c>
       <c r="C5" t="n">
-        <v>1.38333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>2.91666666666667</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -827,13 +827,13 @@
         <v>1994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>2.91666666666667</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -844,13 +844,13 @@
         <v>1995</v>
       </c>
       <c r="C7" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>2.925</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="8">
@@ -861,13 +861,13 @@
         <v>1996</v>
       </c>
       <c r="C8" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>2.925</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="9">
@@ -878,13 +878,13 @@
         <v>1997</v>
       </c>
       <c r="C9" t="n">
-        <v>1.36666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>2.91666666666667</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="10">
@@ -895,13 +895,13 @@
         <v>1998</v>
       </c>
       <c r="C10" t="n">
-        <v>1.375</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>2.925</v>
+        <v>3.51666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -912,13 +912,13 @@
         <v>1999</v>
       </c>
       <c r="C11" t="n">
-        <v>1.36666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>2.93333333333333</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="12">
@@ -929,13 +929,13 @@
         <v>2000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.375</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>2.94166666666667</v>
+        <v>3.53333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -946,13 +946,13 @@
         <v>2001</v>
       </c>
       <c r="C13" t="n">
-        <v>1.375</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="14">
@@ -963,13 +963,13 @@
         <v>2002</v>
       </c>
       <c r="C14" t="n">
-        <v>1.38333333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.566666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>2.95833333333333</v>
+        <v>3.55833333333333</v>
       </c>
     </row>
     <row r="15">
@@ -980,13 +980,13 @@
         <v>2003</v>
       </c>
       <c r="C15" t="n">
-        <v>1.39166666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D15" t="n">
-        <v>0.575</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>2.96666666666667</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -997,13 +997,13 @@
         <v>2004</v>
       </c>
       <c r="C16" t="n">
-        <v>1.39166666666667</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.583333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E16" t="n">
-        <v>2.98333333333333</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="17">
@@ -1014,13 +1014,13 @@
         <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>1.4</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.583333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>2.99166666666667</v>
+        <v>3.59166666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1031,13 +1031,13 @@
         <v>2006</v>
       </c>
       <c r="C18" t="n">
-        <v>1.41666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>3.00833333333333</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1048,13 +1048,13 @@
         <v>2007</v>
       </c>
       <c r="C19" t="n">
-        <v>1.425</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.608333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>3.025</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1065,13 +1065,13 @@
         <v>2008</v>
       </c>
       <c r="C20" t="n">
-        <v>1.43333333333333</v>
+        <v>1.775</v>
       </c>
       <c r="D20" t="n">
-        <v>0.608333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>3.03333333333333</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1082,13 +1082,13 @@
         <v>2009</v>
       </c>
       <c r="C21" t="n">
-        <v>1.44166666666667</v>
+        <v>1.775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.608333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>3.04166666666667</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1099,13 +1099,13 @@
         <v>2010</v>
       </c>
       <c r="C22" t="n">
-        <v>1.44166666666667</v>
+        <v>1.78333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.616666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E22" t="n">
-        <v>3.05833333333333</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23">
@@ -1116,13 +1116,13 @@
         <v>2011</v>
       </c>
       <c r="C23" t="n">
-        <v>1.45</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>0.616666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>3.06666666666667</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -1133,13 +1133,13 @@
         <v>2012</v>
       </c>
       <c r="C24" t="n">
-        <v>1.45833333333333</v>
+        <v>1.8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.625</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>3.075</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="25">
@@ -1150,13 +1150,13 @@
         <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>1.45833333333333</v>
+        <v>1.8</v>
       </c>
       <c r="D25" t="n">
-        <v>0.625</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>3.08333333333333</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="26">
@@ -1167,13 +1167,13 @@
         <v>2014</v>
       </c>
       <c r="C26" t="n">
-        <v>1.46666666666667</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.633333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>3.09166666666667</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1184,13 +1184,13 @@
         <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>1.46666666666667</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.633333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3.1</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1201,13 +1201,13 @@
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>1.475</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.641666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>3.10833333333333</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="29">
@@ -1218,13 +1218,13 @@
         <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>1.48333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D29" t="n">
-        <v>0.641666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E29" t="n">
-        <v>3.125</v>
+        <v>3.725</v>
       </c>
     </row>
     <row r="30">
@@ -1235,13 +1235,13 @@
         <v>2018</v>
       </c>
       <c r="C30" t="n">
-        <v>1.48333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D30" t="n">
-        <v>0.641666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E30" t="n">
-        <v>3.13333333333333</v>
+        <v>3.73333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1252,13 +1252,13 @@
         <v>2019</v>
       </c>
       <c r="C31" t="n">
-        <v>1.48333333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.641666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E31" t="n">
-        <v>3.14166666666667</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="32">
@@ -1269,13 +1269,13 @@
         <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>1.46666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="D32" t="n">
-        <v>0.641666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>3.06666666666667</v>
+        <v>3.64166666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1286,13 +1286,13 @@
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>1.46666666666667</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D33" t="n">
-        <v>0.633333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>3.05</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1303,13 +1303,13 @@
         <v>1990</v>
       </c>
       <c r="C34" t="n">
-        <v>1.31666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.541666666666667</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>2.9</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="35">
@@ -1320,13 +1320,13 @@
         <v>1991</v>
       </c>
       <c r="C35" t="n">
-        <v>1.34166666666667</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
-        <v>2.93333333333333</v>
+        <v>3.55833333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1337,13 +1337,13 @@
         <v>1992</v>
       </c>
       <c r="C36" t="n">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="D36" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>2.96666666666667</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="37">
@@ -1354,13 +1354,13 @@
         <v>1993</v>
       </c>
       <c r="C37" t="n">
-        <v>1.35833333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>2.98333333333333</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1371,13 +1371,13 @@
         <v>1994</v>
       </c>
       <c r="C38" t="n">
-        <v>1.35833333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>2.98333333333333</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1388,13 +1388,13 @@
         <v>1995</v>
       </c>
       <c r="C39" t="n">
-        <v>1.35833333333333</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1405,13 +1405,13 @@
         <v>1996</v>
       </c>
       <c r="C40" t="n">
-        <v>1.36666666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D40" t="n">
-        <v>0.566666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>3.01666666666667</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="41">
@@ -1422,13 +1422,13 @@
         <v>1997</v>
       </c>
       <c r="C41" t="n">
-        <v>1.375</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.566666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>3.03333333333333</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="42">
@@ -1439,13 +1439,13 @@
         <v>1998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.35833333333333</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.566666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>3.025</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -1456,13 +1456,13 @@
         <v>1999</v>
       </c>
       <c r="C43" t="n">
-        <v>1.35833333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.566666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>3.04166666666667</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="44">
@@ -1473,13 +1473,13 @@
         <v>2000</v>
       </c>
       <c r="C44" t="n">
-        <v>1.35833333333333</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.566666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>3.04166666666667</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="45">
@@ -1490,13 +1490,13 @@
         <v>2001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35833333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D45" t="n">
-        <v>0.566666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>3.05833333333333</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1507,13 +1507,13 @@
         <v>2002</v>
       </c>
       <c r="C46" t="n">
-        <v>1.35833333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D46" t="n">
-        <v>0.566666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E46" t="n">
-        <v>3.05833333333333</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -1524,13 +1524,13 @@
         <v>2003</v>
       </c>
       <c r="C47" t="n">
-        <v>1.35</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E47" t="n">
-        <v>3.05</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -1541,13 +1541,13 @@
         <v>2004</v>
       </c>
       <c r="C48" t="n">
-        <v>1.35</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E48" t="n">
-        <v>3.05</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="49">
@@ -1558,13 +1558,13 @@
         <v>2005</v>
       </c>
       <c r="C49" t="n">
-        <v>1.34166666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="E49" t="n">
-        <v>3.04166666666667</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1575,13 +1575,13 @@
         <v>2006</v>
       </c>
       <c r="C50" t="n">
-        <v>1.33333333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E50" t="n">
-        <v>3.025</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="51">
@@ -1592,13 +1592,13 @@
         <v>2007</v>
       </c>
       <c r="C51" t="n">
-        <v>1.33333333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.541666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E51" t="n">
-        <v>3.01666666666667</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1609,13 +1609,13 @@
         <v>2008</v>
       </c>
       <c r="C52" t="n">
-        <v>1.31666666666667</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D52" t="n">
-        <v>0.533333333333333</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -1626,13 +1626,13 @@
         <v>2009</v>
       </c>
       <c r="C53" t="n">
-        <v>1.30833333333333</v>
+        <v>1.675</v>
       </c>
       <c r="D53" t="n">
-        <v>0.525</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>2.975</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="54">
@@ -1643,13 +1643,13 @@
         <v>2010</v>
       </c>
       <c r="C54" t="n">
-        <v>1.29166666666667</v>
+        <v>1.65833333333333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.516666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>2.95833333333333</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="55">
@@ -1660,13 +1660,13 @@
         <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>1.29166666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D55" t="n">
-        <v>0.516666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>2.96666666666667</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -1677,13 +1677,13 @@
         <v>2012</v>
       </c>
       <c r="C56" t="n">
-        <v>1.275</v>
+        <v>1.64166666666667</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>0.675</v>
       </c>
       <c r="E56" t="n">
-        <v>2.93333333333333</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="57">
@@ -1694,13 +1694,13 @@
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>1.28333333333333</v>
+        <v>1.65</v>
       </c>
       <c r="D57" t="n">
-        <v>0.508333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="E57" t="n">
-        <v>2.93333333333333</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="58">
@@ -1711,13 +1711,13 @@
         <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>1.29166666666667</v>
+        <v>1.65833333333333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.516666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>2.94166666666667</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1728,13 +1728,13 @@
         <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>1.31666666666667</v>
+        <v>1.675</v>
       </c>
       <c r="D59" t="n">
-        <v>0.533333333333333</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>2.975</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1745,13 +1745,13 @@
         <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>1.33333333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D60" t="n">
-        <v>0.541666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E60" t="n">
-        <v>3.00833333333333</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -1762,13 +1762,13 @@
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>1.35</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>3.025</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="62">
@@ -1779,13 +1779,13 @@
         <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>1.35833333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>3.05</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -1796,13 +1796,13 @@
         <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>1.36666666666667</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E63" t="n">
-        <v>3.06666666666667</v>
+        <v>3.74166666666667</v>
       </c>
     </row>
     <row r="64">
@@ -1813,13 +1813,13 @@
         <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>1.36666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D64" t="n">
-        <v>0.533333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E64" t="n">
-        <v>3.1</v>
+        <v>3.78333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -1830,13 +1830,13 @@
         <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>1.3</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408333333333333</v>
+        <v>0.675</v>
       </c>
       <c r="E65" t="n">
-        <v>3.09166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="66">
@@ -1847,13 +1847,13 @@
         <v>1990</v>
       </c>
       <c r="C66" t="n">
-        <v>1.31666666666667</v>
+        <v>1.69166666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E66" t="n">
-        <v>3.01666666666667</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="67">
@@ -1864,13 +1864,13 @@
         <v>1991</v>
       </c>
       <c r="C67" t="n">
-        <v>1.30833333333333</v>
+        <v>1.69166666666667</v>
       </c>
       <c r="D67" t="n">
-        <v>0.416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E67" t="n">
-        <v>3.00833333333333</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="68">
@@ -1881,13 +1881,13 @@
         <v>1992</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30833333333333</v>
+        <v>1.69166666666667</v>
       </c>
       <c r="D68" t="n">
-        <v>0.416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E68" t="n">
-        <v>3.025</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -1898,13 +1898,13 @@
         <v>1993</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30833333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D69" t="n">
-        <v>0.416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E69" t="n">
-        <v>3.04166666666667</v>
+        <v>3.73333333333333</v>
       </c>
     </row>
     <row r="70">
@@ -1915,13 +1915,13 @@
         <v>1994</v>
       </c>
       <c r="C70" t="n">
-        <v>1.31666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D70" t="n">
-        <v>0.416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E70" t="n">
-        <v>3.05833333333333</v>
+        <v>3.75833333333333</v>
       </c>
     </row>
     <row r="71">
@@ -1932,13 +1932,13 @@
         <v>1995</v>
       </c>
       <c r="C71" t="n">
-        <v>1.30833333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D71" t="n">
-        <v>0.416666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E71" t="n">
-        <v>3.06666666666667</v>
+        <v>3.76666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -1949,13 +1949,13 @@
         <v>1996</v>
       </c>
       <c r="C72" t="n">
-        <v>1.325</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.416666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E72" t="n">
-        <v>3.09166666666667</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="73">
@@ -1966,13 +1966,13 @@
         <v>1997</v>
       </c>
       <c r="C73" t="n">
-        <v>1.33333333333333</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.416666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>3.11666666666667</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="74">
@@ -1983,13 +1983,13 @@
         <v>1998</v>
       </c>
       <c r="C74" t="n">
-        <v>1.34166666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>3.15</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="75">
@@ -2000,13 +2000,13 @@
         <v>1999</v>
       </c>
       <c r="C75" t="n">
-        <v>1.35833333333333</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E75" t="n">
-        <v>3.175</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="76">
@@ -2017,13 +2017,13 @@
         <v>2000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.36666666666667</v>
+        <v>1.775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.508333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E76" t="n">
-        <v>3.2</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="77">
@@ -2034,13 +2034,13 @@
         <v>2001</v>
       </c>
       <c r="C77" t="n">
-        <v>1.375</v>
+        <v>1.78333333333333</v>
       </c>
       <c r="D77" t="n">
-        <v>0.508333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E77" t="n">
-        <v>3.20833333333333</v>
+        <v>3.94166666666667</v>
       </c>
     </row>
     <row r="78">
@@ -2051,13 +2051,13 @@
         <v>2002</v>
       </c>
       <c r="C78" t="n">
-        <v>1.375</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>0.516666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="E78" t="n">
-        <v>3.21666666666667</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="79">
@@ -2068,13 +2068,13 @@
         <v>2003</v>
       </c>
       <c r="C79" t="n">
-        <v>1.39166666666667</v>
+        <v>1.8</v>
       </c>
       <c r="D79" t="n">
-        <v>0.533333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E79" t="n">
-        <v>3.23333333333333</v>
+        <v>3.95833333333333</v>
       </c>
     </row>
     <row r="80">
@@ -2085,13 +2085,13 @@
         <v>2004</v>
       </c>
       <c r="C80" t="n">
-        <v>1.4</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D80" t="n">
-        <v>0.541666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E80" t="n">
-        <v>3.24166666666667</v>
+        <v>3.96666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -2102,13 +2102,13 @@
         <v>2005</v>
       </c>
       <c r="C81" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D81" t="n">
-        <v>0.541666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E81" t="n">
-        <v>3.23333333333333</v>
+        <v>3.95833333333333</v>
       </c>
     </row>
     <row r="82">
@@ -2119,13 +2119,13 @@
         <v>2006</v>
       </c>
       <c r="C82" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D82" t="n">
-        <v>0.541666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>3.225</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="83">
@@ -2136,13 +2136,13 @@
         <v>2007</v>
       </c>
       <c r="C83" t="n">
-        <v>1.39166666666667</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D83" t="n">
-        <v>0.55</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E83" t="n">
-        <v>3.21666666666667</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="84">
@@ -2153,13 +2153,13 @@
         <v>2008</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E84" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="85">
@@ -2170,13 +2170,13 @@
         <v>2009</v>
       </c>
       <c r="C85" t="n">
-        <v>1.39166666666667</v>
+        <v>1.775</v>
       </c>
       <c r="D85" t="n">
-        <v>0.566666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="E85" t="n">
-        <v>3.15</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="86">
@@ -2187,13 +2187,13 @@
         <v>2010</v>
       </c>
       <c r="C86" t="n">
-        <v>1.36666666666667</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D86" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>3.09166666666667</v>
+        <v>3.76666666666667</v>
       </c>
     </row>
     <row r="87">
@@ -2204,13 +2204,13 @@
         <v>2011</v>
       </c>
       <c r="C87" t="n">
-        <v>1.35833333333333</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>3.075</v>
+        <v>3.74166666666667</v>
       </c>
     </row>
     <row r="88">
@@ -2221,13 +2221,13 @@
         <v>2012</v>
       </c>
       <c r="C88" t="n">
-        <v>1.34166666666667</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E88" t="n">
-        <v>3.05</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -2238,13 +2238,13 @@
         <v>2013</v>
       </c>
       <c r="C89" t="n">
-        <v>1.36666666666667</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D89" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E89" t="n">
-        <v>3.09166666666667</v>
+        <v>3.76666666666667</v>
       </c>
     </row>
     <row r="90">
@@ -2255,13 +2255,13 @@
         <v>2014</v>
       </c>
       <c r="C90" t="n">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="D90" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E90" t="n">
-        <v>3.10833333333333</v>
+        <v>3.78333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -2272,13 +2272,13 @@
         <v>2015</v>
       </c>
       <c r="C91" t="n">
-        <v>1.36666666666667</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E91" t="n">
-        <v>3.09166666666667</v>
+        <v>3.76666666666667</v>
       </c>
     </row>
     <row r="92">
@@ -2289,13 +2289,13 @@
         <v>2016</v>
       </c>
       <c r="C92" t="n">
-        <v>1.36666666666667</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D92" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E92" t="n">
-        <v>3.08333333333333</v>
+        <v>3.75833333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2306,13 +2306,13 @@
         <v>2017</v>
       </c>
       <c r="C93" t="n">
-        <v>1.35833333333333</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E93" t="n">
-        <v>3.08333333333333</v>
+        <v>3.75833333333333</v>
       </c>
     </row>
     <row r="94">
@@ -2323,13 +2323,13 @@
         <v>2018</v>
       </c>
       <c r="C94" t="n">
-        <v>1.34166666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D94" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="E94" t="n">
-        <v>3.075</v>
+        <v>3.75833333333333</v>
       </c>
     </row>
     <row r="95">
@@ -2340,13 +2340,13 @@
         <v>2019</v>
       </c>
       <c r="C95" t="n">
-        <v>1.35</v>
+        <v>1.725</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E95" t="n">
-        <v>3.09166666666667</v>
+        <v>3.775</v>
       </c>
     </row>
     <row r="96">
@@ -2357,13 +2357,13 @@
         <v>2020</v>
       </c>
       <c r="C96" t="n">
-        <v>1.475</v>
+        <v>1.85</v>
       </c>
       <c r="D96" t="n">
-        <v>0.591666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E96" t="n">
-        <v>3.21666666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -2374,13 +2374,13 @@
         <v>2021</v>
       </c>
       <c r="C97" t="n">
-        <v>1.44166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D97" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E97" t="n">
-        <v>3.175</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="98">
@@ -2391,13 +2391,13 @@
         <v>1990</v>
       </c>
       <c r="C98" t="n">
-        <v>1.33333333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D98" t="n">
-        <v>0.558333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E98" t="n">
-        <v>3.15</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="99">
@@ -2408,13 +2408,13 @@
         <v>1991</v>
       </c>
       <c r="C99" t="n">
-        <v>1.35</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D99" t="n">
-        <v>0.558333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E99" t="n">
-        <v>3.16666666666667</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="100">
@@ -2425,13 +2425,13 @@
         <v>1992</v>
       </c>
       <c r="C100" t="n">
-        <v>1.36666666666667</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D100" t="n">
-        <v>0.566666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E100" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="101">
@@ -2442,13 +2442,13 @@
         <v>1993</v>
       </c>
       <c r="C101" t="n">
-        <v>1.38333333333333</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D101" t="n">
-        <v>0.566666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="E101" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -2459,13 +2459,13 @@
         <v>1994</v>
       </c>
       <c r="C102" t="n">
-        <v>1.40833333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.575</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E102" t="n">
-        <v>3.29166666666667</v>
+        <v>5.06666666666667</v>
       </c>
     </row>
     <row r="103">
@@ -2476,13 +2476,13 @@
         <v>1995</v>
       </c>
       <c r="C103" t="n">
-        <v>1.41666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D103" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E103" t="n">
-        <v>3.33333333333333</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="104">
@@ -2493,13 +2493,13 @@
         <v>1996</v>
       </c>
       <c r="C104" t="n">
-        <v>1.43333333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D104" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E104" t="n">
-        <v>3.35833333333333</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="105">
@@ -2510,13 +2510,13 @@
         <v>1997</v>
       </c>
       <c r="C105" t="n">
-        <v>1.43333333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D105" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E105" t="n">
-        <v>3.35833333333333</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="106">
@@ -2527,13 +2527,13 @@
         <v>1998</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45</v>
+        <v>1.875</v>
       </c>
       <c r="D106" t="n">
-        <v>0.575</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E106" t="n">
-        <v>3.39166666666667</v>
+        <v>5.21666666666667</v>
       </c>
     </row>
     <row r="107">
@@ -2544,13 +2544,13 @@
         <v>1999</v>
       </c>
       <c r="C107" t="n">
-        <v>1.475</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D107" t="n">
-        <v>0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E107" t="n">
-        <v>3.43333333333333</v>
+        <v>5.29166666666667</v>
       </c>
     </row>
     <row r="108">
@@ -2561,13 +2561,13 @@
         <v>2000</v>
       </c>
       <c r="C108" t="n">
-        <v>1.48333333333333</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D108" t="n">
-        <v>0.591666666666667</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E108" t="n">
-        <v>3.425</v>
+        <v>5.275</v>
       </c>
     </row>
     <row r="109">
@@ -2578,13 +2578,13 @@
         <v>2001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49166666666667</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E109" t="n">
-        <v>3.41666666666667</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="110">
@@ -2595,13 +2595,13 @@
         <v>2002</v>
       </c>
       <c r="C110" t="n">
-        <v>1.50833333333333</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>0.608333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E110" t="n">
-        <v>3.425</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="111">
@@ -2612,13 +2612,13 @@
         <v>2003</v>
       </c>
       <c r="C111" t="n">
-        <v>1.50833333333333</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>0.608333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E111" t="n">
-        <v>3.41666666666667</v>
+        <v>5.24166666666667</v>
       </c>
     </row>
     <row r="112">
@@ -2629,13 +2629,13 @@
         <v>2004</v>
       </c>
       <c r="C112" t="n">
-        <v>1.525</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D112" t="n">
-        <v>0.625</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E112" t="n">
-        <v>3.41666666666667</v>
+        <v>5.225</v>
       </c>
     </row>
     <row r="113">
@@ -2646,13 +2646,13 @@
         <v>2005</v>
       </c>
       <c r="C113" t="n">
-        <v>1.53333333333333</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D113" t="n">
-        <v>0.633333333333333</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E113" t="n">
-        <v>3.41666666666667</v>
+        <v>5.225</v>
       </c>
     </row>
     <row r="114">
@@ -2663,13 +2663,13 @@
         <v>2006</v>
       </c>
       <c r="C114" t="n">
-        <v>1.525</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D114" t="n">
-        <v>0.633333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E114" t="n">
-        <v>3.4</v>
+        <v>5.19166666666667</v>
       </c>
     </row>
     <row r="115">
@@ -2680,13 +2680,13 @@
         <v>2007</v>
       </c>
       <c r="C115" t="n">
-        <v>1.50833333333333</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D115" t="n">
-        <v>0.625</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E115" t="n">
-        <v>3.375</v>
+        <v>5.15833333333333</v>
       </c>
     </row>
     <row r="116">
@@ -2697,13 +2697,13 @@
         <v>2008</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48333333333333</v>
+        <v>1.88333333333333</v>
       </c>
       <c r="D116" t="n">
-        <v>0.616666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E116" t="n">
-        <v>3.33333333333333</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="117">
@@ -2714,13 +2714,13 @@
         <v>2009</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45833333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D117" t="n">
-        <v>0.608333333333333</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E117" t="n">
-        <v>3.29166666666667</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="118">
@@ -2731,13 +2731,13 @@
         <v>2010</v>
       </c>
       <c r="C118" t="n">
-        <v>1.43333333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E118" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2748,13 +2748,13 @@
         <v>2011</v>
       </c>
       <c r="C119" t="n">
-        <v>1.4</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D119" t="n">
-        <v>0.583333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E119" t="n">
-        <v>3.20833333333333</v>
+        <v>3.95833333333333</v>
       </c>
     </row>
     <row r="120">
@@ -2765,13 +2765,13 @@
         <v>2012</v>
       </c>
       <c r="C120" t="n">
-        <v>1.38333333333333</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D120" t="n">
-        <v>0.583333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E120" t="n">
-        <v>3.15833333333333</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="121">
@@ -2782,13 +2782,13 @@
         <v>2013</v>
       </c>
       <c r="C121" t="n">
-        <v>1.38333333333333</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D121" t="n">
-        <v>0.583333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E121" t="n">
-        <v>3.15</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="122">
@@ -2799,13 +2799,13 @@
         <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>1.39166666666667</v>
+        <v>1.775</v>
       </c>
       <c r="D122" t="n">
-        <v>0.591666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E122" t="n">
-        <v>3.15833333333333</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="123">
@@ -2816,13 +2816,13 @@
         <v>2015</v>
       </c>
       <c r="C123" t="n">
-        <v>1.38333333333333</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D123" t="n">
-        <v>0.591666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E123" t="n">
-        <v>3.15</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="124">
@@ -2833,13 +2833,13 @@
         <v>2016</v>
       </c>
       <c r="C124" t="n">
-        <v>1.40833333333333</v>
+        <v>1.8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E124" t="n">
-        <v>3.20833333333333</v>
+        <v>3.94166666666667</v>
       </c>
     </row>
     <row r="125">
@@ -2850,13 +2850,13 @@
         <v>2017</v>
       </c>
       <c r="C125" t="n">
-        <v>1.425</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E125" t="n">
-        <v>3.24166666666667</v>
+        <v>3.98333333333333</v>
       </c>
     </row>
     <row r="126">
@@ -2867,13 +2867,13 @@
         <v>2018</v>
       </c>
       <c r="C126" t="n">
-        <v>1.44166666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E126" t="n">
-        <v>3.275</v>
+        <v>5.025</v>
       </c>
     </row>
     <row r="127">
@@ -2884,13 +2884,13 @@
         <v>2019</v>
       </c>
       <c r="C127" t="n">
-        <v>1.45833333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D127" t="n">
-        <v>0.608333333333333</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E127" t="n">
-        <v>3.325</v>
+        <v>5.10833333333333</v>
       </c>
     </row>
     <row r="128">
@@ -2901,13 +2901,13 @@
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>1.45</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="D128" t="n">
-        <v>0.591666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E128" t="n">
-        <v>3.36666666666667</v>
+        <v>5.18333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -2918,13 +2918,13 @@
         <v>2021</v>
       </c>
       <c r="C129" t="n">
-        <v>1.625</v>
+        <v>2.23333333333333</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="E129" t="n">
-        <v>5.325</v>
+        <v>6.36666666666667</v>
       </c>
     </row>
     <row r="130">
@@ -2935,13 +2935,13 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.44166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D130" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E130" t="n">
-        <v>3.175</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="131">
@@ -2952,13 +2952,13 @@
         <v>1991</v>
       </c>
       <c r="C131" t="n">
-        <v>1.45</v>
+        <v>1.825</v>
       </c>
       <c r="D131" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E131" t="n">
-        <v>3.175</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="132">
@@ -2969,13 +2969,13 @@
         <v>1992</v>
       </c>
       <c r="C132" t="n">
-        <v>1.45</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D132" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E132" t="n">
-        <v>3.19166666666667</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="133">
@@ -2986,13 +2986,13 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.45</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D133" t="n">
-        <v>0.566666666666667</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E133" t="n">
-        <v>3.2</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="134">
@@ -3003,13 +3003,13 @@
         <v>1994</v>
       </c>
       <c r="C134" t="n">
-        <v>1.45</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E134" t="n">
-        <v>3.19166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="135">
@@ -3020,13 +3020,13 @@
         <v>1995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.44166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D135" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E135" t="n">
-        <v>3.19166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="136">
@@ -3037,13 +3037,13 @@
         <v>1996</v>
       </c>
       <c r="C136" t="n">
-        <v>1.44166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D136" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E136" t="n">
-        <v>3.19166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="137">
@@ -3054,13 +3054,13 @@
         <v>1997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.43333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D137" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E137" t="n">
-        <v>3.19166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="138">
@@ -3071,13 +3071,13 @@
         <v>1998</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D138" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E138" t="n">
-        <v>3.2</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="139">
@@ -3088,13 +3088,13 @@
         <v>1999</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D139" t="n">
-        <v>0.558333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E139" t="n">
-        <v>3.19166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="140">
@@ -3105,13 +3105,13 @@
         <v>2000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D140" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E140" t="n">
-        <v>3.2</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="141">
@@ -3122,13 +3122,13 @@
         <v>2001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D141" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E141" t="n">
-        <v>3.21666666666667</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="142">
@@ -3139,13 +3139,13 @@
         <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.425</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D142" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E142" t="n">
-        <v>3.19166666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="143">
@@ -3156,13 +3156,13 @@
         <v>2003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.425</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D143" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E143" t="n">
-        <v>3.19166666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -3173,13 +3173,13 @@
         <v>2004</v>
       </c>
       <c r="C144" t="n">
-        <v>1.425</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D144" t="n">
-        <v>0.566666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E144" t="n">
-        <v>3.2</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="145">
@@ -3190,13 +3190,13 @@
         <v>2005</v>
       </c>
       <c r="C145" t="n">
-        <v>1.43333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D145" t="n">
-        <v>0.575</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E145" t="n">
-        <v>3.20833333333333</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="146">
@@ -3207,13 +3207,13 @@
         <v>2006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.43333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D146" t="n">
-        <v>0.575</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E146" t="n">
-        <v>3.20833333333333</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="147">
@@ -3224,13 +3224,13 @@
         <v>2007</v>
       </c>
       <c r="C147" t="n">
-        <v>1.43333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D147" t="n">
-        <v>0.583333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E147" t="n">
-        <v>3.2</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="148">
@@ -3241,13 +3241,13 @@
         <v>2008</v>
       </c>
       <c r="C148" t="n">
-        <v>1.43333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D148" t="n">
-        <v>0.583333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E148" t="n">
-        <v>3.2</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="149">
@@ -3258,13 +3258,13 @@
         <v>2009</v>
       </c>
       <c r="C149" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>0.583333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E149" t="n">
-        <v>3.18333333333333</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="150">
@@ -3275,13 +3275,13 @@
         <v>2010</v>
       </c>
       <c r="C150" t="n">
-        <v>1.425</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D150" t="n">
-        <v>0.583333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E150" t="n">
-        <v>3.175</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="151">
@@ -3292,13 +3292,13 @@
         <v>2011</v>
       </c>
       <c r="C151" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.583333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E151" t="n">
-        <v>3.18333333333333</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="152">
@@ -3309,13 +3309,13 @@
         <v>2012</v>
       </c>
       <c r="C152" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.583333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E152" t="n">
-        <v>3.18333333333333</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="153">
@@ -3326,13 +3326,13 @@
         <v>2013</v>
       </c>
       <c r="C153" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>0.591666666666667</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E153" t="n">
-        <v>3.18333333333333</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="154">
@@ -3343,13 +3343,13 @@
         <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E154" t="n">
-        <v>3.175</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="155">
@@ -3360,13 +3360,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>1.43333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E155" t="n">
-        <v>3.175</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="156">
@@ -3377,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>1.44166666666667</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E156" t="n">
-        <v>3.175</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="157">
@@ -3394,13 +3394,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>1.44166666666667</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E157" t="n">
-        <v>3.19166666666667</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="158">
@@ -3411,13 +3411,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>1.44166666666667</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E158" t="n">
-        <v>3.19166666666667</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="159">
@@ -3428,13 +3428,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>1.44166666666667</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>0.608333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E159" t="n">
-        <v>3.19166666666667</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="160">
@@ -3445,13 +3445,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>1.48333333333333</v>
+        <v>1.85</v>
       </c>
       <c r="D160" t="n">
-        <v>0.633333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E160" t="n">
-        <v>3.20833333333333</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="161">
@@ -3462,13 +3462,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1.48333333333333</v>
+        <v>1.85</v>
       </c>
       <c r="D161" t="n">
-        <v>0.625</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E161" t="n">
-        <v>3.18333333333333</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="162">
@@ -3479,13 +3479,13 @@
         <v>1990</v>
       </c>
       <c r="C162" t="n">
-        <v>1.51666666666667</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D162" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E162" t="n">
-        <v>3.36666666666667</v>
+        <v>5.10833333333333</v>
       </c>
     </row>
     <row r="163">
@@ -3496,13 +3496,13 @@
         <v>1991</v>
       </c>
       <c r="C163" t="n">
-        <v>1.51666666666667</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D163" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E163" t="n">
-        <v>3.375</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="164">
@@ -3513,13 +3513,13 @@
         <v>1992</v>
       </c>
       <c r="C164" t="n">
-        <v>1.51666666666667</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D164" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E164" t="n">
-        <v>3.39166666666667</v>
+        <v>5.15833333333333</v>
       </c>
     </row>
     <row r="165">
@@ -3530,13 +3530,13 @@
         <v>1993</v>
       </c>
       <c r="C165" t="n">
-        <v>1.51666666666667</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E165" t="n">
-        <v>3.4</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="166">
@@ -3547,13 +3547,13 @@
         <v>1994</v>
       </c>
       <c r="C166" t="n">
-        <v>1.50833333333333</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D166" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E166" t="n">
-        <v>3.4</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="167">
@@ -3564,13 +3564,13 @@
         <v>1995</v>
       </c>
       <c r="C167" t="n">
-        <v>1.50833333333333</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D167" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E167" t="n">
-        <v>3.4</v>
+        <v>5.18333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -3581,13 +3581,13 @@
         <v>1996</v>
       </c>
       <c r="C168" t="n">
-        <v>1.50833333333333</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E168" t="n">
-        <v>3.40833333333333</v>
+        <v>5.19166666666667</v>
       </c>
     </row>
     <row r="169">
@@ -3598,13 +3598,13 @@
         <v>1997</v>
       </c>
       <c r="C169" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E169" t="n">
-        <v>3.4</v>
+        <v>5.19166666666667</v>
       </c>
     </row>
     <row r="170">
@@ -3615,13 +3615,13 @@
         <v>1998</v>
       </c>
       <c r="C170" t="n">
-        <v>1.51666666666667</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D170" t="n">
-        <v>0.583333333333333</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E170" t="n">
-        <v>3.43333333333333</v>
+        <v>5.24166666666667</v>
       </c>
     </row>
     <row r="171">
@@ -3632,13 +3632,13 @@
         <v>1999</v>
       </c>
       <c r="C171" t="n">
-        <v>1.50833333333333</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>0.575</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E171" t="n">
-        <v>3.425</v>
+        <v>5.24166666666667</v>
       </c>
     </row>
     <row r="172">
@@ -3649,13 +3649,13 @@
         <v>2000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.50833333333333</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D172" t="n">
-        <v>0.575</v>
+        <v>0.75</v>
       </c>
       <c r="E172" t="n">
-        <v>3.44166666666667</v>
+        <v>5.275</v>
       </c>
     </row>
     <row r="173">
@@ -3666,13 +3666,13 @@
         <v>2001</v>
       </c>
       <c r="C173" t="n">
-        <v>1.50833333333333</v>
+        <v>2.025</v>
       </c>
       <c r="D173" t="n">
-        <v>0.566666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E173" t="n">
-        <v>3.46666666666667</v>
+        <v>5.325</v>
       </c>
     </row>
     <row r="174">
@@ -3683,13 +3683,13 @@
         <v>2002</v>
       </c>
       <c r="C174" t="n">
-        <v>1.475</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D174" t="n">
-        <v>0.558333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E174" t="n">
-        <v>3.425</v>
+        <v>5.25833333333333</v>
       </c>
     </row>
     <row r="175">
@@ -3700,13 +3700,13 @@
         <v>2003</v>
       </c>
       <c r="C175" t="n">
-        <v>1.46666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="D175" t="n">
-        <v>0.55</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E175" t="n">
-        <v>3.40833333333333</v>
+        <v>5.24166666666667</v>
       </c>
     </row>
     <row r="176">
@@ -3717,13 +3717,13 @@
         <v>2004</v>
       </c>
       <c r="C176" t="n">
-        <v>1.46666666666667</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D176" t="n">
-        <v>0.558333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E176" t="n">
-        <v>3.425</v>
+        <v>5.26666666666667</v>
       </c>
     </row>
     <row r="177">
@@ -3734,13 +3734,13 @@
         <v>2005</v>
       </c>
       <c r="C177" t="n">
-        <v>1.475</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>0.558333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E177" t="n">
-        <v>3.46666666666667</v>
+        <v>5.34166666666667</v>
       </c>
     </row>
     <row r="178">
@@ -3751,13 +3751,13 @@
         <v>2006</v>
       </c>
       <c r="C178" t="n">
-        <v>1.475</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D178" t="n">
-        <v>0.558333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E178" t="n">
-        <v>3.45833333333333</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="179">
@@ -3768,13 +3768,13 @@
         <v>2007</v>
       </c>
       <c r="C179" t="n">
-        <v>1.45833333333333</v>
+        <v>1.9</v>
       </c>
       <c r="D179" t="n">
-        <v>0.558333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E179" t="n">
-        <v>3.43333333333333</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="180">
@@ -3785,13 +3785,13 @@
         <v>2008</v>
       </c>
       <c r="C180" t="n">
-        <v>1.45</v>
+        <v>1.89166666666667</v>
       </c>
       <c r="D180" t="n">
-        <v>0.55</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E180" t="n">
-        <v>3.425</v>
+        <v>5.29166666666667</v>
       </c>
     </row>
     <row r="181">
@@ -3802,13 +3802,13 @@
         <v>2009</v>
       </c>
       <c r="C181" t="n">
-        <v>1.43333333333333</v>
+        <v>1.875</v>
       </c>
       <c r="D181" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E181" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="182">
@@ -3819,13 +3819,13 @@
         <v>2010</v>
       </c>
       <c r="C182" t="n">
-        <v>1.425</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="D182" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E182" t="n">
-        <v>3.4</v>
+        <v>5.26666666666667</v>
       </c>
     </row>
     <row r="183">
@@ -3836,13 +3836,13 @@
         <v>2011</v>
       </c>
       <c r="C183" t="n">
-        <v>1.43333333333333</v>
+        <v>1.875</v>
       </c>
       <c r="D183" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E183" t="n">
-        <v>3.425</v>
+        <v>5.30833333333333</v>
       </c>
     </row>
     <row r="184">
@@ -3853,13 +3853,13 @@
         <v>2012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.43333333333333</v>
+        <v>1.88333333333333</v>
       </c>
       <c r="D184" t="n">
-        <v>0.558333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E184" t="n">
-        <v>3.45</v>
+        <v>5.35833333333333</v>
       </c>
     </row>
     <row r="185">
@@ -3870,13 +3870,13 @@
         <v>2013</v>
       </c>
       <c r="C185" t="n">
-        <v>1.43333333333333</v>
+        <v>1.875</v>
       </c>
       <c r="D185" t="n">
-        <v>0.558333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E185" t="n">
-        <v>3.425</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="186">
@@ -3887,13 +3887,13 @@
         <v>2014</v>
       </c>
       <c r="C186" t="n">
-        <v>1.41666666666667</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D186" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E186" t="n">
-        <v>3.40833333333333</v>
+        <v>5.29166666666667</v>
       </c>
     </row>
     <row r="187">
@@ -3904,13 +3904,13 @@
         <v>2015</v>
       </c>
       <c r="C187" t="n">
-        <v>1.40833333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D187" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E187" t="n">
-        <v>3.43333333333333</v>
+        <v>5.34166666666667</v>
       </c>
     </row>
     <row r="188">
@@ -3921,13 +3921,13 @@
         <v>2016</v>
       </c>
       <c r="C188" t="n">
-        <v>1.40833333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E188" t="n">
-        <v>3.45</v>
+        <v>5.38333333333333</v>
       </c>
     </row>
     <row r="189">
@@ -3938,13 +3938,13 @@
         <v>2017</v>
       </c>
       <c r="C189" t="n">
-        <v>1.39166666666667</v>
+        <v>1.85</v>
       </c>
       <c r="D189" t="n">
-        <v>0.55</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E189" t="n">
-        <v>3.45833333333333</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="190">
@@ -3955,13 +3955,13 @@
         <v>2018</v>
       </c>
       <c r="C190" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="D190" t="n">
-        <v>0.55</v>
+        <v>0.725</v>
       </c>
       <c r="E190" t="n">
-        <v>3.45</v>
+        <v>5.39166666666667</v>
       </c>
     </row>
     <row r="191">
@@ -3972,13 +3972,13 @@
         <v>2019</v>
       </c>
       <c r="C191" t="n">
-        <v>1.40833333333333</v>
+        <v>1.85</v>
       </c>
       <c r="D191" t="n">
-        <v>0.558333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E191" t="n">
-        <v>3.41666666666667</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="192">
@@ -3989,13 +3989,13 @@
         <v>2020</v>
       </c>
       <c r="C192" t="n">
-        <v>1.61666666666667</v>
+        <v>2.175</v>
       </c>
       <c r="D192" t="n">
-        <v>0.675</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E192" t="n">
-        <v>3.80833333333333</v>
+        <v>5.91666666666667</v>
       </c>
     </row>
     <row r="193">
@@ -4006,13 +4006,13 @@
         <v>2021</v>
       </c>
       <c r="C193" t="n">
-        <v>1.55833333333333</v>
+        <v>2.10833333333333</v>
       </c>
       <c r="D193" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E193" t="n">
-        <v>3.75</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="194">
@@ -4023,13 +4023,13 @@
         <v>1990</v>
       </c>
       <c r="C194" t="n">
-        <v>1.55</v>
+        <v>2.03333333333333</v>
       </c>
       <c r="D194" t="n">
-        <v>0.641666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E194" t="n">
-        <v>3.38333333333333</v>
+        <v>5.13333333333333</v>
       </c>
     </row>
     <row r="195">
@@ -4040,13 +4040,13 @@
         <v>1991</v>
       </c>
       <c r="C195" t="n">
-        <v>1.575</v>
+        <v>2.05</v>
       </c>
       <c r="D195" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="E195" t="n">
-        <v>3.41666666666667</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="196">
@@ -4057,13 +4057,13 @@
         <v>1992</v>
       </c>
       <c r="C196" t="n">
-        <v>1.6</v>
+        <v>2.09166666666667</v>
       </c>
       <c r="D196" t="n">
-        <v>0.658333333333333</v>
+        <v>0.816666666666667</v>
       </c>
       <c r="E196" t="n">
-        <v>3.46666666666667</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="197">
@@ -4074,13 +4074,13 @@
         <v>1993</v>
       </c>
       <c r="C197" t="n">
-        <v>1.625</v>
+        <v>2.125</v>
       </c>
       <c r="D197" t="n">
-        <v>0.666666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="E197" t="n">
-        <v>3.525</v>
+        <v>5.34166666666667</v>
       </c>
     </row>
     <row r="198">
@@ -4091,13 +4091,13 @@
         <v>1994</v>
       </c>
       <c r="C198" t="n">
-        <v>1.63333333333333</v>
+        <v>2.14166666666667</v>
       </c>
       <c r="D198" t="n">
-        <v>0.658333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="E198" t="n">
-        <v>3.56666666666667</v>
+        <v>5.41666666666667</v>
       </c>
     </row>
     <row r="199">
@@ -4108,13 +4108,13 @@
         <v>1995</v>
       </c>
       <c r="C199" t="n">
-        <v>1.63333333333333</v>
+        <v>2.15</v>
       </c>
       <c r="D199" t="n">
-        <v>0.658333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="E199" t="n">
-        <v>3.59166666666667</v>
+        <v>5.475</v>
       </c>
     </row>
     <row r="200">
@@ -4125,13 +4125,13 @@
         <v>1996</v>
       </c>
       <c r="C200" t="n">
-        <v>1.64166666666667</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="D200" t="n">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E200" t="n">
-        <v>3.625</v>
+        <v>5.53333333333333</v>
       </c>
     </row>
     <row r="201">
@@ -4142,13 +4142,13 @@
         <v>1997</v>
       </c>
       <c r="C201" t="n">
-        <v>1.65</v>
+        <v>2.175</v>
       </c>
       <c r="D201" t="n">
-        <v>0.658333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E201" t="n">
-        <v>3.64166666666667</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="202">
@@ -4159,13 +4159,13 @@
         <v>1998</v>
       </c>
       <c r="C202" t="n">
-        <v>1.65</v>
+        <v>2.18333333333333</v>
       </c>
       <c r="D202" t="n">
-        <v>0.658333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E202" t="n">
-        <v>3.65</v>
+        <v>5.60833333333333</v>
       </c>
     </row>
     <row r="203">
@@ -4176,13 +4176,13 @@
         <v>1999</v>
       </c>
       <c r="C203" t="n">
-        <v>1.64166666666667</v>
+        <v>2.175</v>
       </c>
       <c r="D203" t="n">
-        <v>0.65</v>
+        <v>0.825</v>
       </c>
       <c r="E203" t="n">
-        <v>3.64166666666667</v>
+        <v>5.59166666666667</v>
       </c>
     </row>
     <row r="204">
@@ -4193,13 +4193,13 @@
         <v>2000</v>
       </c>
       <c r="C204" t="n">
-        <v>1.61666666666667</v>
+        <v>2.15</v>
       </c>
       <c r="D204" t="n">
-        <v>0.641666666666667</v>
+        <v>0.816666666666667</v>
       </c>
       <c r="E204" t="n">
-        <v>3.61666666666667</v>
+        <v>5.56666666666667</v>
       </c>
     </row>
     <row r="205">
@@ -4210,13 +4210,13 @@
         <v>2001</v>
       </c>
       <c r="C205" t="n">
-        <v>1.6</v>
+        <v>2.13333333333333</v>
       </c>
       <c r="D205" t="n">
-        <v>0.633333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E205" t="n">
-        <v>3.6</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="206">
@@ -4227,13 +4227,13 @@
         <v>2002</v>
       </c>
       <c r="C206" t="n">
-        <v>1.575</v>
+        <v>2.1</v>
       </c>
       <c r="D206" t="n">
-        <v>0.616666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E206" t="n">
-        <v>3.56666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="207">
@@ -4244,13 +4244,13 @@
         <v>2003</v>
       </c>
       <c r="C207" t="n">
-        <v>1.55833333333333</v>
+        <v>2.08333333333333</v>
       </c>
       <c r="D207" t="n">
-        <v>0.616666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E207" t="n">
-        <v>3.54166666666667</v>
+        <v>5.46666666666667</v>
       </c>
     </row>
     <row r="208">
@@ -4261,13 +4261,13 @@
         <v>2004</v>
       </c>
       <c r="C208" t="n">
-        <v>1.54166666666667</v>
+        <v>2.06666666666667</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6</v>
+        <v>0.775</v>
       </c>
       <c r="E208" t="n">
-        <v>3.525</v>
+        <v>5.44166666666667</v>
       </c>
     </row>
     <row r="209">
@@ -4278,13 +4278,13 @@
         <v>2005</v>
       </c>
       <c r="C209" t="n">
-        <v>1.525</v>
+        <v>2.04166666666667</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6</v>
+        <v>0.775</v>
       </c>
       <c r="E209" t="n">
-        <v>3.48333333333333</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="210">
@@ -4295,13 +4295,13 @@
         <v>2006</v>
       </c>
       <c r="C210" t="n">
-        <v>1.50833333333333</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E210" t="n">
-        <v>3.45</v>
+        <v>5.325</v>
       </c>
     </row>
     <row r="211">
@@ -4312,13 +4312,13 @@
         <v>2007</v>
       </c>
       <c r="C211" t="n">
-        <v>1.49166666666667</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D211" t="n">
-        <v>0.591666666666667</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E211" t="n">
-        <v>3.425</v>
+        <v>5.28333333333333</v>
       </c>
     </row>
     <row r="212">
@@ -4329,13 +4329,13 @@
         <v>2008</v>
       </c>
       <c r="C212" t="n">
-        <v>1.48333333333333</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E212" t="n">
-        <v>3.40833333333333</v>
+        <v>5.25833333333333</v>
       </c>
     </row>
     <row r="213">
@@ -4346,13 +4346,13 @@
         <v>2009</v>
       </c>
       <c r="C213" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E213" t="n">
-        <v>3.425</v>
+        <v>5.28333333333333</v>
       </c>
     </row>
     <row r="214">
@@ -4363,13 +4363,13 @@
         <v>2010</v>
       </c>
       <c r="C214" t="n">
-        <v>1.5</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D214" t="n">
-        <v>0.608333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E214" t="n">
-        <v>3.43333333333333</v>
+        <v>5.29166666666667</v>
       </c>
     </row>
     <row r="215">
@@ -4380,13 +4380,13 @@
         <v>2011</v>
       </c>
       <c r="C215" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D215" t="n">
-        <v>0.6</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E215" t="n">
-        <v>3.425</v>
+        <v>5.275</v>
       </c>
     </row>
     <row r="216">
@@ -4397,13 +4397,13 @@
         <v>2012</v>
       </c>
       <c r="C216" t="n">
-        <v>1.475</v>
+        <v>1.9</v>
       </c>
       <c r="D216" t="n">
-        <v>0.591666666666667</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E216" t="n">
-        <v>3.39166666666667</v>
+        <v>5.21666666666667</v>
       </c>
     </row>
     <row r="217">
@@ -4414,13 +4414,13 @@
         <v>2013</v>
       </c>
       <c r="C217" t="n">
-        <v>1.45833333333333</v>
+        <v>1.875</v>
       </c>
       <c r="D217" t="n">
-        <v>0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E217" t="n">
-        <v>3.35833333333333</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="218">
@@ -4431,13 +4431,13 @@
         <v>2014</v>
       </c>
       <c r="C218" t="n">
-        <v>1.45</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="D218" t="n">
-        <v>0.575</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E218" t="n">
-        <v>3.35</v>
+        <v>5.15833333333333</v>
       </c>
     </row>
     <row r="219">
@@ -4448,13 +4448,13 @@
         <v>2015</v>
       </c>
       <c r="C219" t="n">
-        <v>1.45</v>
+        <v>1.875</v>
       </c>
       <c r="D219" t="n">
-        <v>0.575</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E219" t="n">
-        <v>3.35</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="220">
@@ -4465,13 +4465,13 @@
         <v>2016</v>
       </c>
       <c r="C220" t="n">
-        <v>1.44166666666667</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D220" t="n">
-        <v>0.575</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E220" t="n">
-        <v>3.325</v>
+        <v>5.11666666666667</v>
       </c>
     </row>
     <row r="221">
@@ -4482,13 +4482,13 @@
         <v>2017</v>
       </c>
       <c r="C221" t="n">
-        <v>1.45</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D221" t="n">
-        <v>0.583333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E221" t="n">
-        <v>3.31666666666667</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="222">
@@ -4499,13 +4499,13 @@
         <v>2018</v>
       </c>
       <c r="C222" t="n">
-        <v>1.46666666666667</v>
+        <v>1.88333333333333</v>
       </c>
       <c r="D222" t="n">
-        <v>0.591666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E222" t="n">
-        <v>3.35833333333333</v>
+        <v>5.15833333333333</v>
       </c>
     </row>
     <row r="223">
@@ -4516,13 +4516,13 @@
         <v>2019</v>
       </c>
       <c r="C223" t="n">
-        <v>1.49166666666667</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E223" t="n">
-        <v>3.4</v>
+        <v>5.23333333333333</v>
       </c>
     </row>
     <row r="224">
@@ -4533,13 +4533,13 @@
         <v>2020</v>
       </c>
       <c r="C224" t="n">
-        <v>1.325</v>
+        <v>1.75</v>
       </c>
       <c r="D224" t="n">
-        <v>0.516666666666667</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E224" t="n">
-        <v>3.225</v>
+        <v>5.05833333333333</v>
       </c>
     </row>
     <row r="225">
@@ -4550,13 +4550,13 @@
         <v>2021</v>
       </c>
       <c r="C225" t="n">
-        <v>1.61666666666667</v>
+        <v>2.175</v>
       </c>
       <c r="D225" t="n">
-        <v>0.65</v>
+        <v>0.825</v>
       </c>
       <c r="E225" t="n">
-        <v>3.68333333333333</v>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +4592,7 @@
         <v>1990</v>
       </c>
       <c r="C2" t="n">
-        <v>1.45833333333333</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="3">
@@ -4603,7 +4603,7 @@
         <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4614,7 +4614,7 @@
         <v>2021</v>
       </c>
       <c r="C4" t="n">
-        <v>1.70833333333333</v>
+        <v>2.24166666666667</v>
       </c>
     </row>
     <row r="5">
@@ -4625,7 +4625,7 @@
         <v>1990</v>
       </c>
       <c r="C5" t="n">
-        <v>0.416666666666667</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6">
@@ -4636,7 +4636,7 @@
         <v>1990</v>
       </c>
       <c r="C6" t="n">
-        <v>0.516666666666667</v>
+        <v>0.641666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -4647,7 +4647,7 @@
         <v>2019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.308333333333333</v>
+        <v>0.533333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -4658,7 +4658,7 @@
         <v>1990</v>
       </c>
       <c r="C8" t="n">
-        <v>1.70833333333333</v>
+        <v>2.30833333333333</v>
       </c>
     </row>
     <row r="9">
@@ -4669,7 +4669,7 @@
         <v>2019</v>
       </c>
       <c r="C9" t="n">
-        <v>1.69166666666667</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -4680,7 +4680,7 @@
         <v>1990</v>
       </c>
       <c r="C10" t="n">
-        <v>1.34166666666667</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="11">
@@ -4691,7 +4691,7 @@
         <v>2019</v>
       </c>
       <c r="C11" t="n">
-        <v>1.30833333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="12">
@@ -4702,7 +4702,7 @@
         <v>2021</v>
       </c>
       <c r="C12" t="n">
-        <v>1.2</v>
+        <v>1.475</v>
       </c>
     </row>
     <row r="13">
@@ -4713,7 +4713,7 @@
         <v>1990</v>
       </c>
       <c r="C13" t="n">
-        <v>1.21666666666667</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="14">
@@ -4724,7 +4724,7 @@
         <v>2019</v>
       </c>
       <c r="C14" t="n">
-        <v>1.41666666666667</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -4735,7 +4735,7 @@
         <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>1.425</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="16">
@@ -4746,7 +4746,7 @@
         <v>1990</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5</v>
+        <v>1.86666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -4757,7 +4757,7 @@
         <v>2019</v>
       </c>
       <c r="C17" t="n">
-        <v>1.76666666666667</v>
+        <v>2.30833333333333</v>
       </c>
     </row>
     <row r="18">
@@ -4768,7 +4768,7 @@
         <v>1990</v>
       </c>
       <c r="C18" t="n">
-        <v>1.50833333333333</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="19">
@@ -4779,7 +4779,7 @@
         <v>1990</v>
       </c>
       <c r="C19" t="n">
-        <v>1.38333333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="20">
@@ -4790,7 +4790,7 @@
         <v>2019</v>
       </c>
       <c r="C20" t="n">
-        <v>1.38333333333333</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="21">
@@ -4801,7 +4801,7 @@
         <v>1990</v>
       </c>
       <c r="C21" t="n">
-        <v>1.175</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -4812,7 +4812,7 @@
         <v>2019</v>
       </c>
       <c r="C22" t="n">
-        <v>1.40833333333333</v>
+        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="23">
@@ -4823,7 +4823,7 @@
         <v>2021</v>
       </c>
       <c r="C23" t="n">
-        <v>1.41666666666667</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="24">
@@ -4834,7 +4834,7 @@
         <v>1990</v>
       </c>
       <c r="C24" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25">
@@ -4845,7 +4845,7 @@
         <v>2019</v>
       </c>
       <c r="C25" t="n">
-        <v>1.56666666666667</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -4856,7 +4856,7 @@
         <v>1990</v>
       </c>
       <c r="C26" t="n">
-        <v>1.35833333333333</v>
+        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="27">
@@ -4867,7 +4867,7 @@
         <v>2019</v>
       </c>
       <c r="C27" t="n">
-        <v>1.35833333333333</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -4878,7 +4878,7 @@
         <v>1990</v>
       </c>
       <c r="C28" t="n">
-        <v>1.34166666666667</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="29">
@@ -4889,7 +4889,7 @@
         <v>2019</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6</v>
+        <v>2.04166666666667</v>
       </c>
     </row>
     <row r="30">
@@ -4900,7 +4900,7 @@
         <v>2021</v>
       </c>
       <c r="C30" t="n">
-        <v>1.53333333333333</v>
+        <v>1.85833333333333</v>
       </c>
     </row>
     <row r="31">
@@ -4911,7 +4911,7 @@
         <v>1990</v>
       </c>
       <c r="C31" t="n">
-        <v>1.38333333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="32">
@@ -4922,7 +4922,7 @@
         <v>2019</v>
       </c>
       <c r="C32" t="n">
-        <v>1.35</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="33">
@@ -4933,7 +4933,7 @@
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>1.325</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="34">
@@ -4944,7 +4944,7 @@
         <v>1990</v>
       </c>
       <c r="C34" t="n">
-        <v>1.49166666666667</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -4955,7 +4955,7 @@
         <v>2019</v>
       </c>
       <c r="C35" t="n">
-        <v>1.51666666666667</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="36">
@@ -4966,7 +4966,7 @@
         <v>2021</v>
       </c>
       <c r="C36" t="n">
-        <v>1.55</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -4977,7 +4977,7 @@
         <v>1990</v>
       </c>
       <c r="C37" t="n">
-        <v>1.23333333333333</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="38">
@@ -4988,7 +4988,7 @@
         <v>2019</v>
       </c>
       <c r="C38" t="n">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="39">
@@ -4999,7 +4999,7 @@
         <v>2021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -5010,7 +5010,7 @@
         <v>1990</v>
       </c>
       <c r="C40" t="n">
-        <v>1.40833333333333</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="41">
@@ -5021,7 +5021,7 @@
         <v>1990</v>
       </c>
       <c r="C41" t="n">
-        <v>0.391666666666667</v>
+        <v>0.658333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -5032,7 +5032,7 @@
         <v>2019</v>
       </c>
       <c r="C42" t="n">
-        <v>0.408333333333333</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="43">
@@ -5043,7 +5043,7 @@
         <v>1990</v>
       </c>
       <c r="C43" t="n">
-        <v>1.28333333333333</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -5054,7 +5054,7 @@
         <v>2019</v>
       </c>
       <c r="C44" t="n">
-        <v>1.50833333333333</v>
+        <v>1.89166666666667</v>
       </c>
     </row>
     <row r="45">
@@ -5065,7 +5065,7 @@
         <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>1.59166666666667</v>
+        <v>2.09166666666667</v>
       </c>
     </row>
     <row r="46">
@@ -5076,7 +5076,7 @@
         <v>1990</v>
       </c>
       <c r="C46" t="n">
-        <v>1.39166666666667</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -5087,7 +5087,7 @@
         <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>1.63333333333333</v>
+        <v>2.15833333333333</v>
       </c>
     </row>
     <row r="48">
@@ -5098,7 +5098,7 @@
         <v>2021</v>
       </c>
       <c r="C48" t="n">
-        <v>1.5</v>
+        <v>1.90833333333333</v>
       </c>
     </row>
     <row r="49">
@@ -5109,7 +5109,7 @@
         <v>1990</v>
       </c>
       <c r="C49" t="n">
-        <v>1.16666666666667</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="50">
@@ -5120,7 +5120,7 @@
         <v>2019</v>
       </c>
       <c r="C50" t="n">
-        <v>1.18333333333333</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="51">
@@ -5131,7 +5131,7 @@
         <v>2021</v>
       </c>
       <c r="C51" t="n">
-        <v>0.716666666666667</v>
+        <v>1.03333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -5142,7 +5142,7 @@
         <v>1990</v>
       </c>
       <c r="C52" t="n">
-        <v>1.325</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="53">
@@ -5153,7 +5153,7 @@
         <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>1.36666666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="54">
@@ -5164,7 +5164,7 @@
         <v>2021</v>
       </c>
       <c r="C54" t="n">
-        <v>1.375</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="55">
@@ -5175,7 +5175,7 @@
         <v>1990</v>
       </c>
       <c r="C55" t="n">
-        <v>1.18333333333333</v>
+        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -5186,7 +5186,7 @@
         <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>1.28333333333333</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -5197,7 +5197,7 @@
         <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>1.15833333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="58">
@@ -5208,7 +5208,7 @@
         <v>1990</v>
       </c>
       <c r="C58" t="n">
-        <v>1.53333333333333</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="59">
@@ -5219,7 +5219,7 @@
         <v>2019</v>
       </c>
       <c r="C59" t="n">
-        <v>1.64166666666667</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -5230,7 +5230,7 @@
         <v>2021</v>
       </c>
       <c r="C60" t="n">
-        <v>1.84166666666667</v>
+        <v>2.43333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -5241,7 +5241,7 @@
         <v>1990</v>
       </c>
       <c r="C61" t="n">
-        <v>1.48333333333333</v>
+        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="62">
@@ -5252,7 +5252,7 @@
         <v>2019</v>
       </c>
       <c r="C62" t="n">
-        <v>1.525</v>
+        <v>1.85833333333333</v>
       </c>
     </row>
     <row r="63">
@@ -5263,7 +5263,7 @@
         <v>2021</v>
       </c>
       <c r="C63" t="n">
-        <v>1.45</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="64">
@@ -5274,7 +5274,7 @@
         <v>1990</v>
       </c>
       <c r="C64" t="n">
-        <v>1.23333333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="65">
@@ -5285,7 +5285,7 @@
         <v>2019</v>
       </c>
       <c r="C65" t="n">
-        <v>1.325</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -5296,7 +5296,7 @@
         <v>2021</v>
       </c>
       <c r="C66" t="n">
-        <v>1.69166666666667</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="67">
@@ -5307,7 +5307,7 @@
         <v>1990</v>
       </c>
       <c r="C67" t="n">
-        <v>1.43333333333333</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -5318,7 +5318,7 @@
         <v>1990</v>
       </c>
       <c r="C68" t="n">
-        <v>1.425</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -5329,7 +5329,7 @@
         <v>2019</v>
       </c>
       <c r="C69" t="n">
-        <v>1.45</v>
+        <v>1.86666666666667</v>
       </c>
     </row>
     <row r="70">
@@ -5340,7 +5340,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>1.63333333333333</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -5351,7 +5351,7 @@
         <v>2019</v>
       </c>
       <c r="C71" t="n">
-        <v>1.55</v>
+        <v>2.00833333333333</v>
       </c>
     </row>
     <row r="72">
@@ -5362,7 +5362,7 @@
         <v>2021</v>
       </c>
       <c r="C72" t="n">
-        <v>1.15</v>
+        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="73">
@@ -5373,7 +5373,7 @@
         <v>1990</v>
       </c>
       <c r="C73" t="n">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="74">
@@ -5384,7 +5384,7 @@
         <v>2019</v>
       </c>
       <c r="C74" t="n">
-        <v>1.73333333333333</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="75">
@@ -5395,7 +5395,7 @@
         <v>2021</v>
       </c>
       <c r="C75" t="n">
-        <v>1.15</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -5406,7 +5406,7 @@
         <v>1990</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3</v>
+        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="77">
@@ -5417,7 +5417,7 @@
         <v>2019</v>
       </c>
       <c r="C77" t="n">
-        <v>1.51666666666667</v>
+        <v>2.01666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -5428,7 +5428,7 @@
         <v>2021</v>
       </c>
       <c r="C78" t="n">
-        <v>1.55833333333333</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="79">
@@ -5439,7 +5439,7 @@
         <v>1990</v>
       </c>
       <c r="C79" t="n">
-        <v>1.41666666666667</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="80">
@@ -5450,7 +5450,7 @@
         <v>2019</v>
       </c>
       <c r="C80" t="n">
-        <v>1.65833333333333</v>
+        <v>2.20833333333333</v>
       </c>
     </row>
     <row r="81">
@@ -5461,7 +5461,7 @@
         <v>2021</v>
       </c>
       <c r="C81" t="n">
-        <v>1.675</v>
+        <v>2.28333333333333</v>
       </c>
     </row>
     <row r="82">
@@ -5472,7 +5472,7 @@
         <v>1990</v>
       </c>
       <c r="C82" t="n">
-        <v>1.475</v>
+        <v>2.03333333333333</v>
       </c>
     </row>
     <row r="83">
@@ -5483,7 +5483,7 @@
         <v>2019</v>
       </c>
       <c r="C83" t="n">
-        <v>1.625</v>
+        <v>2.23333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -5494,7 +5494,7 @@
         <v>1990</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -5505,7 +5505,7 @@
         <v>2019</v>
       </c>
       <c r="C85" t="n">
-        <v>1.30833333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -5516,7 +5516,7 @@
         <v>2021</v>
       </c>
       <c r="C86" t="n">
-        <v>1.05</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -5527,7 +5527,7 @@
         <v>1990</v>
       </c>
       <c r="C87" t="n">
-        <v>1.05</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="88">
@@ -5538,7 +5538,7 @@
         <v>2019</v>
       </c>
       <c r="C88" t="n">
-        <v>1.51666666666667</v>
+        <v>2.04166666666667</v>
       </c>
     </row>
     <row r="89">
@@ -5549,7 +5549,7 @@
         <v>2021</v>
       </c>
       <c r="C89" t="n">
-        <v>0.766666666666667</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="90">
@@ -5560,7 +5560,7 @@
         <v>1990</v>
       </c>
       <c r="C90" t="n">
-        <v>1.30833333333333</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="91">
@@ -5571,7 +5571,7 @@
         <v>2019</v>
       </c>
       <c r="C91" t="n">
-        <v>1.525</v>
+        <v>2.05833333333333</v>
       </c>
     </row>
     <row r="92">
@@ -5582,7 +5582,7 @@
         <v>2021</v>
       </c>
       <c r="C92" t="n">
-        <v>1.45833333333333</v>
+        <v>2.00833333333333</v>
       </c>
     </row>
     <row r="93">
@@ -5593,7 +5593,7 @@
         <v>1990</v>
       </c>
       <c r="C93" t="n">
-        <v>1.45</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="94">
@@ -5604,7 +5604,7 @@
         <v>2019</v>
       </c>
       <c r="C94" t="n">
-        <v>1.40833333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="95">
@@ -5615,7 +5615,7 @@
         <v>2021</v>
       </c>
       <c r="C95" t="n">
-        <v>0.741666666666667</v>
+        <v>0.858333333333333</v>
       </c>
     </row>
     <row r="96">
@@ -5626,7 +5626,7 @@
         <v>1990</v>
       </c>
       <c r="C96" t="n">
-        <v>1.49166666666667</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="97">
@@ -5637,7 +5637,7 @@
         <v>1990</v>
       </c>
       <c r="C97" t="n">
-        <v>1.36666666666667</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="98">
@@ -5648,7 +5648,7 @@
         <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>1.61666666666667</v>
+        <v>2.09166666666667</v>
       </c>
     </row>
     <row r="99">
@@ -5659,7 +5659,7 @@
         <v>1990</v>
       </c>
       <c r="C99" t="n">
-        <v>1.325</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="100">
@@ -5670,7 +5670,7 @@
         <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>1.50833333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="101">
@@ -5681,7 +5681,7 @@
         <v>2021</v>
       </c>
       <c r="C101" t="n">
-        <v>1.55833333333333</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="102">
@@ -5692,7 +5692,7 @@
         <v>1990</v>
       </c>
       <c r="C102" t="n">
-        <v>1.425</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="103">
@@ -5703,7 +5703,7 @@
         <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>1.525</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="104">
@@ -5714,7 +5714,7 @@
         <v>2021</v>
       </c>
       <c r="C104" t="n">
-        <v>1.575</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="105">
@@ -5725,7 +5725,7 @@
         <v>1990</v>
       </c>
       <c r="C105" t="n">
-        <v>1.60833333333333</v>
+        <v>2.09166666666667</v>
       </c>
     </row>
     <row r="106">
@@ -5736,7 +5736,7 @@
         <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>1.675</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="107">
@@ -5747,7 +5747,7 @@
         <v>2021</v>
       </c>
       <c r="C107" t="n">
-        <v>1.79166666666667</v>
+        <v>2.39166666666667</v>
       </c>
     </row>
     <row r="108">
@@ -5758,7 +5758,7 @@
         <v>1990</v>
       </c>
       <c r="C108" t="n">
-        <v>1.39166666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="109">
@@ -5769,7 +5769,7 @@
         <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>1.43333333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -5780,7 +5780,7 @@
         <v>1990</v>
       </c>
       <c r="C110" t="n">
-        <v>1.38333333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -5791,7 +5791,7 @@
         <v>1990</v>
       </c>
       <c r="C111" t="n">
-        <v>1.43333333333333</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="112">
@@ -5802,7 +5802,7 @@
         <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>1.40833333333333</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="113">
@@ -5813,7 +5813,7 @@
         <v>2021</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40833333333333</v>
+        <v>1.75833333333333</v>
       </c>
     </row>
     <row r="114">
@@ -5824,7 +5824,7 @@
         <v>1990</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39166666666667</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="115">
@@ -5835,7 +5835,7 @@
         <v>2019</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -5846,7 +5846,7 @@
         <v>2021</v>
       </c>
       <c r="C116" t="n">
-        <v>1.08333333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="117">
@@ -5857,7 +5857,7 @@
         <v>1990</v>
       </c>
       <c r="C117" t="n">
-        <v>1.375</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="118">
@@ -5868,7 +5868,7 @@
         <v>2019</v>
       </c>
       <c r="C118" t="n">
-        <v>1.38333333333333</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="119">
@@ -5879,7 +5879,7 @@
         <v>2021</v>
       </c>
       <c r="C119" t="n">
-        <v>1.35</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="120">
@@ -5890,7 +5890,7 @@
         <v>1990</v>
       </c>
       <c r="C120" t="n">
-        <v>1.68333333333333</v>
+        <v>2.16666666666667</v>
       </c>
     </row>
     <row r="121">
@@ -5901,7 +5901,7 @@
         <v>2019</v>
       </c>
       <c r="C121" t="n">
-        <v>1.725</v>
+        <v>2.19166666666667</v>
       </c>
     </row>
     <row r="122">
@@ -5912,7 +5912,7 @@
         <v>2021</v>
       </c>
       <c r="C122" t="n">
-        <v>1.25833333333333</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="123">
@@ -5923,7 +5923,7 @@
         <v>1990</v>
       </c>
       <c r="C123" t="n">
-        <v>1.36666666666667</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -5934,7 +5934,7 @@
         <v>2019</v>
       </c>
       <c r="C124" t="n">
-        <v>1.5</v>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="125">
@@ -5945,7 +5945,7 @@
         <v>2021</v>
       </c>
       <c r="C125" t="n">
-        <v>1.46666666666667</v>
+        <v>1.85833333333333</v>
       </c>
     </row>
     <row r="126">
@@ -5956,7 +5956,7 @@
         <v>1990</v>
       </c>
       <c r="C126" t="n">
-        <v>1.15833333333333</v>
+        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="127">
@@ -5967,7 +5967,7 @@
         <v>1990</v>
       </c>
       <c r="C127" t="n">
-        <v>1.40833333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="128">
@@ -5978,7 +5978,7 @@
         <v>2019</v>
       </c>
       <c r="C128" t="n">
-        <v>1.475</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="129">
@@ -5989,7 +5989,7 @@
         <v>2021</v>
       </c>
       <c r="C129" t="n">
-        <v>1.4</v>
+        <v>1.71666666666667</v>
       </c>
     </row>
     <row r="130">
@@ -6000,7 +6000,7 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.475</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="131">
@@ -6011,7 +6011,7 @@
         <v>2019</v>
       </c>
       <c r="C131" t="n">
-        <v>1.58333333333333</v>
+        <v>2.00833333333333</v>
       </c>
     </row>
     <row r="132">
@@ -6022,7 +6022,7 @@
         <v>2021</v>
       </c>
       <c r="C132" t="n">
-        <v>1.50833333333333</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="133">
@@ -6033,7 +6033,7 @@
         <v>1990</v>
       </c>
       <c r="C133" t="n">
-        <v>0.666666666666667</v>
+        <v>0.858333333333333</v>
       </c>
     </row>
     <row r="134">
@@ -6044,7 +6044,7 @@
         <v>2019</v>
       </c>
       <c r="C134" t="n">
-        <v>0.358333333333333</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135">
@@ -6055,7 +6055,7 @@
         <v>1990</v>
       </c>
       <c r="C135" t="n">
-        <v>1.325</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="136">
@@ -6066,7 +6066,7 @@
         <v>2019</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43333333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="137">
@@ -6077,7 +6077,7 @@
         <v>2021</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36666666666667</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="138">
@@ -6088,7 +6088,7 @@
         <v>1990</v>
       </c>
       <c r="C138" t="n">
-        <v>1.3</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="139">
@@ -6099,7 +6099,7 @@
         <v>2019</v>
       </c>
       <c r="C139" t="n">
-        <v>1.41666666666667</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="140">
@@ -6110,7 +6110,7 @@
         <v>2021</v>
       </c>
       <c r="C140" t="n">
-        <v>1.40833333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="141">
@@ -6121,7 +6121,7 @@
         <v>1990</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9</v>
+        <v>1.28333333333333</v>
       </c>
     </row>
     <row r="142">
@@ -6132,7 +6132,7 @@
         <v>2019</v>
       </c>
       <c r="C142" t="n">
-        <v>1.13333333333333</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="143">
@@ -6143,7 +6143,7 @@
         <v>1990</v>
       </c>
       <c r="C143" t="n">
-        <v>1.34166666666667</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="144">
@@ -6154,7 +6154,7 @@
         <v>2019</v>
       </c>
       <c r="C144" t="n">
-        <v>1.45</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="145">
@@ -6165,7 +6165,7 @@
         <v>1990</v>
       </c>
       <c r="C145" t="n">
-        <v>1.36666666666667</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="146">
@@ -6176,7 +6176,7 @@
         <v>2019</v>
       </c>
       <c r="C146" t="n">
-        <v>1.225</v>
+        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="147">
@@ -6187,7 +6187,7 @@
         <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="148">
@@ -6198,7 +6198,7 @@
         <v>1990</v>
       </c>
       <c r="C148" t="n">
-        <v>1.525</v>
+        <v>2.09166666666667</v>
       </c>
     </row>
     <row r="149">
@@ -6209,7 +6209,7 @@
         <v>1990</v>
       </c>
       <c r="C149" t="n">
-        <v>1.50833333333333</v>
+        <v>1.86666666666667</v>
       </c>
     </row>
     <row r="150">
@@ -6220,7 +6220,7 @@
         <v>2019</v>
       </c>
       <c r="C150" t="n">
-        <v>1.53333333333333</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="151">
@@ -6231,7 +6231,7 @@
         <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>1.54166666666667</v>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="152">
@@ -6242,7 +6242,7 @@
         <v>1990</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8</v>
+        <v>1.21666666666667</v>
       </c>
     </row>
     <row r="153">
@@ -6253,7 +6253,7 @@
         <v>2019</v>
       </c>
       <c r="C153" t="n">
-        <v>0.325</v>
+        <v>0.658333333333333</v>
       </c>
     </row>
     <row r="154">
@@ -6264,7 +6264,7 @@
         <v>1990</v>
       </c>
       <c r="C154" t="n">
-        <v>1.38333333333333</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="155">
@@ -6275,7 +6275,7 @@
         <v>2019</v>
       </c>
       <c r="C155" t="n">
-        <v>1.40833333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="156">
@@ -6286,7 +6286,7 @@
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>1.30833333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="157">
@@ -6297,7 +6297,7 @@
         <v>1990</v>
       </c>
       <c r="C157" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="158">
@@ -6308,7 +6308,7 @@
         <v>2019</v>
       </c>
       <c r="C158" t="n">
-        <v>1.50833333333333</v>
+        <v>1.89166666666667</v>
       </c>
     </row>
     <row r="159">
@@ -6319,7 +6319,7 @@
         <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="160">
@@ -6330,7 +6330,7 @@
         <v>1990</v>
       </c>
       <c r="C160" t="n">
-        <v>1.475</v>
+        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="161">
@@ -6341,7 +6341,7 @@
         <v>2019</v>
       </c>
       <c r="C161" t="n">
-        <v>1.4</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="162">
@@ -6352,7 +6352,7 @@
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>0.708333333333333</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163">
@@ -6363,7 +6363,7 @@
         <v>1990</v>
       </c>
       <c r="C163" t="n">
-        <v>1.46666666666667</v>
+        <v>1.85833333333333</v>
       </c>
     </row>
     <row r="164">
@@ -6374,7 +6374,7 @@
         <v>2019</v>
       </c>
       <c r="C164" t="n">
-        <v>1.58333333333333</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -6385,7 +6385,7 @@
         <v>2021</v>
       </c>
       <c r="C165" t="n">
-        <v>1.725</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="166">
@@ -6396,7 +6396,7 @@
         <v>1990</v>
       </c>
       <c r="C166" t="n">
-        <v>1.525</v>
+        <v>2.01666666666667</v>
       </c>
     </row>
     <row r="167">
@@ -6407,7 +6407,7 @@
         <v>2019</v>
       </c>
       <c r="C167" t="n">
-        <v>1.35833333333333</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="168">
@@ -6418,7 +6418,7 @@
         <v>2021</v>
       </c>
       <c r="C168" t="n">
-        <v>1.55833333333333</v>
+        <v>2.10833333333333</v>
       </c>
     </row>
     <row r="169">
@@ -6429,7 +6429,7 @@
         <v>1990</v>
       </c>
       <c r="C169" t="n">
-        <v>1.65</v>
+        <v>2.19166666666667</v>
       </c>
     </row>
     <row r="170">
@@ -6440,7 +6440,7 @@
         <v>2019</v>
       </c>
       <c r="C170" t="n">
-        <v>1.54166666666667</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="171">
@@ -6451,7 +6451,7 @@
         <v>2021</v>
       </c>
       <c r="C171" t="n">
-        <v>1.71666666666667</v>
+        <v>2.65833333333333</v>
       </c>
     </row>
     <row r="172">
@@ -6462,7 +6462,7 @@
         <v>1990</v>
       </c>
       <c r="C172" t="n">
-        <v>1.45833333333333</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="173">
@@ -6473,7 +6473,7 @@
         <v>2019</v>
       </c>
       <c r="C173" t="n">
-        <v>1.68333333333333</v>
+        <v>2.20833333333333</v>
       </c>
     </row>
     <row r="174">
@@ -6484,7 +6484,7 @@
         <v>2021</v>
       </c>
       <c r="C174" t="n">
-        <v>1.44166666666667</v>
+        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="175">
@@ -6495,7 +6495,7 @@
         <v>1990</v>
       </c>
       <c r="C175" t="n">
-        <v>1.38333333333333</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="176">
@@ -6506,7 +6506,7 @@
         <v>2019</v>
       </c>
       <c r="C176" t="n">
-        <v>1.46666666666667</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="177">
@@ -6517,7 +6517,7 @@
         <v>2021</v>
       </c>
       <c r="C177" t="n">
-        <v>1.39166666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="178">
@@ -6528,7 +6528,7 @@
         <v>1990</v>
       </c>
       <c r="C178" t="n">
-        <v>1.33333333333333</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="179">
@@ -6539,7 +6539,7 @@
         <v>2019</v>
       </c>
       <c r="C179" t="n">
-        <v>1.48333333333333</v>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="180">
@@ -6550,7 +6550,7 @@
         <v>2021</v>
       </c>
       <c r="C180" t="n">
-        <v>1.525</v>
+        <v>2.03333333333333</v>
       </c>
     </row>
     <row r="181">
@@ -6561,7 +6561,7 @@
         <v>1990</v>
       </c>
       <c r="C181" t="n">
-        <v>1.69166666666667</v>
+        <v>2.30833333333333</v>
       </c>
     </row>
     <row r="182">
@@ -6572,7 +6572,7 @@
         <v>2019</v>
       </c>
       <c r="C182" t="n">
-        <v>2.14166666666667</v>
+        <v>2.73333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -6583,7 +6583,7 @@
         <v>1990</v>
       </c>
       <c r="C183" t="n">
-        <v>1.31666666666667</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="184">
@@ -6594,7 +6594,7 @@
         <v>2019</v>
       </c>
       <c r="C184" t="n">
-        <v>1.425</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="185">
@@ -6605,7 +6605,7 @@
         <v>2021</v>
       </c>
       <c r="C185" t="n">
-        <v>1.39166666666667</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -6616,7 +6616,7 @@
         <v>1990</v>
       </c>
       <c r="C186" t="n">
-        <v>1.26666666666667</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="187">
@@ -6627,7 +6627,7 @@
         <v>2019</v>
       </c>
       <c r="C187" t="n">
-        <v>1.40833333333333</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="188">
@@ -6638,7 +6638,7 @@
         <v>2021</v>
       </c>
       <c r="C188" t="n">
-        <v>1.46666666666667</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="189">
@@ -6649,7 +6649,7 @@
         <v>1990</v>
       </c>
       <c r="C189" t="n">
-        <v>1.25</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="190">
@@ -6660,7 +6660,7 @@
         <v>2019</v>
       </c>
       <c r="C190" t="n">
-        <v>1.50833333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="191">
@@ -6671,7 +6671,7 @@
         <v>2021</v>
       </c>
       <c r="C191" t="n">
-        <v>1.45833333333333</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="192">
@@ -6682,7 +6682,7 @@
         <v>1990</v>
       </c>
       <c r="C192" t="n">
-        <v>1.70833333333333</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="193">
@@ -6693,7 +6693,7 @@
         <v>1990</v>
       </c>
       <c r="C193" t="n">
-        <v>1.45833333333333</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="194">
@@ -6704,7 +6704,7 @@
         <v>2019</v>
       </c>
       <c r="C194" t="n">
-        <v>1.41666666666667</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="195">
@@ -6715,7 +6715,7 @@
         <v>2021</v>
       </c>
       <c r="C195" t="n">
-        <v>1.325</v>
+        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="196">
@@ -6726,7 +6726,7 @@
         <v>1990</v>
       </c>
       <c r="C196" t="n">
-        <v>1.35</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="197">
@@ -6737,7 +6737,7 @@
         <v>2019</v>
       </c>
       <c r="C197" t="n">
-        <v>1.40833333333333</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="198">
@@ -6748,7 +6748,7 @@
         <v>2021</v>
       </c>
       <c r="C198" t="n">
-        <v>1.4</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="199">
@@ -6759,7 +6759,7 @@
         <v>1990</v>
       </c>
       <c r="C199" t="n">
-        <v>1.55833333333333</v>
+        <v>2.01666666666667</v>
       </c>
     </row>
     <row r="200">
@@ -6770,7 +6770,7 @@
         <v>2019</v>
       </c>
       <c r="C200" t="n">
-        <v>1.66666666666667</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="201">
@@ -6781,7 +6781,7 @@
         <v>2021</v>
       </c>
       <c r="C201" t="n">
-        <v>1.175</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="202">
@@ -6792,7 +6792,7 @@
         <v>1990</v>
       </c>
       <c r="C202" t="n">
-        <v>1.44166666666667</v>
+        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="203">
@@ -6803,7 +6803,7 @@
         <v>1990</v>
       </c>
       <c r="C203" t="n">
-        <v>0.666666666666667</v>
+        <v>0.858333333333333</v>
       </c>
     </row>
     <row r="204">
@@ -6814,7 +6814,7 @@
         <v>1990</v>
       </c>
       <c r="C204" t="n">
-        <v>1.50833333333333</v>
+        <v>1.88333333333333</v>
       </c>
     </row>
     <row r="205">
@@ -6825,7 +6825,7 @@
         <v>2019</v>
       </c>
       <c r="C205" t="n">
-        <v>1.49166666666667</v>
+        <v>1.90833333333333</v>
       </c>
     </row>
     <row r="206">
@@ -6836,7 +6836,7 @@
         <v>1990</v>
       </c>
       <c r="C206" t="n">
-        <v>1.45</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="207">
@@ -6847,7 +6847,7 @@
         <v>2019</v>
       </c>
       <c r="C207" t="n">
-        <v>1.475</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="208">
@@ -6858,7 +6858,7 @@
         <v>2021</v>
       </c>
       <c r="C208" t="n">
-        <v>1.49166666666667</v>
+        <v>1.89166666666667</v>
       </c>
     </row>
     <row r="209">
@@ -6869,7 +6869,7 @@
         <v>1990</v>
       </c>
       <c r="C209" t="n">
-        <v>1.475</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="210">
@@ -6880,7 +6880,7 @@
         <v>2019</v>
       </c>
       <c r="C210" t="n">
-        <v>1.53333333333333</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="211">
@@ -6891,7 +6891,7 @@
         <v>2021</v>
       </c>
       <c r="C211" t="n">
-        <v>1.51666666666667</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="212">
@@ -6902,7 +6902,7 @@
         <v>1990</v>
       </c>
       <c r="C212" t="n">
-        <v>1.55833333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="213">
@@ -6913,7 +6913,7 @@
         <v>2019</v>
       </c>
       <c r="C213" t="n">
-        <v>1.53333333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="214">
@@ -6924,7 +6924,7 @@
         <v>2021</v>
       </c>
       <c r="C214" t="n">
-        <v>1.53333333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="215">
@@ -6935,7 +6935,7 @@
         <v>1990</v>
       </c>
       <c r="C215" t="n">
-        <v>1.59166666666667</v>
+        <v>2.09166666666667</v>
       </c>
     </row>
     <row r="216">
@@ -6946,7 +6946,7 @@
         <v>2019</v>
       </c>
       <c r="C216" t="n">
-        <v>1.71666666666667</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="217">
@@ -6957,7 +6957,7 @@
         <v>1990</v>
       </c>
       <c r="C217" t="n">
-        <v>1.275</v>
+        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="218">
@@ -6968,7 +6968,7 @@
         <v>2019</v>
       </c>
       <c r="C218" t="n">
-        <v>1.3</v>
+        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="219">
@@ -6979,7 +6979,7 @@
         <v>2021</v>
       </c>
       <c r="C219" t="n">
-        <v>1.275</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="220">
@@ -6990,7 +6990,7 @@
         <v>1990</v>
       </c>
       <c r="C220" t="n">
-        <v>1.59166666666667</v>
+        <v>2.04166666666667</v>
       </c>
     </row>
     <row r="221">
@@ -7001,7 +7001,7 @@
         <v>2019</v>
       </c>
       <c r="C221" t="n">
-        <v>1.5</v>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="222">
@@ -7012,7 +7012,7 @@
         <v>2021</v>
       </c>
       <c r="C222" t="n">
-        <v>2.94166666666667</v>
+        <v>3.40833333333333</v>
       </c>
     </row>
     <row r="223">
@@ -7023,7 +7023,7 @@
         <v>1990</v>
       </c>
       <c r="C223" t="n">
-        <v>1.2</v>
+        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="224">
@@ -7034,7 +7034,7 @@
         <v>2019</v>
       </c>
       <c r="C224" t="n">
-        <v>1.45833333333333</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="225">
@@ -7045,7 +7045,7 @@
         <v>2021</v>
       </c>
       <c r="C225" t="n">
-        <v>1.475</v>
+        <v>1.86666666666667</v>
       </c>
     </row>
     <row r="226">
@@ -7056,7 +7056,7 @@
         <v>1990</v>
       </c>
       <c r="C226" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="227">
@@ -7067,7 +7067,7 @@
         <v>2019</v>
       </c>
       <c r="C227" t="n">
-        <v>1.575</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="228">
@@ -7078,7 +7078,7 @@
         <v>2021</v>
       </c>
       <c r="C228" t="n">
-        <v>1.36666666666667</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="229">
@@ -7089,7 +7089,7 @@
         <v>1990</v>
       </c>
       <c r="C229" t="n">
-        <v>1.38333333333333</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="230">
@@ -7100,7 +7100,7 @@
         <v>2019</v>
       </c>
       <c r="C230" t="n">
-        <v>1.43333333333333</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="231">
@@ -7111,7 +7111,7 @@
         <v>1990</v>
       </c>
       <c r="C231" t="n">
-        <v>1.34166666666667</v>
+        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="232">
@@ -7122,7 +7122,7 @@
         <v>2019</v>
       </c>
       <c r="C232" t="n">
-        <v>1.29166666666667</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="233">
@@ -7133,7 +7133,7 @@
         <v>2021</v>
       </c>
       <c r="C233" t="n">
-        <v>1.44166666666667</v>
+        <v>1.78333333333333</v>
       </c>
     </row>
     <row r="234">
@@ -7144,7 +7144,7 @@
         <v>1990</v>
       </c>
       <c r="C234" t="n">
-        <v>1.45</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="235">
@@ -7155,7 +7155,7 @@
         <v>2019</v>
       </c>
       <c r="C235" t="n">
-        <v>1.725</v>
+        <v>2.28333333333333</v>
       </c>
     </row>
     <row r="236">
@@ -7166,7 +7166,7 @@
         <v>1990</v>
       </c>
       <c r="C236" t="n">
-        <v>1.31666666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="237">
@@ -7177,7 +7177,7 @@
         <v>2019</v>
       </c>
       <c r="C237" t="n">
-        <v>1.6</v>
+        <v>2.14166666666667</v>
       </c>
     </row>
     <row r="238">
@@ -7188,7 +7188,7 @@
         <v>2021</v>
       </c>
       <c r="C238" t="n">
-        <v>1.89166666666667</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="239">
@@ -7199,7 +7199,7 @@
         <v>1990</v>
       </c>
       <c r="C239" t="n">
-        <v>1.125</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="240">
@@ -7210,7 +7210,7 @@
         <v>2019</v>
       </c>
       <c r="C240" t="n">
-        <v>1.40833333333333</v>
+        <v>1.75833333333333</v>
       </c>
     </row>
     <row r="241">
@@ -7221,7 +7221,7 @@
         <v>2021</v>
       </c>
       <c r="C241" t="n">
-        <v>1.40833333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="242">
@@ -7232,7 +7232,7 @@
         <v>1990</v>
       </c>
       <c r="C242" t="n">
-        <v>1.13333333333333</v>
+        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="243">
@@ -7243,7 +7243,7 @@
         <v>2019</v>
       </c>
       <c r="C243" t="n">
-        <v>1.45</v>
+        <v>1.85833333333333</v>
       </c>
     </row>
     <row r="244">
@@ -7254,7 +7254,7 @@
         <v>1990</v>
       </c>
       <c r="C244" t="n">
-        <v>1.26666666666667</v>
+        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="245">
@@ -7265,7 +7265,7 @@
         <v>2019</v>
       </c>
       <c r="C245" t="n">
-        <v>1.425</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="246">
@@ -7276,7 +7276,7 @@
         <v>2021</v>
       </c>
       <c r="C246" t="n">
-        <v>1.3</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="247">
@@ -7287,7 +7287,7 @@
         <v>1990</v>
       </c>
       <c r="C247" t="n">
-        <v>1.28333333333333</v>
+        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="248">
@@ -7298,7 +7298,7 @@
         <v>2019</v>
       </c>
       <c r="C248" t="n">
-        <v>1.5</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="249">
@@ -7309,7 +7309,7 @@
         <v>2021</v>
       </c>
       <c r="C249" t="n">
-        <v>1.61666666666667</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="250">
@@ -7320,7 +7320,7 @@
         <v>1990</v>
       </c>
       <c r="C250" t="n">
-        <v>1.15833333333333</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="251">
@@ -7331,7 +7331,7 @@
         <v>2019</v>
       </c>
       <c r="C251" t="n">
-        <v>1.45833333333333</v>
+        <v>1.84166666666667</v>
       </c>
     </row>
     <row r="252">
@@ -7342,7 +7342,7 @@
         <v>2021</v>
       </c>
       <c r="C252" t="n">
-        <v>1.63333333333333</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="253">
@@ -7353,7 +7353,7 @@
         <v>1990</v>
       </c>
       <c r="C253" t="n">
-        <v>1.275</v>
+        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="254">
@@ -7364,7 +7364,7 @@
         <v>2019</v>
       </c>
       <c r="C254" t="n">
-        <v>1.48333333333333</v>
+        <v>1.90833333333333</v>
       </c>
     </row>
     <row r="255">
@@ -7375,7 +7375,7 @@
         <v>2021</v>
       </c>
       <c r="C255" t="n">
-        <v>1.48333333333333</v>
+        <v>1.90833333333333</v>
       </c>
     </row>
     <row r="256">
@@ -7386,7 +7386,7 @@
         <v>1990</v>
       </c>
       <c r="C256" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -7397,7 +7397,7 @@
         <v>2019</v>
       </c>
       <c r="C257" t="n">
-        <v>1.69166666666667</v>
+        <v>2.11666666666667</v>
       </c>
     </row>
     <row r="258">
@@ -7408,7 +7408,7 @@
         <v>2021</v>
       </c>
       <c r="C258" t="n">
-        <v>1.69166666666667</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="259">
@@ -7419,7 +7419,7 @@
         <v>1990</v>
       </c>
       <c r="C259" t="n">
-        <v>1.44166666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="260">
@@ -7430,7 +7430,7 @@
         <v>2019</v>
       </c>
       <c r="C260" t="n">
-        <v>1.425</v>
+        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="261">
@@ -7441,7 +7441,7 @@
         <v>2021</v>
       </c>
       <c r="C261" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="262">
@@ -7452,7 +7452,7 @@
         <v>1990</v>
       </c>
       <c r="C262" t="n">
-        <v>1.525</v>
+        <v>1.91666666666667</v>
       </c>
     </row>
     <row r="263">
@@ -7463,7 +7463,7 @@
         <v>2019</v>
       </c>
       <c r="C263" t="n">
-        <v>1.56666666666667</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="264">
@@ -7474,7 +7474,7 @@
         <v>2021</v>
       </c>
       <c r="C264" t="n">
-        <v>1.4</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="265">
@@ -7485,7 +7485,7 @@
         <v>1990</v>
       </c>
       <c r="C265" t="n">
-        <v>1.51666666666667</v>
+        <v>2.00833333333333</v>
       </c>
     </row>
     <row r="266">
@@ -7496,7 +7496,7 @@
         <v>2019</v>
       </c>
       <c r="C266" t="n">
-        <v>1.40833333333333</v>
+        <v>1.81666666666667</v>
       </c>
     </row>
     <row r="267">
@@ -7507,7 +7507,7 @@
         <v>2021</v>
       </c>
       <c r="C267" t="n">
-        <v>1.25</v>
+        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="268">
@@ -7518,7 +7518,7 @@
         <v>1990</v>
       </c>
       <c r="C268" t="n">
-        <v>0.65</v>
+        <v>0.766666666666667</v>
       </c>
     </row>
     <row r="269">
@@ -7529,7 +7529,7 @@
         <v>1990</v>
       </c>
       <c r="C269" t="n">
-        <v>1.65833333333333</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="270">
@@ -7540,7 +7540,7 @@
         <v>1990</v>
       </c>
       <c r="C270" t="n">
-        <v>1.18333333333333</v>
+        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="271">
@@ -7551,7 +7551,7 @@
         <v>2019</v>
       </c>
       <c r="C271" t="n">
-        <v>1.45</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="272">
@@ -7562,7 +7562,7 @@
         <v>2021</v>
       </c>
       <c r="C272" t="n">
-        <v>1.81666666666667</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="273">
@@ -7573,7 +7573,7 @@
         <v>1990</v>
       </c>
       <c r="C273" t="n">
-        <v>1.075</v>
+        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="274">
@@ -7584,7 +7584,7 @@
         <v>2019</v>
       </c>
       <c r="C274" t="n">
-        <v>1.34166666666667</v>
+        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="275">
@@ -7595,7 +7595,7 @@
         <v>2021</v>
       </c>
       <c r="C275" t="n">
-        <v>1.325</v>
+        <v>1.71666666666667</v>
       </c>
     </row>
     <row r="276">
@@ -7606,7 +7606,7 @@
         <v>1990</v>
       </c>
       <c r="C276" t="n">
-        <v>1.49166666666667</v>
+        <v>1.83333333333333</v>
       </c>
     </row>
     <row r="277">
@@ -7617,7 +7617,7 @@
         <v>2019</v>
       </c>
       <c r="C277" t="n">
-        <v>1.54166666666667</v>
+        <v>1.86666666666667</v>
       </c>
     </row>
     <row r="278">
@@ -7628,7 +7628,7 @@
         <v>2021</v>
       </c>
       <c r="C278" t="n">
-        <v>1.55833333333333</v>
+        <v>1.89166666666667</v>
       </c>
     </row>
     <row r="279">
@@ -7639,7 +7639,7 @@
         <v>1990</v>
       </c>
       <c r="C279" t="n">
-        <v>1.475</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="280">
@@ -7650,7 +7650,7 @@
         <v>2019</v>
       </c>
       <c r="C280" t="n">
-        <v>1.78333333333333</v>
+        <v>2.31666666666667</v>
       </c>
     </row>
     <row r="281">
@@ -7661,7 +7661,7 @@
         <v>2021</v>
       </c>
       <c r="C281" t="n">
-        <v>2.06666666666667</v>
+        <v>2.59166666666667</v>
       </c>
     </row>
     <row r="282">
@@ -7672,7 +7672,7 @@
         <v>1990</v>
       </c>
       <c r="C282" t="n">
-        <v>1.18333333333333</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="283">
@@ -7683,7 +7683,7 @@
         <v>1990</v>
       </c>
       <c r="C283" t="n">
-        <v>1.28333333333333</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="284">
@@ -7694,7 +7694,7 @@
         <v>1990</v>
       </c>
       <c r="C284" t="n">
-        <v>1.30833333333333</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="285">
@@ -7705,7 +7705,7 @@
         <v>2019</v>
       </c>
       <c r="C285" t="n">
-        <v>1.75833333333333</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="286">
@@ -7716,7 +7716,7 @@
         <v>2021</v>
       </c>
       <c r="C286" t="n">
-        <v>3.06666666666667</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="287">
@@ -7727,7 +7727,7 @@
         <v>1990</v>
       </c>
       <c r="C287" t="n">
-        <v>1.53333333333333</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="288">
@@ -7738,7 +7738,7 @@
         <v>2019</v>
       </c>
       <c r="C288" t="n">
-        <v>1.575</v>
+        <v>2.01666666666667</v>
       </c>
     </row>
     <row r="289">
@@ -7749,7 +7749,7 @@
         <v>2021</v>
       </c>
       <c r="C289" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -7760,7 +7760,7 @@
         <v>1990</v>
       </c>
       <c r="C290" t="n">
-        <v>1.18333333333333</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="291">
@@ -7771,7 +7771,7 @@
         <v>2019</v>
       </c>
       <c r="C291" t="n">
-        <v>1.51666666666667</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="292">
@@ -7782,7 +7782,7 @@
         <v>2021</v>
       </c>
       <c r="C292" t="n">
-        <v>1.45</v>
+        <v>1.79166666666667</v>
       </c>
     </row>
     <row r="293">
@@ -7793,7 +7793,7 @@
         <v>1990</v>
       </c>
       <c r="C293" t="n">
-        <v>1.43333333333333</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="294">
@@ -7804,7 +7804,7 @@
         <v>2019</v>
       </c>
       <c r="C294" t="n">
-        <v>1.825</v>
+        <v>2.525</v>
       </c>
     </row>
     <row r="295">
@@ -7815,7 +7815,7 @@
         <v>1990</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7</v>
+        <v>1.05833333333333</v>
       </c>
     </row>
     <row r="296">
@@ -7826,7 +7826,7 @@
         <v>2019</v>
       </c>
       <c r="C296" t="n">
-        <v>0.333333333333333</v>
+        <v>0.691666666666667</v>
       </c>
     </row>
     <row r="297">
@@ -7837,7 +7837,7 @@
         <v>2021</v>
       </c>
       <c r="C297" t="n">
-        <v>0.291666666666667</v>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row r="298">
@@ -7848,7 +7848,7 @@
         <v>1990</v>
       </c>
       <c r="C298" t="n">
-        <v>1.23333333333333</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="299">
@@ -7859,7 +7859,7 @@
         <v>2019</v>
       </c>
       <c r="C299" t="n">
-        <v>1.39166666666667</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="300">
@@ -7870,7 +7870,7 @@
         <v>2021</v>
       </c>
       <c r="C300" t="n">
-        <v>1.38333333333333</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="301">
@@ -7881,7 +7881,7 @@
         <v>2019</v>
       </c>
       <c r="C301" t="n">
-        <v>0.291666666666667</v>
+        <v>0.516666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/fig4.xlsx
+++ b/outcome/fig4.xlsx
@@ -30,19 +30,19 @@
     <t xml:space="preserve">Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Americas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Mediterranean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global</t>
   </si>
   <si>
     <t xml:space="preserve">South-East Asia</t>
@@ -759,13 +759,13 @@
         <v>1990</v>
       </c>
       <c r="C2" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>3.48333333333333</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="3">
@@ -776,13 +776,13 @@
         <v>1991</v>
       </c>
       <c r="C3" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>3.49166666666667</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="4">
@@ -793,13 +793,13 @@
         <v>1992</v>
       </c>
       <c r="C4" t="n">
-        <v>1.70833333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="5">
@@ -810,13 +810,13 @@
         <v>1993</v>
       </c>
       <c r="C5" t="n">
-        <v>1.70833333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.708333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>3.5</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="6">
@@ -827,13 +827,13 @@
         <v>1994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.70833333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>3.50833333333333</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="7">
@@ -844,13 +844,13 @@
         <v>1995</v>
       </c>
       <c r="C7" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>3.50833333333333</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="8">
@@ -861,13 +861,13 @@
         <v>1996</v>
       </c>
       <c r="C8" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>3.50833333333333</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="9">
@@ -878,13 +878,13 @@
         <v>1997</v>
       </c>
       <c r="C9" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>3.50833333333333</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="10">
@@ -895,13 +895,13 @@
         <v>1998</v>
       </c>
       <c r="C10" t="n">
-        <v>1.70833333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>3.51666666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -912,13 +912,13 @@
         <v>1999</v>
       </c>
       <c r="C11" t="n">
-        <v>1.70833333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>3.525</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="12">
@@ -929,13 +929,13 @@
         <v>2000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.71666666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.708333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>3.53333333333333</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="13">
@@ -946,13 +946,13 @@
         <v>2001</v>
       </c>
       <c r="C13" t="n">
-        <v>1.71666666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.716666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>3.55</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="14">
@@ -963,13 +963,13 @@
         <v>2002</v>
       </c>
       <c r="C14" t="n">
-        <v>1.725</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.716666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="E14" t="n">
-        <v>3.55833333333333</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -980,13 +980,13 @@
         <v>2003</v>
       </c>
       <c r="C15" t="n">
-        <v>1.725</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>0.716666666666667</v>
+        <v>0.725</v>
       </c>
       <c r="E15" t="n">
-        <v>3.56666666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -997,13 +997,13 @@
         <v>2004</v>
       </c>
       <c r="C16" t="n">
-        <v>1.73333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.725</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>3.575</v>
+        <v>3.89166666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1014,13 +1014,13 @@
         <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>1.74166666666667</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D17" t="n">
         <v>0.733333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>3.59166666666667</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1031,13 +1031,13 @@
         <v>2006</v>
       </c>
       <c r="C18" t="n">
-        <v>1.75</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.741666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>3.60833333333333</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19">
@@ -1048,13 +1048,13 @@
         <v>2007</v>
       </c>
       <c r="C19" t="n">
-        <v>1.76666666666667</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.741666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>3.61666666666667</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -1065,13 +1065,13 @@
         <v>2008</v>
       </c>
       <c r="C20" t="n">
-        <v>1.775</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D20" t="n">
         <v>0.741666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>3.63333333333333</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1082,13 +1082,13 @@
         <v>2009</v>
       </c>
       <c r="C21" t="n">
-        <v>1.775</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.75</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>3.63333333333333</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -1099,13 +1099,13 @@
         <v>2010</v>
       </c>
       <c r="C22" t="n">
-        <v>1.78333333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.75</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>3.65</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1116,13 +1116,13 @@
         <v>2011</v>
       </c>
       <c r="C23" t="n">
-        <v>1.79166666666667</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.75</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>3.66666666666667</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="24">
@@ -1133,13 +1133,13 @@
         <v>2012</v>
       </c>
       <c r="C24" t="n">
-        <v>1.8</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.758333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>3.675</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1150,13 +1150,13 @@
         <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>1.8</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>0.758333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>3.675</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="26">
@@ -1170,10 +1170,10 @@
         <v>1.80833333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.766666666666667</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>3.68333333333333</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1187,10 +1187,10 @@
         <v>1.80833333333333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.766666666666667</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3.69166666666667</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="28">
@@ -1201,13 +1201,13 @@
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>1.81666666666667</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>0.766666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E28" t="n">
-        <v>3.7</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1218,13 +1218,13 @@
         <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>1.825</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D29" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>3.725</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1235,13 +1235,13 @@
         <v>2018</v>
       </c>
       <c r="C30" t="n">
-        <v>1.825</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="E30" t="n">
-        <v>3.73333333333333</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1252,13 +1252,13 @@
         <v>2019</v>
       </c>
       <c r="C31" t="n">
-        <v>1.83333333333333</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>3.75</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -1269,13 +1269,13 @@
         <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="D32" t="n">
-        <v>0.766666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E32" t="n">
-        <v>3.64166666666667</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -1286,13 +1286,13 @@
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>1.79166666666667</v>
+        <v>1.85</v>
       </c>
       <c r="D33" t="n">
         <v>0.766666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>3.61666666666667</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1303,13 +1303,13 @@
         <v>1990</v>
       </c>
       <c r="C34" t="n">
-        <v>1.66666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.691666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>3.525</v>
+        <v>3.48333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1320,13 +1320,13 @@
         <v>1991</v>
       </c>
       <c r="C35" t="n">
-        <v>1.68333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>3.55833333333333</v>
+        <v>3.49166666666667</v>
       </c>
     </row>
     <row r="36">
@@ -1337,13 +1337,13 @@
         <v>1992</v>
       </c>
       <c r="C36" t="n">
-        <v>1.7</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D36" t="n">
         <v>0.708333333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37">
@@ -1360,7 +1360,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>3.60833333333333</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38">
@@ -1377,7 +1377,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>3.61666666666667</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="39">
@@ -1388,13 +1388,13 @@
         <v>1995</v>
       </c>
       <c r="C39" t="n">
-        <v>1.71666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D39" t="n">
         <v>0.708333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>3.63333333333333</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1405,13 +1405,13 @@
         <v>1996</v>
       </c>
       <c r="C40" t="n">
-        <v>1.725</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D40" t="n">
-        <v>0.716666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>3.65</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1422,13 +1422,13 @@
         <v>1997</v>
       </c>
       <c r="C41" t="n">
-        <v>1.73333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.716666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>3.675</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1439,13 +1439,13 @@
         <v>1998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.71666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D42" t="n">
         <v>0.708333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>3.66666666666667</v>
+        <v>3.51666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -1456,13 +1456,13 @@
         <v>1999</v>
       </c>
       <c r="C43" t="n">
-        <v>1.725</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D43" t="n">
-        <v>0.716666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>3.69166666666667</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="44">
@@ -1479,7 +1479,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>3.69166666666667</v>
+        <v>3.53333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -1490,13 +1490,13 @@
         <v>2001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.725</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.708333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>3.70833333333333</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="46">
@@ -1510,10 +1510,10 @@
         <v>1.725</v>
       </c>
       <c r="D46" t="n">
-        <v>0.708333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E46" t="n">
-        <v>3.71666666666667</v>
+        <v>3.55833333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1524,13 +1524,13 @@
         <v>2003</v>
       </c>
       <c r="C47" t="n">
-        <v>1.71666666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D47" t="n">
-        <v>0.708333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>3.71666666666667</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -1541,13 +1541,13 @@
         <v>2004</v>
       </c>
       <c r="C48" t="n">
-        <v>1.71666666666667</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D48" t="n">
-        <v>0.708333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E48" t="n">
-        <v>3.70833333333333</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="49">
@@ -1558,13 +1558,13 @@
         <v>2005</v>
       </c>
       <c r="C49" t="n">
-        <v>1.70833333333333</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>3.70833333333333</v>
+        <v>3.59166666666667</v>
       </c>
     </row>
     <row r="50">
@@ -1575,13 +1575,13 @@
         <v>2006</v>
       </c>
       <c r="C50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>3.7</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1592,13 +1592,13 @@
         <v>2007</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E51" t="n">
-        <v>3.68333333333333</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -1609,13 +1609,13 @@
         <v>2008</v>
       </c>
       <c r="C52" t="n">
-        <v>1.68333333333333</v>
+        <v>1.775</v>
       </c>
       <c r="D52" t="n">
-        <v>0.691666666666667</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>3.66666666666667</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1626,13 +1626,13 @@
         <v>2009</v>
       </c>
       <c r="C53" t="n">
-        <v>1.675</v>
+        <v>1.775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.683333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E53" t="n">
-        <v>3.65</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -1643,13 +1643,13 @@
         <v>2010</v>
       </c>
       <c r="C54" t="n">
-        <v>1.65833333333333</v>
+        <v>1.78333333333333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.683333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E54" t="n">
-        <v>3.625</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="55">
@@ -1660,13 +1660,13 @@
         <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>1.66666666666667</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D55" t="n">
-        <v>0.683333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E55" t="n">
-        <v>3.63333333333333</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -1677,13 +1677,13 @@
         <v>2012</v>
       </c>
       <c r="C56" t="n">
-        <v>1.64166666666667</v>
+        <v>1.8</v>
       </c>
       <c r="D56" t="n">
-        <v>0.675</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>3.60833333333333</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="57">
@@ -1694,13 +1694,13 @@
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="D57" t="n">
-        <v>0.675</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E57" t="n">
-        <v>3.60833333333333</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="58">
@@ -1711,13 +1711,13 @@
         <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>1.65833333333333</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.683333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>3.60833333333333</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1728,13 +1728,13 @@
         <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>1.675</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>0.691666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>3.63333333333333</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="60">
@@ -1745,13 +1745,13 @@
         <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>1.7</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>3.66666666666667</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="61">
@@ -1762,13 +1762,13 @@
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>1.71666666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.708333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E61" t="n">
-        <v>3.69166666666667</v>
+        <v>3.725</v>
       </c>
     </row>
     <row r="62">
@@ -1779,13 +1779,13 @@
         <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="D62" t="n">
-        <v>0.708333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E62" t="n">
-        <v>3.71666666666667</v>
+        <v>3.73333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -1796,13 +1796,13 @@
         <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>1.73333333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D63" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E63" t="n">
-        <v>3.74166666666667</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="64">
@@ -1813,13 +1813,13 @@
         <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="D64" t="n">
-        <v>0.708333333333333</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>3.78333333333333</v>
+        <v>3.64166666666667</v>
       </c>
     </row>
     <row r="65">
@@ -1830,13 +1830,13 @@
         <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>1.70833333333333</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D65" t="n">
-        <v>0.675</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>3.875</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="66">
@@ -2935,13 +2935,13 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.825</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.733333333333333</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E130" t="n">
-        <v>3.84166666666667</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="131">
@@ -2952,13 +2952,13 @@
         <v>1991</v>
       </c>
       <c r="C131" t="n">
-        <v>1.825</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D131" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E131" t="n">
-        <v>3.84166666666667</v>
+        <v>3.55833333333333</v>
       </c>
     </row>
     <row r="132">
@@ -2969,13 +2969,13 @@
         <v>1992</v>
       </c>
       <c r="C132" t="n">
-        <v>1.83333333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D132" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E132" t="n">
-        <v>3.85833333333333</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="133">
@@ -2986,13 +2986,13 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.83333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D133" t="n">
-        <v>0.741666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E133" t="n">
-        <v>3.875</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="134">
@@ -3003,13 +3003,13 @@
         <v>1994</v>
       </c>
       <c r="C134" t="n">
-        <v>1.83333333333333</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E134" t="n">
-        <v>3.875</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="135">
@@ -3020,13 +3020,13 @@
         <v>1995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.825</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D135" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E135" t="n">
-        <v>3.875</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -3037,13 +3037,13 @@
         <v>1996</v>
       </c>
       <c r="C136" t="n">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="D136" t="n">
-        <v>0.733333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E136" t="n">
-        <v>3.875</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="137">
@@ -3054,13 +3054,13 @@
         <v>1997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.825</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D137" t="n">
-        <v>0.733333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E137" t="n">
-        <v>3.875</v>
+        <v>3.675</v>
       </c>
     </row>
     <row r="138">
@@ -3071,13 +3071,13 @@
         <v>1998</v>
       </c>
       <c r="C138" t="n">
-        <v>1.825</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D138" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E138" t="n">
-        <v>3.88333333333333</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -3088,13 +3088,13 @@
         <v>1999</v>
       </c>
       <c r="C139" t="n">
-        <v>1.81666666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D139" t="n">
-        <v>0.733333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E139" t="n">
-        <v>3.875</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="140">
@@ -3105,13 +3105,13 @@
         <v>2000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.825</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D140" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E140" t="n">
-        <v>3.89166666666667</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="141">
@@ -3122,13 +3122,13 @@
         <v>2001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="D141" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E141" t="n">
-        <v>3.90833333333333</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="142">
@@ -3139,13 +3139,13 @@
         <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.81666666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D142" t="n">
-        <v>0.725</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E142" t="n">
-        <v>3.88333333333333</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="143">
@@ -3156,13 +3156,13 @@
         <v>2003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.80833333333333</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D143" t="n">
-        <v>0.725</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E143" t="n">
-        <v>3.88333333333333</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="144">
@@ -3173,13 +3173,13 @@
         <v>2004</v>
       </c>
       <c r="C144" t="n">
-        <v>1.81666666666667</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D144" t="n">
-        <v>0.733333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E144" t="n">
-        <v>3.89166666666667</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="145">
@@ -3190,13 +3190,13 @@
         <v>2005</v>
       </c>
       <c r="C145" t="n">
-        <v>1.81666666666667</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E145" t="n">
-        <v>3.90833333333333</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="146">
@@ -3207,13 +3207,13 @@
         <v>2006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.81666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="D146" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E146" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="147">
@@ -3224,13 +3224,13 @@
         <v>2007</v>
       </c>
       <c r="C147" t="n">
-        <v>1.81666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="D147" t="n">
-        <v>0.733333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E147" t="n">
-        <v>3.88333333333333</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
     <row r="148">
@@ -3241,13 +3241,13 @@
         <v>2008</v>
       </c>
       <c r="C148" t="n">
-        <v>1.81666666666667</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D148" t="n">
-        <v>0.741666666666667</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E148" t="n">
-        <v>3.88333333333333</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="149">
@@ -3258,13 +3258,13 @@
         <v>2009</v>
       </c>
       <c r="C149" t="n">
-        <v>1.80833333333333</v>
+        <v>1.675</v>
       </c>
       <c r="D149" t="n">
-        <v>0.741666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E149" t="n">
-        <v>3.86666666666667</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="150">
@@ -3275,13 +3275,13 @@
         <v>2010</v>
       </c>
       <c r="C150" t="n">
-        <v>1.80833333333333</v>
+        <v>1.65833333333333</v>
       </c>
       <c r="D150" t="n">
-        <v>0.733333333333333</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E150" t="n">
-        <v>3.85833333333333</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="151">
@@ -3292,13 +3292,13 @@
         <v>2011</v>
       </c>
       <c r="C151" t="n">
-        <v>1.80833333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D151" t="n">
-        <v>0.741666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E151" t="n">
-        <v>3.85833333333333</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -3309,13 +3309,13 @@
         <v>2012</v>
       </c>
       <c r="C152" t="n">
-        <v>1.80833333333333</v>
+        <v>1.64166666666667</v>
       </c>
       <c r="D152" t="n">
-        <v>0.741666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E152" t="n">
-        <v>3.85833333333333</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="153">
@@ -3326,13 +3326,13 @@
         <v>2013</v>
       </c>
       <c r="C153" t="n">
-        <v>1.80833333333333</v>
+        <v>1.65</v>
       </c>
       <c r="D153" t="n">
-        <v>0.741666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E153" t="n">
-        <v>3.85</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="154">
@@ -3343,13 +3343,13 @@
         <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1.80833333333333</v>
+        <v>1.65833333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.741666666666667</v>
+        <v>0.683333333333333</v>
       </c>
       <c r="E154" t="n">
-        <v>3.84166666666667</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="155">
@@ -3360,13 +3360,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>1.80833333333333</v>
+        <v>1.675</v>
       </c>
       <c r="D155" t="n">
-        <v>0.741666666666667</v>
+        <v>0.691666666666667</v>
       </c>
       <c r="E155" t="n">
-        <v>3.85</v>
+        <v>3.63333333333333</v>
       </c>
     </row>
     <row r="156">
@@ -3377,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>1.80833333333333</v>
+        <v>1.7</v>
       </c>
       <c r="D156" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E156" t="n">
-        <v>3.84166666666667</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -3394,13 +3394,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>1.81666666666667</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E157" t="n">
-        <v>3.85833333333333</v>
+        <v>3.69166666666667</v>
       </c>
     </row>
     <row r="158">
@@ -3411,13 +3411,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>1.81666666666667</v>
+        <v>1.725</v>
       </c>
       <c r="D158" t="n">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E158" t="n">
-        <v>3.85833333333333</v>
+        <v>3.71666666666667</v>
       </c>
     </row>
     <row r="159">
@@ -3428,13 +3428,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>1.81666666666667</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D159" t="n">
-        <v>0.75</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E159" t="n">
-        <v>3.86666666666667</v>
+        <v>3.74166666666667</v>
       </c>
     </row>
     <row r="160">
@@ -3445,13 +3445,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="D160" t="n">
-        <v>0.775</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="E160" t="n">
-        <v>3.86666666666667</v>
+        <v>3.78333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -3462,13 +3462,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1.85</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D161" t="n">
-        <v>0.766666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E161" t="n">
-        <v>3.84166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="162">
@@ -4583,6 +4583,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -4594,6 +4600,12 @@
       <c r="C2" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.925</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4605,6 +4617,12 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4616,6 +4634,12 @@
       <c r="C4" t="n">
         <v>2.24166666666667</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.908333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.63333333333333</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4627,6 +4651,12 @@
       <c r="C5" t="n">
         <v>0.625</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.05833333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4638,6 +4668,12 @@
       <c r="C6" t="n">
         <v>0.641666666666667</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.09166666666667</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4649,6 +4685,12 @@
       <c r="C7" t="n">
         <v>0.533333333333333</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.03333333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4660,6 +4702,12 @@
       <c r="C8" t="n">
         <v>2.30833333333333</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4671,6 +4719,12 @@
       <c r="C9" t="n">
         <v>2.33333333333333</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.56666666666667</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4682,6 +4736,12 @@
       <c r="C10" t="n">
         <v>1.65</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.34166666666667</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4693,6 +4753,12 @@
       <c r="C11" t="n">
         <v>1.625</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4704,6 +4770,12 @@
       <c r="C12" t="n">
         <v>1.475</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.95833333333333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4715,6 +4787,12 @@
       <c r="C13" t="n">
         <v>1.55833333333333</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.35833333333333</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4726,6 +4804,12 @@
       <c r="C14" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.73333333333333</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4737,6 +4821,12 @@
       <c r="C15" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.81666666666667</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4748,6 +4838,12 @@
       <c r="C16" t="n">
         <v>1.86666666666667</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.86666666666667</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4759,6 +4855,12 @@
       <c r="C17" t="n">
         <v>2.30833333333333</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.00833333333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.73333333333333</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4770,6 +4872,12 @@
       <c r="C18" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.70833333333333</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -4781,6 +4889,12 @@
       <c r="C19" t="n">
         <v>1.75</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.75833333333333</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -4792,6 +4906,12 @@
       <c r="C20" t="n">
         <v>1.775</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.90833333333333</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -4803,6 +4923,12 @@
       <c r="C21" t="n">
         <v>1.51666666666667</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.28333333333333</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -4814,6 +4940,12 @@
       <c r="C22" t="n">
         <v>1.80833333333333</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.96666666666667</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -4825,6 +4957,12 @@
       <c r="C23" t="n">
         <v>1.825</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.025</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -4836,6 +4974,12 @@
       <c r="C24" t="n">
         <v>2.25</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.891666666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.775</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -4847,6 +4991,12 @@
       <c r="C25" t="n">
         <v>2.08333333333333</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -4858,6 +5008,12 @@
       <c r="C26" t="n">
         <v>1.70833333333333</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -4869,6 +5025,12 @@
       <c r="C27" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.03333333333333</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -4880,6 +5042,12 @@
       <c r="C28" t="n">
         <v>1.69166666666667</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.50833333333333</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -4891,6 +5059,12 @@
       <c r="C29" t="n">
         <v>2.04166666666667</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -4902,6 +5076,12 @@
       <c r="C30" t="n">
         <v>1.85833333333333</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -4913,6 +5093,12 @@
       <c r="C31" t="n">
         <v>1.75</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -4924,6 +5110,12 @@
       <c r="C32" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.225</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -4935,6 +5127,12 @@
       <c r="C33" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.24166666666667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -4946,6 +5144,12 @@
       <c r="C34" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.53333333333333</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -4957,6 +5161,12 @@
       <c r="C35" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4968,6 +5178,12 @@
       <c r="C36" t="n">
         <v>1.83333333333333</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.50833333333333</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4979,6 +5195,12 @@
       <c r="C37" t="n">
         <v>1.6</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -4990,6 +5212,12 @@
       <c r="C38" t="n">
         <v>1.625</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.69166666666667</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -5001,6 +5229,12 @@
       <c r="C39" t="n">
         <v>1.51666666666667</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.85833333333333</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -5012,6 +5246,12 @@
       <c r="C40" t="n">
         <v>1.825</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5.23333333333333</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -5023,6 +5263,12 @@
       <c r="C41" t="n">
         <v>0.658333333333333</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.30833333333333</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -5034,6 +5280,12 @@
       <c r="C42" t="n">
         <v>0.675</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.29166666666667</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -5045,6 +5297,12 @@
       <c r="C43" t="n">
         <v>1.63333333333333</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.54166666666667</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -5056,6 +5314,12 @@
       <c r="C44" t="n">
         <v>1.89166666666667</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.00833333333333</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -5067,6 +5331,12 @@
       <c r="C45" t="n">
         <v>2.09166666666667</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.35833333333333</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -5078,6 +5348,12 @@
       <c r="C46" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.79166666666667</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -5089,6 +5365,12 @@
       <c r="C47" t="n">
         <v>2.15833333333333</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.525</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -5100,6 +5382,12 @@
       <c r="C48" t="n">
         <v>1.90833333333333</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.26666666666667</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -5111,6 +5399,12 @@
       <c r="C49" t="n">
         <v>1.53333333333333</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -5122,6 +5416,12 @@
       <c r="C50" t="n">
         <v>1.525</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.41666666666667</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -5133,6 +5433,12 @@
       <c r="C51" t="n">
         <v>1.03333333333333</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.383333333333333</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -5144,6 +5450,12 @@
       <c r="C52" t="n">
         <v>1.7</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.76666666666667</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -5155,6 +5467,12 @@
       <c r="C53" t="n">
         <v>1.725</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.70833333333333</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -5166,6 +5484,12 @@
       <c r="C54" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.725</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -5177,6 +5501,12 @@
       <c r="C55" t="n">
         <v>1.58333333333333</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -5188,6 +5518,12 @@
       <c r="C56" t="n">
         <v>1.66666666666667</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.74166666666667</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -5199,6 +5535,12 @@
       <c r="C57" t="n">
         <v>1.625</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5.225</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -5210,6 +5552,12 @@
       <c r="C58" t="n">
         <v>1.9</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.925</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -5221,6 +5569,12 @@
       <c r="C59" t="n">
         <v>2.13333333333333</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.325</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -5232,6 +5586,12 @@
       <c r="C60" t="n">
         <v>2.43333333333333</v>
       </c>
+      <c r="D60" t="n">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.08333333333333</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -5243,6 +5603,12 @@
       <c r="C61" t="n">
         <v>1.80833333333333</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.59166666666667</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -5254,6 +5620,12 @@
       <c r="C62" t="n">
         <v>1.85833333333333</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.74166666666667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -5265,6 +5637,12 @@
       <c r="C63" t="n">
         <v>1.775</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.58333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -5276,6 +5654,12 @@
       <c r="C64" t="n">
         <v>1.625</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -5287,6 +5671,12 @@
       <c r="C65" t="n">
         <v>1.68333333333333</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.66666666666667</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -5298,6 +5688,12 @@
       <c r="C66" t="n">
         <v>2.125</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.875</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -5309,6 +5705,12 @@
       <c r="C67" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.56666666666667</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -5320,6 +5722,12 @@
       <c r="C68" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.88333333333333</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -5331,6 +5739,12 @@
       <c r="C69" t="n">
         <v>1.86666666666667</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.13333333333333</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -5342,6 +5756,12 @@
       <c r="C70" t="n">
         <v>2.08333333333333</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -5353,6 +5773,12 @@
       <c r="C71" t="n">
         <v>2.00833333333333</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -5364,6 +5790,12 @@
       <c r="C72" t="n">
         <v>1.45833333333333</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.09166666666667</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -5375,6 +5807,12 @@
       <c r="C73" t="n">
         <v>2.05</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.24166666666667</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -5386,6 +5824,12 @@
       <c r="C74" t="n">
         <v>2.3</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.875</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -5397,6 +5841,12 @@
       <c r="C75" t="n">
         <v>1.43333333333333</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.89166666666667</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -5408,6 +5858,12 @@
       <c r="C76" t="n">
         <v>1.70833333333333</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.875</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -5419,6 +5875,12 @@
       <c r="C77" t="n">
         <v>2.01666666666667</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5.31666666666667</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -5430,6 +5892,12 @@
       <c r="C78" t="n">
         <v>2.175</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6.13333333333333</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -5441,6 +5909,12 @@
       <c r="C79" t="n">
         <v>1.775</v>
       </c>
+      <c r="D79" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.79166666666667</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -5452,6 +5926,12 @@
       <c r="C80" t="n">
         <v>2.20833333333333</v>
       </c>
+      <c r="D80" t="n">
+        <v>0.883333333333333</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.78333333333333</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5463,6 +5943,12 @@
       <c r="C81" t="n">
         <v>2.28333333333333</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.38333333333333</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -5474,6 +5960,12 @@
       <c r="C82" t="n">
         <v>2.03333333333333</v>
       </c>
+      <c r="D82" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.65833333333333</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -5485,6 +5977,12 @@
       <c r="C83" t="n">
         <v>2.23333333333333</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.33333333333333</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -5496,6 +5994,12 @@
       <c r="C84" t="n">
         <v>1.83333333333333</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -5507,6 +6011,12 @@
       <c r="C85" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D85" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.16666666666667</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -5518,6 +6028,12 @@
       <c r="C86" t="n">
         <v>1.33333333333333</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.591666666666667</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -5529,6 +6045,12 @@
       <c r="C87" t="n">
         <v>1.50833333333333</v>
       </c>
+      <c r="D87" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.78333333333333</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -5540,6 +6062,12 @@
       <c r="C88" t="n">
         <v>2.04166666666667</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5.475</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -5551,6 +6079,12 @@
       <c r="C89" t="n">
         <v>1.075</v>
       </c>
+      <c r="D89" t="n">
+        <v>0.508333333333333</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.38333333333333</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -5562,6 +6096,12 @@
       <c r="C90" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.05833333333333</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -5573,6 +6113,12 @@
       <c r="C91" t="n">
         <v>2.05833333333333</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -5584,6 +6130,12 @@
       <c r="C92" t="n">
         <v>2.00833333333333</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.59166666666667</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -5595,6 +6147,12 @@
       <c r="C93" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.60833333333333</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -5606,6 +6164,12 @@
       <c r="C94" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D94" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.50833333333333</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -5617,6 +6181,12 @@
       <c r="C95" t="n">
         <v>0.858333333333333</v>
       </c>
+      <c r="D95" t="n">
+        <v>0.558333333333333</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.34166666666667</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -5628,6 +6198,12 @@
       <c r="C96" t="n">
         <v>1.875</v>
       </c>
+      <c r="D96" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -5639,6 +6215,12 @@
       <c r="C97" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D97" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.75833333333333</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -5650,6 +6232,12 @@
       <c r="C98" t="n">
         <v>2.09166666666667</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.16666666666667</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -5661,6 +6249,12 @@
       <c r="C99" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D99" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.975</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -5672,6 +6266,12 @@
       <c r="C100" t="n">
         <v>1.875</v>
       </c>
+      <c r="D100" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.925</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -5683,6 +6283,12 @@
       <c r="C101" t="n">
         <v>2.075</v>
       </c>
+      <c r="D101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -5694,6 +6300,12 @@
       <c r="C102" t="n">
         <v>1.8</v>
       </c>
+      <c r="D102" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.80833333333333</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -5705,6 +6317,12 @@
       <c r="C103" t="n">
         <v>2.05</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.50833333333333</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -5716,6 +6334,12 @@
       <c r="C104" t="n">
         <v>2.175</v>
       </c>
+      <c r="D104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.98333333333333</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -5727,6 +6351,12 @@
       <c r="C105" t="n">
         <v>2.09166666666667</v>
       </c>
+      <c r="D105" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5.225</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -5738,6 +6368,12 @@
       <c r="C106" t="n">
         <v>2.2</v>
       </c>
+      <c r="D106" t="n">
+        <v>0.883333333333333</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.58333333333333</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -5749,6 +6385,12 @@
       <c r="C107" t="n">
         <v>2.39166666666667</v>
       </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -5760,6 +6402,12 @@
       <c r="C108" t="n">
         <v>1.725</v>
       </c>
+      <c r="D108" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.54166666666667</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -5771,6 +6419,12 @@
       <c r="C109" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.69166666666667</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
@@ -5782,6 +6436,12 @@
       <c r="C110" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D110" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.975</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -5793,6 +6453,12 @@
       <c r="C111" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D111" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.49166666666667</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
@@ -5804,6 +6470,12 @@
       <c r="C112" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.59166666666667</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -5815,6 +6487,12 @@
       <c r="C113" t="n">
         <v>1.75833333333333</v>
       </c>
+      <c r="D113" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -5826,6 +6504,12 @@
       <c r="C114" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D114" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -5837,6 +6521,12 @@
       <c r="C115" t="n">
         <v>2</v>
       </c>
+      <c r="D115" t="n">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.45</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -5848,6 +6538,12 @@
       <c r="C116" t="n">
         <v>1.75</v>
       </c>
+      <c r="D116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10.2666666666667</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -5859,6 +6555,12 @@
       <c r="C117" t="n">
         <v>1.68333333333333</v>
       </c>
+      <c r="D117" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.41666666666667</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -5870,6 +6572,12 @@
       <c r="C118" t="n">
         <v>1.7</v>
       </c>
+      <c r="D118" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.50833333333333</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -5881,6 +6589,12 @@
       <c r="C119" t="n">
         <v>1.625</v>
       </c>
+      <c r="D119" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.20833333333333</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -5892,6 +6606,12 @@
       <c r="C120" t="n">
         <v>2.16666666666667</v>
       </c>
+      <c r="D120" t="n">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5.21666666666667</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -5903,6 +6623,12 @@
       <c r="C121" t="n">
         <v>2.19166666666667</v>
       </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -5914,6 +6640,12 @@
       <c r="C122" t="n">
         <v>1.51666666666667</v>
       </c>
+      <c r="D122" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.98333333333333</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -5925,6 +6657,12 @@
       <c r="C123" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D123" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.63333333333333</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -5936,6 +6674,12 @@
       <c r="C124" t="n">
         <v>1.91666666666667</v>
       </c>
+      <c r="D124" t="n">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.16666666666667</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -5947,6 +6691,12 @@
       <c r="C125" t="n">
         <v>1.85833333333333</v>
       </c>
+      <c r="D125" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.98333333333333</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -5958,6 +6708,12 @@
       <c r="C126" t="n">
         <v>1.51666666666667</v>
       </c>
+      <c r="D126" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.39166666666667</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -5969,6 +6725,12 @@
       <c r="C127" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D127" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.49166666666667</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -5980,6 +6742,12 @@
       <c r="C128" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D128" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -5991,6 +6759,12 @@
       <c r="C129" t="n">
         <v>1.71666666666667</v>
       </c>
+      <c r="D129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.46666666666667</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -6002,6 +6776,12 @@
       <c r="C130" t="n">
         <v>1.8</v>
       </c>
+      <c r="D130" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.61666666666667</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -6013,6 +6793,12 @@
       <c r="C131" t="n">
         <v>2.00833333333333</v>
       </c>
+      <c r="D131" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.84166666666667</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -6024,6 +6810,12 @@
       <c r="C132" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D132" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.425</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -6035,6 +6827,12 @@
       <c r="C133" t="n">
         <v>0.858333333333333</v>
       </c>
+      <c r="D133" t="n">
+        <v>0.391666666666667</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.90833333333333</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -6046,6 +6844,12 @@
       <c r="C134" t="n">
         <v>0.8</v>
       </c>
+      <c r="D134" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.56666666666667</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -6057,6 +6861,12 @@
       <c r="C135" t="n">
         <v>1.66666666666667</v>
       </c>
+      <c r="D135" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.49166666666667</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -6068,6 +6878,12 @@
       <c r="C136" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D136" t="n">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.69166666666667</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -6079,6 +6895,12 @@
       <c r="C137" t="n">
         <v>1.65</v>
       </c>
+      <c r="D137" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -6090,6 +6912,12 @@
       <c r="C138" t="n">
         <v>1.63333333333333</v>
       </c>
+      <c r="D138" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.44166666666667</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -6101,6 +6929,12 @@
       <c r="C139" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D139" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -6112,6 +6946,12 @@
       <c r="C140" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D140" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.84166666666667</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -6123,6 +6963,12 @@
       <c r="C141" t="n">
         <v>1.28333333333333</v>
       </c>
+      <c r="D141" t="n">
+        <v>0.608333333333333</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.70833333333333</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -6134,6 +6980,12 @@
       <c r="C142" t="n">
         <v>1.525</v>
       </c>
+      <c r="D142" t="n">
+        <v>0.616666666666667</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.51666666666667</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -6145,6 +6997,12 @@
       <c r="C143" t="n">
         <v>1.7</v>
       </c>
+      <c r="D143" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -6156,6 +7014,12 @@
       <c r="C144" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D144" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.975</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -6167,6 +7031,12 @@
       <c r="C145" t="n">
         <v>1.7</v>
       </c>
+      <c r="D145" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.54166666666667</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
@@ -6178,6 +7048,12 @@
       <c r="C146" t="n">
         <v>1.65833333333333</v>
       </c>
+      <c r="D146" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -6189,6 +7065,12 @@
       <c r="C147" t="n">
         <v>1.7</v>
       </c>
+      <c r="D147" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.14166666666667</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
@@ -6200,6 +7082,12 @@
       <c r="C148" t="n">
         <v>2.09166666666667</v>
       </c>
+      <c r="D148" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -6211,6 +7099,12 @@
       <c r="C149" t="n">
         <v>1.86666666666667</v>
       </c>
+      <c r="D149" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.775</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -6222,6 +7116,12 @@
       <c r="C150" t="n">
         <v>1.9</v>
       </c>
+      <c r="D150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -6233,6 +7133,12 @@
       <c r="C151" t="n">
         <v>1.91666666666667</v>
       </c>
+      <c r="D151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.94166666666667</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -6244,6 +7150,12 @@
       <c r="C152" t="n">
         <v>1.21666666666667</v>
       </c>
+      <c r="D152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.79166666666667</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -6255,6 +7167,12 @@
       <c r="C153" t="n">
         <v>0.658333333333333</v>
       </c>
+      <c r="D153" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.33333333333333</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -6266,6 +7184,12 @@
       <c r="C154" t="n">
         <v>1.69166666666667</v>
       </c>
+      <c r="D154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.36666666666667</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -6277,6 +7201,12 @@
       <c r="C155" t="n">
         <v>1.75</v>
       </c>
+      <c r="D155" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.60833333333333</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -6288,6 +7218,12 @@
       <c r="C156" t="n">
         <v>1.625</v>
       </c>
+      <c r="D156" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -6299,6 +7235,12 @@
       <c r="C157" t="n">
         <v>1.85</v>
       </c>
+      <c r="D157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -6310,6 +7252,12 @@
       <c r="C158" t="n">
         <v>1.89166666666667</v>
       </c>
+      <c r="D158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.90833333333333</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -6321,6 +7269,12 @@
       <c r="C159" t="n">
         <v>1.9</v>
       </c>
+      <c r="D159" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.025</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -6332,6 +7286,12 @@
       <c r="C160" t="n">
         <v>1.80833333333333</v>
       </c>
+      <c r="D160" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -6343,6 +7303,12 @@
       <c r="C161" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D161" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.66666666666667</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -6354,6 +7320,12 @@
       <c r="C162" t="n">
         <v>0.875</v>
       </c>
+      <c r="D162" t="n">
+        <v>0.408333333333333</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -6365,6 +7337,12 @@
       <c r="C163" t="n">
         <v>1.85833333333333</v>
       </c>
+      <c r="D163" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.99166666666667</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -6376,6 +7354,12 @@
       <c r="C164" t="n">
         <v>2.08333333333333</v>
       </c>
+      <c r="D164" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.30833333333333</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -6387,6 +7371,12 @@
       <c r="C165" t="n">
         <v>2.35</v>
       </c>
+      <c r="D165" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.75833333333333</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -6398,6 +7388,12 @@
       <c r="C166" t="n">
         <v>2.01666666666667</v>
       </c>
+      <c r="D166" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.14166666666667</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -6409,6 +7405,12 @@
       <c r="C167" t="n">
         <v>1.8</v>
       </c>
+      <c r="D167" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.28333333333333</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -6420,6 +7422,12 @@
       <c r="C168" t="n">
         <v>2.10833333333333</v>
       </c>
+      <c r="D168" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.825</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -6431,6 +7439,12 @@
       <c r="C169" t="n">
         <v>2.19166666666667</v>
       </c>
+      <c r="D169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.61666666666667</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -6442,6 +7456,12 @@
       <c r="C170" t="n">
         <v>2.075</v>
       </c>
+      <c r="D170" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.575</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -6453,6 +7473,12 @@
       <c r="C171" t="n">
         <v>2.65833333333333</v>
       </c>
+      <c r="D171" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.325</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -6464,6 +7490,12 @@
       <c r="C172" t="n">
         <v>1.9</v>
       </c>
+      <c r="D172" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.26666666666667</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -6475,6 +7507,12 @@
       <c r="C173" t="n">
         <v>2.20833333333333</v>
       </c>
+      <c r="D173" t="n">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.58333333333333</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -6486,6 +7524,12 @@
       <c r="C174" t="n">
         <v>1.69166666666667</v>
       </c>
+      <c r="D174" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.13333333333333</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -6497,6 +7541,12 @@
       <c r="C175" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D175" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.61666666666667</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -6508,6 +7558,12 @@
       <c r="C176" t="n">
         <v>1.85</v>
       </c>
+      <c r="D176" t="n">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.90833333333333</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -6519,6 +7575,12 @@
       <c r="C177" t="n">
         <v>1.725</v>
       </c>
+      <c r="D177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -6530,6 +7592,12 @@
       <c r="C178" t="n">
         <v>1.7</v>
       </c>
+      <c r="D178" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -6541,6 +7609,12 @@
       <c r="C179" t="n">
         <v>1.91666666666667</v>
       </c>
+      <c r="D179" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.40833333333333</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -6552,6 +7626,12 @@
       <c r="C180" t="n">
         <v>2.03333333333333</v>
       </c>
+      <c r="D180" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5.45833333333333</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -6563,6 +7643,12 @@
       <c r="C181" t="n">
         <v>2.30833333333333</v>
       </c>
+      <c r="D181" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.24166666666667</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -6574,6 +7660,12 @@
       <c r="C182" t="n">
         <v>2.73333333333333</v>
       </c>
+      <c r="D182" t="n">
+        <v>1.14166666666667</v>
+      </c>
+      <c r="E182" t="n">
+        <v>7.38333333333333</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -6585,6 +7677,12 @@
       <c r="C183" t="n">
         <v>1.63333333333333</v>
       </c>
+      <c r="D183" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.375</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
@@ -6596,6 +7694,12 @@
       <c r="C184" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D184" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.80833333333333</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -6607,6 +7711,12 @@
       <c r="C185" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D185" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.61666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
@@ -6618,6 +7728,12 @@
       <c r="C186" t="n">
         <v>1.625</v>
       </c>
+      <c r="D186" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.51666666666667</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -6629,6 +7745,12 @@
       <c r="C187" t="n">
         <v>1.8</v>
       </c>
+      <c r="D187" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.93333333333333</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -6640,6 +7762,12 @@
       <c r="C188" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D188" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.875</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -6651,6 +7779,12 @@
       <c r="C189" t="n">
         <v>1.575</v>
       </c>
+      <c r="D189" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.24166666666667</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -6662,6 +7796,12 @@
       <c r="C190" t="n">
         <v>1.875</v>
       </c>
+      <c r="D190" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -6673,6 +7813,12 @@
       <c r="C191" t="n">
         <v>1.825</v>
       </c>
+      <c r="D191" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -6684,6 +7830,12 @@
       <c r="C192" t="n">
         <v>2.175</v>
       </c>
+      <c r="D192" t="n">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.26666666666667</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
@@ -6695,6 +7847,12 @@
       <c r="C193" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D193" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.475</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -6706,6 +7864,12 @@
       <c r="C194" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D194" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.675</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
@@ -6717,6 +7881,12 @@
       <c r="C195" t="n">
         <v>1.65833333333333</v>
       </c>
+      <c r="D195" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.48333333333333</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -6728,6 +7898,12 @@
       <c r="C196" t="n">
         <v>1.68333333333333</v>
       </c>
+      <c r="D196" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.45833333333333</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
@@ -6739,6 +7915,12 @@
       <c r="C197" t="n">
         <v>1.75</v>
       </c>
+      <c r="D197" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.64166666666667</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
@@ -6750,6 +7932,12 @@
       <c r="C198" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D198" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.575</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -6761,6 +7949,12 @@
       <c r="C199" t="n">
         <v>2.01666666666667</v>
       </c>
+      <c r="D199" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -6772,6 +7966,12 @@
       <c r="C200" t="n">
         <v>2.125</v>
       </c>
+      <c r="D200" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.05833333333333</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -6783,6 +7983,12 @@
       <c r="C201" t="n">
         <v>1.5</v>
       </c>
+      <c r="D201" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.20833333333333</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
@@ -6794,6 +8000,12 @@
       <c r="C202" t="n">
         <v>1.80833333333333</v>
       </c>
+      <c r="D202" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -6805,6 +8017,12 @@
       <c r="C203" t="n">
         <v>0.858333333333333</v>
       </c>
+      <c r="D203" t="n">
+        <v>0.383333333333333</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -6816,6 +8034,12 @@
       <c r="C204" t="n">
         <v>1.88333333333333</v>
       </c>
+      <c r="D204" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.925</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -6827,6 +8051,12 @@
       <c r="C205" t="n">
         <v>1.90833333333333</v>
       </c>
+      <c r="D205" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.21666666666667</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
@@ -6838,6 +8068,12 @@
       <c r="C206" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D206" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.775</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -6849,6 +8085,12 @@
       <c r="C207" t="n">
         <v>1.85</v>
       </c>
+      <c r="D207" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.89166666666667</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -6860,6 +8102,12 @@
       <c r="C208" t="n">
         <v>1.89166666666667</v>
       </c>
+      <c r="D208" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.01666666666667</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -6871,6 +8119,12 @@
       <c r="C209" t="n">
         <v>1.83333333333333</v>
       </c>
+      <c r="D209" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.79166666666667</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -6882,6 +8136,12 @@
       <c r="C210" t="n">
         <v>1.9</v>
       </c>
+      <c r="D210" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.89166666666667</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -6893,6 +8153,12 @@
       <c r="C211" t="n">
         <v>1.875</v>
       </c>
+      <c r="D211" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.80833333333333</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -6904,6 +8170,12 @@
       <c r="C212" t="n">
         <v>1.875</v>
       </c>
+      <c r="D212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.60833333333333</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
@@ -6915,6 +8187,12 @@
       <c r="C213" t="n">
         <v>1.875</v>
       </c>
+      <c r="D213" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.74166666666667</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
@@ -6926,6 +8204,12 @@
       <c r="C214" t="n">
         <v>1.875</v>
       </c>
+      <c r="D214" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.74166666666667</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -6937,6 +8221,12 @@
       <c r="C215" t="n">
         <v>2.09166666666667</v>
       </c>
+      <c r="D215" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.34166666666667</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -6948,6 +8238,12 @@
       <c r="C216" t="n">
         <v>2.33333333333333</v>
       </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6.26666666666667</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -6959,6 +8255,12 @@
       <c r="C217" t="n">
         <v>1.56666666666667</v>
       </c>
+      <c r="D217" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.18333333333333</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
@@ -6970,6 +8272,12 @@
       <c r="C218" t="n">
         <v>1.61666666666667</v>
       </c>
+      <c r="D218" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.40833333333333</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -6981,6 +8289,12 @@
       <c r="C219" t="n">
         <v>1.55833333333333</v>
       </c>
+      <c r="D219" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -6992,6 +8306,12 @@
       <c r="C220" t="n">
         <v>2.04166666666667</v>
       </c>
+      <c r="D220" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
@@ -7003,6 +8323,12 @@
       <c r="C221" t="n">
         <v>1.91666666666667</v>
       </c>
+      <c r="D221" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.21666666666667</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
@@ -7014,6 +8340,12 @@
       <c r="C222" t="n">
         <v>3.40833333333333</v>
       </c>
+      <c r="D222" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E222" t="n">
+        <v>7.225</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -7025,6 +8357,12 @@
       <c r="C223" t="n">
         <v>1.53333333333333</v>
       </c>
+      <c r="D223" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.24166666666667</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -7036,6 +8374,12 @@
       <c r="C224" t="n">
         <v>1.8</v>
       </c>
+      <c r="D224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -7047,6 +8391,12 @@
       <c r="C225" t="n">
         <v>1.86666666666667</v>
       </c>
+      <c r="D225" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3.98333333333333</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
@@ -7058,6 +8408,12 @@
       <c r="C226" t="n">
         <v>1.8</v>
       </c>
+      <c r="D226" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.68333333333333</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -7069,6 +8425,12 @@
       <c r="C227" t="n">
         <v>2.05</v>
       </c>
+      <c r="D227" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -7080,6 +8442,12 @@
       <c r="C228" t="n">
         <v>1.65</v>
       </c>
+      <c r="D228" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.24166666666667</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -7091,6 +8459,12 @@
       <c r="C229" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D229" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.98333333333333</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
@@ -7102,6 +8476,12 @@
       <c r="C230" t="n">
         <v>1.85</v>
       </c>
+      <c r="D230" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.225</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -7113,6 +8493,12 @@
       <c r="C231" t="n">
         <v>1.66666666666667</v>
       </c>
+      <c r="D231" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
@@ -7124,6 +8510,12 @@
       <c r="C232" t="n">
         <v>1.63333333333333</v>
       </c>
+      <c r="D232" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.475</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -7135,6 +8527,12 @@
       <c r="C233" t="n">
         <v>1.78333333333333</v>
       </c>
+      <c r="D233" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -7146,6 +8544,12 @@
       <c r="C234" t="n">
         <v>1.83333333333333</v>
       </c>
+      <c r="D234" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.94166666666667</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -7157,6 +8561,12 @@
       <c r="C235" t="n">
         <v>2.28333333333333</v>
       </c>
+      <c r="D235" t="n">
+        <v>0.908333333333333</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.85833333333333</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -7168,6 +8578,12 @@
       <c r="C236" t="n">
         <v>1.725</v>
       </c>
+      <c r="D236" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.95833333333333</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -7179,6 +8595,12 @@
       <c r="C237" t="n">
         <v>2.14166666666667</v>
       </c>
+      <c r="D237" t="n">
+        <v>0.841666666666667</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5.64166666666667</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
@@ -7190,6 +8612,12 @@
       <c r="C238" t="n">
         <v>2.65</v>
       </c>
+      <c r="D238" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="E238" t="n">
+        <v>6.94166666666667</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -7201,6 +8629,12 @@
       <c r="C239" t="n">
         <v>1.45</v>
       </c>
+      <c r="D239" t="n">
+        <v>0.608333333333333</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.09166666666667</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -7212,6 +8646,12 @@
       <c r="C240" t="n">
         <v>1.75833333333333</v>
       </c>
+      <c r="D240" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.675</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -7223,6 +8663,12 @@
       <c r="C241" t="n">
         <v>1.73333333333333</v>
       </c>
+      <c r="D241" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.51666666666667</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -7234,6 +8680,12 @@
       <c r="C242" t="n">
         <v>1.50833333333333</v>
       </c>
+      <c r="D242" t="n">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.55833333333333</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -7245,6 +8697,12 @@
       <c r="C243" t="n">
         <v>1.85833333333333</v>
       </c>
+      <c r="D243" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5.14166666666667</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -7256,6 +8714,12 @@
       <c r="C244" t="n">
         <v>1.63333333333333</v>
       </c>
+      <c r="D244" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -7267,6 +8731,12 @@
       <c r="C245" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D245" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E245" t="n">
+        <v>3.83333333333333</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -7278,6 +8748,12 @@
       <c r="C246" t="n">
         <v>1.575</v>
       </c>
+      <c r="D246" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -7289,6 +8765,12 @@
       <c r="C247" t="n">
         <v>1.58333333333333</v>
       </c>
+      <c r="D247" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.175</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -7300,6 +8782,12 @@
       <c r="C248" t="n">
         <v>1.825</v>
       </c>
+      <c r="D248" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.63333333333333</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -7311,6 +8799,12 @@
       <c r="C249" t="n">
         <v>2.1</v>
       </c>
+      <c r="D249" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -7322,6 +8816,12 @@
       <c r="C250" t="n">
         <v>1.575</v>
       </c>
+      <c r="D250" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E250" t="n">
+        <v>3.69166666666667</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -7333,6 +8833,12 @@
       <c r="C251" t="n">
         <v>1.84166666666667</v>
       </c>
+      <c r="D251" t="n">
+        <v>0.758333333333333</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.96666666666667</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -7344,6 +8850,12 @@
       <c r="C252" t="n">
         <v>2.15</v>
       </c>
+      <c r="D252" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5.41666666666667</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -7355,6 +8867,12 @@
       <c r="C253" t="n">
         <v>1.61666666666667</v>
       </c>
+      <c r="D253" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.46666666666667</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -7366,6 +8884,12 @@
       <c r="C254" t="n">
         <v>1.90833333333333</v>
       </c>
+      <c r="D254" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.21666666666667</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -7377,6 +8901,12 @@
       <c r="C255" t="n">
         <v>1.90833333333333</v>
       </c>
+      <c r="D255" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -7388,6 +8918,12 @@
       <c r="C256" t="n">
         <v>2</v>
       </c>
+      <c r="D256" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.76666666666667</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -7399,6 +8935,12 @@
       <c r="C257" t="n">
         <v>2.11666666666667</v>
       </c>
+      <c r="D257" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E257" t="n">
+        <v>3.96666666666667</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -7410,6 +8952,12 @@
       <c r="C258" t="n">
         <v>2.125</v>
       </c>
+      <c r="D258" t="n">
+        <v>0.891666666666667</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -7421,6 +8969,12 @@
       <c r="C259" t="n">
         <v>1.75</v>
       </c>
+      <c r="D259" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.45833333333333</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
@@ -7432,6 +8986,12 @@
       <c r="C260" t="n">
         <v>1.76666666666667</v>
       </c>
+      <c r="D260" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.59166666666667</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -7443,6 +9003,12 @@
       <c r="C261" t="n">
         <v>1.65</v>
       </c>
+      <c r="D261" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.275</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -7454,6 +9020,12 @@
       <c r="C262" t="n">
         <v>1.91666666666667</v>
       </c>
+      <c r="D262" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5.05</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -7465,6 +9037,12 @@
       <c r="C263" t="n">
         <v>2.08333333333333</v>
       </c>
+      <c r="D263" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5.40833333333333</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -7476,6 +9054,12 @@
       <c r="C264" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D264" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5.08333333333333</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -7487,6 +9071,12 @@
       <c r="C265" t="n">
         <v>2.00833333333333</v>
       </c>
+      <c r="D265" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5.15833333333333</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -7498,6 +9088,12 @@
       <c r="C266" t="n">
         <v>1.81666666666667</v>
       </c>
+      <c r="D266" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5.03333333333333</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -7509,6 +9105,12 @@
       <c r="C267" t="n">
         <v>1.48333333333333</v>
       </c>
+      <c r="D267" t="n">
+        <v>0.683333333333333</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.83333333333333</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -7520,6 +9122,12 @@
       <c r="C268" t="n">
         <v>0.766666666666667</v>
       </c>
+      <c r="D268" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -7531,6 +9139,12 @@
       <c r="C269" t="n">
         <v>2.2</v>
       </c>
+      <c r="D269" t="n">
+        <v>0.858333333333333</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5.68333333333333</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -7542,6 +9156,12 @@
       <c r="C270" t="n">
         <v>1.60833333333333</v>
       </c>
+      <c r="D270" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.74166666666667</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -7553,6 +9173,12 @@
       <c r="C271" t="n">
         <v>1.875</v>
       </c>
+      <c r="D271" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5.175</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -7564,6 +9190,12 @@
       <c r="C272" t="n">
         <v>2.7</v>
       </c>
+      <c r="D272" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E272" t="n">
+        <v>7.13333333333333</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -7575,6 +9207,12 @@
       <c r="C273" t="n">
         <v>1.46666666666667</v>
       </c>
+      <c r="D273" t="n">
+        <v>0.616666666666667</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.51666666666667</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -7586,6 +9224,12 @@
       <c r="C274" t="n">
         <v>1.74166666666667</v>
       </c>
+      <c r="D274" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.95833333333333</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -7597,6 +9241,12 @@
       <c r="C275" t="n">
         <v>1.71666666666667</v>
       </c>
+      <c r="D275" t="n">
+        <v>0.716666666666667</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.95833333333333</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -7608,6 +9258,12 @@
       <c r="C276" t="n">
         <v>1.83333333333333</v>
       </c>
+      <c r="D276" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -7619,6 +9275,12 @@
       <c r="C277" t="n">
         <v>1.86666666666667</v>
       </c>
+      <c r="D277" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.675</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -7630,6 +9292,12 @@
       <c r="C278" t="n">
         <v>1.89166666666667</v>
       </c>
+      <c r="D278" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3.73333333333333</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -7641,6 +9309,12 @@
       <c r="C279" t="n">
         <v>1.875</v>
       </c>
+      <c r="D279" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5.025</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -7652,6 +9326,12 @@
       <c r="C280" t="n">
         <v>2.31666666666667</v>
       </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>5.76666666666667</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -7663,6 +9343,12 @@
       <c r="C281" t="n">
         <v>2.59166666666667</v>
       </c>
+      <c r="D281" t="n">
+        <v>1.06666666666667</v>
+      </c>
+      <c r="E281" t="n">
+        <v>6.60833333333333</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -7674,6 +9360,12 @@
       <c r="C282" t="n">
         <v>1.55</v>
       </c>
+      <c r="D282" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.525</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -7685,6 +9377,12 @@
       <c r="C283" t="n">
         <v>1.625</v>
       </c>
+      <c r="D283" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E283" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -7696,6 +9394,12 @@
       <c r="C284" t="n">
         <v>1.725</v>
       </c>
+      <c r="D284" t="n">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="E284" t="n">
+        <v>3.925</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -7707,6 +9411,12 @@
       <c r="C285" t="n">
         <v>2.35</v>
       </c>
+      <c r="D285" t="n">
+        <v>1.05833333333333</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.025</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -7718,6 +9428,12 @@
       <c r="C286" t="n">
         <v>3.75</v>
       </c>
+      <c r="D286" t="n">
+        <v>1.19166666666667</v>
+      </c>
+      <c r="E286" t="n">
+        <v>8.875</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -7729,6 +9445,12 @@
       <c r="C287" t="n">
         <v>1.875</v>
       </c>
+      <c r="D287" t="n">
+        <v>0.783333333333333</v>
+      </c>
+      <c r="E287" t="n">
+        <v>3.78333333333333</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -7740,6 +9462,12 @@
       <c r="C288" t="n">
         <v>2.01666666666667</v>
       </c>
+      <c r="D288" t="n">
+        <v>0.816666666666667</v>
+      </c>
+      <c r="E288" t="n">
+        <v>3.93333333333333</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -7751,6 +9479,12 @@
       <c r="C289" t="n">
         <v>2</v>
       </c>
+      <c r="D289" t="n">
+        <v>0.808333333333333</v>
+      </c>
+      <c r="E289" t="n">
+        <v>3.94166666666667</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -7762,6 +9496,12 @@
       <c r="C290" t="n">
         <v>1.55</v>
       </c>
+      <c r="D290" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="E290" t="n">
+        <v>3.425</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -7773,6 +9513,12 @@
       <c r="C291" t="n">
         <v>1.9</v>
       </c>
+      <c r="D291" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -7784,6 +9530,12 @@
       <c r="C292" t="n">
         <v>1.79166666666667</v>
       </c>
+      <c r="D292" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3.725</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -7795,6 +9547,12 @@
       <c r="C293" t="n">
         <v>1.825</v>
       </c>
+      <c r="D293" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3.975</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -7806,6 +9564,12 @@
       <c r="C294" t="n">
         <v>2.525</v>
       </c>
+      <c r="D294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E294" t="n">
+        <v>7.38333333333333</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -7817,6 +9581,12 @@
       <c r="C295" t="n">
         <v>1.05833333333333</v>
       </c>
+      <c r="D295" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2.48333333333333</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -7828,6 +9598,12 @@
       <c r="C296" t="n">
         <v>0.691666666666667</v>
       </c>
+      <c r="D296" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3.96666666666667</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -7839,6 +9615,12 @@
       <c r="C297" t="n">
         <v>0.566666666666667</v>
       </c>
+      <c r="D297" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="E297" t="n">
+        <v>17.2333333333333</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
@@ -7850,6 +9632,12 @@
       <c r="C298" t="n">
         <v>1.575</v>
       </c>
+      <c r="D298" t="n">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="E298" t="n">
+        <v>3.375</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -7861,6 +9649,12 @@
       <c r="C299" t="n">
         <v>1.725</v>
       </c>
+      <c r="D299" t="n">
+        <v>0.741666666666667</v>
+      </c>
+      <c r="E299" t="n">
+        <v>3.525</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -7872,6 +9666,12 @@
       <c r="C300" t="n">
         <v>1.7</v>
       </c>
+      <c r="D300" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="E300" t="n">
+        <v>3.425</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -7882,6 +9682,12 @@
       </c>
       <c r="C301" t="n">
         <v>0.516666666666667</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.241666666666667</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.06666666666667</v>
       </c>
     </row>
   </sheetData>
